--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c101_I2_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c101_I2_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3504" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5840" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -138,11 +148,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -165,26 +177,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true">
-      <c r="A1" t="s" s="3">
+    <row r="1" s="5" customFormat="true">
+      <c r="A1" t="s" s="5">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" t="s" s="5">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" t="s" s="5">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" t="s" s="5">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" t="s" s="5">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="3">
+      <c r="F1" t="s" s="5">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="3">
+      <c r="G1" t="s" s="5">
         <v>7</v>
       </c>
     </row>
@@ -212,28 +224,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="3">
+      <c r="A3" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="3">
+      <c r="B3" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="3">
+      <c r="C3" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="3">
+      <c r="E3" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="3">
+      <c r="F3" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="3">
+      <c r="G3" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="3">
+      <c r="H3" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -258,28 +270,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="3">
+      <c r="B5" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="3">
+      <c r="C5" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="3">
+      <c r="D5" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="3">
+      <c r="E5" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="3">
+      <c r="F5" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="3">
+      <c r="G5" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="3">
+      <c r="H5" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="3">
+      <c r="I5" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -338,10 +350,10 @@
       <c r="I7">
         <f>((C7-C6)^2+(D7- D6)^2)^.5</f>
       </c>
-      <c r="J7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="3" t="s">
+      <c r="J7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L7" t="n">
@@ -385,28 +397,28 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="3">
+      <c r="A9" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B9" t="s" s="3">
+      <c r="B9" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C9" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s" s="3">
+      <c r="C9" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E9" t="s" s="3">
+      <c r="E9" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F9" t="s" s="3">
+      <c r="F9" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G9" t="s" s="3">
+      <c r="G9" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H9" t="s" s="3">
+      <c r="H9" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -431,28 +443,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="B11" t="s" s="3">
+      <c r="B11" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C11" t="s" s="3">
+      <c r="C11" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D11" t="s" s="3">
+      <c r="D11" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E11" t="s" s="3">
+      <c r="E11" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F11" t="s" s="3">
+      <c r="F11" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G11" t="s" s="3">
+      <c r="G11" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H11" t="s" s="3">
+      <c r="H11" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I11" t="s" s="3">
+      <c r="I11" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -627,10 +639,10 @@
       <c r="I17">
         <f>((C17-C16)^2+(D17- D16)^2)^.5</f>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K17" s="3" t="s">
+      <c r="J17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K17" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L17" t="n">
@@ -674,28 +686,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s" s="3">
+      <c r="A19" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B19" t="s" s="3">
+      <c r="B19" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C19" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D19" t="s" s="3">
+      <c r="C19" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E19" t="s" s="3">
+      <c r="E19" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F19" t="s" s="3">
+      <c r="F19" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G19" t="s" s="3">
+      <c r="G19" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H19" t="s" s="3">
+      <c r="H19" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -720,28 +732,28 @@
       </c>
     </row>
     <row r="21">
-      <c r="B21" t="s" s="3">
+      <c r="B21" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C21" t="s" s="3">
+      <c r="C21" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D21" t="s" s="3">
+      <c r="D21" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E21" t="s" s="3">
+      <c r="E21" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F21" t="s" s="3">
+      <c r="F21" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G21" t="s" s="3">
+      <c r="G21" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H21" t="s" s="3">
+      <c r="H21" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I21" t="s" s="3">
+      <c r="I21" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -800,10 +812,10 @@
       <c r="I23">
         <f>((C23-C22)^2+(D23- D22)^2)^.5</f>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K23" s="3" t="s">
+      <c r="J23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K23" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L23" t="n">
@@ -847,28 +859,28 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="3">
+      <c r="A25" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B25" t="s" s="3">
+      <c r="B25" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C25" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D25" t="s" s="3">
+      <c r="C25" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E25" t="s" s="3">
+      <c r="E25" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F25" t="s" s="3">
+      <c r="F25" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G25" t="s" s="3">
+      <c r="G25" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H25" t="s" s="3">
+      <c r="H25" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -893,28 +905,28 @@
       </c>
     </row>
     <row r="27">
-      <c r="B27" t="s" s="3">
+      <c r="B27" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C27" t="s" s="3">
+      <c r="C27" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D27" t="s" s="3">
+      <c r="D27" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E27" t="s" s="3">
+      <c r="E27" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F27" t="s" s="3">
+      <c r="F27" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G27" t="s" s="3">
+      <c r="G27" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H27" t="s" s="3">
+      <c r="H27" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I27" t="s" s="3">
+      <c r="I27" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -1002,10 +1014,10 @@
       <c r="I30">
         <f>((C30-C29)^2+(D30- D29)^2)^.5</f>
       </c>
-      <c r="J30" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K30" s="3" t="s">
+      <c r="J30" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K30" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L30" t="n">
@@ -1049,28 +1061,28 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s" s="3">
+      <c r="A32" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B32" t="s" s="3">
+      <c r="B32" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C32" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D32" t="s" s="3">
+      <c r="C32" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E32" t="s" s="3">
+      <c r="E32" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F32" t="s" s="3">
+      <c r="F32" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G32" t="s" s="3">
+      <c r="G32" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H32" t="s" s="3">
+      <c r="H32" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -1095,28 +1107,28 @@
       </c>
     </row>
     <row r="34">
-      <c r="B34" t="s" s="3">
+      <c r="B34" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C34" t="s" s="3">
+      <c r="C34" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D34" t="s" s="3">
+      <c r="D34" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E34" t="s" s="3">
+      <c r="E34" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F34" t="s" s="3">
+      <c r="F34" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G34" t="s" s="3">
+      <c r="G34" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H34" t="s" s="3">
+      <c r="H34" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I34" t="s" s="3">
+      <c r="I34" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -1204,10 +1216,10 @@
       <c r="I37">
         <f>((C37-C36)^2+(D37- D36)^2)^.5</f>
       </c>
-      <c r="J37" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K37" s="3" t="s">
+      <c r="J37" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K37" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L37" t="n">
@@ -1251,28 +1263,28 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="s" s="3">
+      <c r="A39" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B39" t="s" s="3">
+      <c r="B39" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C39" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D39" t="s" s="3">
+      <c r="C39" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D39" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E39" t="s" s="3">
+      <c r="E39" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F39" t="s" s="3">
+      <c r="F39" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G39" t="s" s="3">
+      <c r="G39" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H39" t="s" s="3">
+      <c r="H39" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -1297,28 +1309,28 @@
       </c>
     </row>
     <row r="41">
-      <c r="B41" t="s" s="3">
+      <c r="B41" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C41" t="s" s="3">
+      <c r="C41" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D41" t="s" s="3">
+      <c r="D41" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E41" t="s" s="3">
+      <c r="E41" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F41" t="s" s="3">
+      <c r="F41" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G41" t="s" s="3">
+      <c r="G41" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H41" t="s" s="3">
+      <c r="H41" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I41" t="s" s="3">
+      <c r="I41" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -1406,10 +1418,10 @@
       <c r="I44">
         <f>((C44-C43)^2+(D44- D43)^2)^.5</f>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K44" s="3" t="s">
+      <c r="J44" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K44" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L44" t="n">
@@ -1453,28 +1465,28 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="s" s="3">
+      <c r="A46" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B46" t="s" s="3">
+      <c r="B46" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C46" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D46" t="s" s="3">
+      <c r="C46" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D46" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E46" t="s" s="3">
+      <c r="E46" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F46" t="s" s="3">
+      <c r="F46" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G46" t="s" s="3">
+      <c r="G46" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H46" t="s" s="3">
+      <c r="H46" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -1499,28 +1511,28 @@
       </c>
     </row>
     <row r="48">
-      <c r="B48" t="s" s="3">
+      <c r="B48" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C48" t="s" s="3">
+      <c r="C48" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D48" t="s" s="3">
+      <c r="D48" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E48" t="s" s="3">
+      <c r="E48" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F48" t="s" s="3">
+      <c r="F48" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G48" t="s" s="3">
+      <c r="G48" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H48" t="s" s="3">
+      <c r="H48" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I48" t="s" s="3">
+      <c r="I48" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -1608,10 +1620,10 @@
       <c r="I51">
         <f>((C51-C50)^2+(D51- D50)^2)^.5</f>
       </c>
-      <c r="J51" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K51" s="3" t="s">
+      <c r="J51" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K51" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L51" t="n">
@@ -1655,28 +1667,28 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="s" s="3">
+      <c r="A53" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B53" t="s" s="3">
+      <c r="B53" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C53" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D53" t="s" s="3">
+      <c r="C53" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D53" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E53" t="s" s="3">
+      <c r="E53" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F53" t="s" s="3">
+      <c r="F53" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G53" t="s" s="3">
+      <c r="G53" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H53" t="s" s="3">
+      <c r="H53" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -1701,28 +1713,28 @@
       </c>
     </row>
     <row r="55">
-      <c r="B55" t="s" s="3">
+      <c r="B55" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C55" t="s" s="3">
+      <c r="C55" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D55" t="s" s="3">
+      <c r="D55" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E55" t="s" s="3">
+      <c r="E55" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F55" t="s" s="3">
+      <c r="F55" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G55" t="s" s="3">
+      <c r="G55" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H55" t="s" s="3">
+      <c r="H55" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I55" t="s" s="3">
+      <c r="I55" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -1781,10 +1793,10 @@
       <c r="I57">
         <f>((C57-C56)^2+(D57- D56)^2)^.5</f>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K57" s="3" t="s">
+      <c r="J57" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K57" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L57" t="n">
@@ -1828,28 +1840,28 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="s" s="3">
+      <c r="A59" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B59" t="s" s="3">
+      <c r="B59" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C59" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D59" t="s" s="3">
+      <c r="C59" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D59" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E59" t="s" s="3">
+      <c r="E59" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F59" t="s" s="3">
+      <c r="F59" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G59" t="s" s="3">
+      <c r="G59" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H59" t="s" s="3">
+      <c r="H59" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -1874,28 +1886,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="B61" t="s" s="3">
+      <c r="B61" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C61" t="s" s="3">
+      <c r="C61" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D61" t="s" s="3">
+      <c r="D61" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E61" t="s" s="3">
+      <c r="E61" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F61" t="s" s="3">
+      <c r="F61" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G61" t="s" s="3">
+      <c r="G61" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H61" t="s" s="3">
+      <c r="H61" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I61" t="s" s="3">
+      <c r="I61" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -1954,10 +1966,10 @@
       <c r="I63">
         <f>((C63-C62)^2+(D63- D62)^2)^.5</f>
       </c>
-      <c r="J63" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K63" s="3" t="s">
+      <c r="J63" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K63" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L63" t="n">
@@ -2001,28 +2013,28 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="s" s="3">
+      <c r="A65" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B65" t="s" s="3">
+      <c r="B65" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C65" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D65" t="s" s="3">
+      <c r="C65" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D65" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E65" t="s" s="3">
+      <c r="E65" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F65" t="s" s="3">
+      <c r="F65" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G65" t="s" s="3">
+      <c r="G65" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H65" t="s" s="3">
+      <c r="H65" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -2047,28 +2059,28 @@
       </c>
     </row>
     <row r="67">
-      <c r="B67" t="s" s="3">
+      <c r="B67" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C67" t="s" s="3">
+      <c r="C67" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D67" t="s" s="3">
+      <c r="D67" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E67" t="s" s="3">
+      <c r="E67" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F67" t="s" s="3">
+      <c r="F67" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G67" t="s" s="3">
+      <c r="G67" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H67" t="s" s="3">
+      <c r="H67" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I67" t="s" s="3">
+      <c r="I67" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -2127,10 +2139,10 @@
       <c r="I69">
         <f>((C69-C68)^2+(D69- D68)^2)^.5</f>
       </c>
-      <c r="J69" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K69" s="3" t="s">
+      <c r="J69" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K69" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L69" t="n">
@@ -2174,28 +2186,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="s" s="3">
+      <c r="A71" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B71" t="s" s="3">
+      <c r="B71" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C71" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D71" t="s" s="3">
+      <c r="C71" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D71" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E71" t="s" s="3">
+      <c r="E71" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F71" t="s" s="3">
+      <c r="F71" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G71" t="s" s="3">
+      <c r="G71" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H71" t="s" s="3">
+      <c r="H71" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -2220,28 +2232,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="B73" t="s" s="3">
+      <c r="B73" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C73" t="s" s="3">
+      <c r="C73" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D73" t="s" s="3">
+      <c r="D73" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E73" t="s" s="3">
+      <c r="E73" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F73" t="s" s="3">
+      <c r="F73" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G73" t="s" s="3">
+      <c r="G73" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H73" t="s" s="3">
+      <c r="H73" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I73" t="s" s="3">
+      <c r="I73" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -2329,10 +2341,10 @@
       <c r="I76">
         <f>((C76-C75)^2+(D76- D75)^2)^.5</f>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K76" s="3" t="s">
+      <c r="J76" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K76" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L76" t="n">
@@ -2376,28 +2388,28 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="s" s="3">
+      <c r="A78" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B78" t="s" s="3">
+      <c r="B78" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C78" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D78" t="s" s="3">
+      <c r="C78" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D78" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E78" t="s" s="3">
+      <c r="E78" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F78" t="s" s="3">
+      <c r="F78" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G78" t="s" s="3">
+      <c r="G78" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H78" t="s" s="3">
+      <c r="H78" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -2422,28 +2434,28 @@
       </c>
     </row>
     <row r="80">
-      <c r="B80" t="s" s="3">
+      <c r="B80" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C80" t="s" s="3">
+      <c r="C80" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D80" t="s" s="3">
+      <c r="D80" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E80" t="s" s="3">
+      <c r="E80" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F80" t="s" s="3">
+      <c r="F80" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G80" t="s" s="3">
+      <c r="G80" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H80" t="s" s="3">
+      <c r="H80" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I80" t="s" s="3">
+      <c r="I80" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -2502,10 +2514,10 @@
       <c r="I82">
         <f>((C82-C81)^2+(D82- D81)^2)^.5</f>
       </c>
-      <c r="J82" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K82" s="3" t="s">
+      <c r="J82" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K82" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L82" t="n">
@@ -2549,28 +2561,28 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="s" s="3">
+      <c r="A84" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B84" t="s" s="3">
+      <c r="B84" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C84" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D84" t="s" s="3">
+      <c r="C84" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D84" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E84" t="s" s="3">
+      <c r="E84" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F84" t="s" s="3">
+      <c r="F84" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G84" t="s" s="3">
+      <c r="G84" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H84" t="s" s="3">
+      <c r="H84" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -2595,28 +2607,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="B86" t="s" s="3">
+      <c r="B86" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C86" t="s" s="3">
+      <c r="C86" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D86" t="s" s="3">
+      <c r="D86" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E86" t="s" s="3">
+      <c r="E86" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F86" t="s" s="3">
+      <c r="F86" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G86" t="s" s="3">
+      <c r="G86" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H86" t="s" s="3">
+      <c r="H86" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I86" t="s" s="3">
+      <c r="I86" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -2704,10 +2716,10 @@
       <c r="I89">
         <f>((C89-C88)^2+(D89- D88)^2)^.5</f>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K89" s="3" t="s">
+      <c r="J89" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K89" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L89" t="n">
@@ -2751,28 +2763,28 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="s" s="3">
+      <c r="A91" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B91" t="s" s="3">
+      <c r="B91" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C91" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D91" t="s" s="3">
+      <c r="C91" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D91" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E91" t="s" s="3">
+      <c r="E91" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F91" t="s" s="3">
+      <c r="F91" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G91" t="s" s="3">
+      <c r="G91" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H91" t="s" s="3">
+      <c r="H91" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -2797,28 +2809,28 @@
       </c>
     </row>
     <row r="93">
-      <c r="B93" t="s" s="3">
+      <c r="B93" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C93" t="s" s="3">
+      <c r="C93" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D93" t="s" s="3">
+      <c r="D93" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E93" t="s" s="3">
+      <c r="E93" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F93" t="s" s="3">
+      <c r="F93" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G93" t="s" s="3">
+      <c r="G93" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H93" t="s" s="3">
+      <c r="H93" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I93" t="s" s="3">
+      <c r="I93" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -2935,10 +2947,10 @@
       <c r="I97">
         <f>((C97-C96)^2+(D97- D96)^2)^.5</f>
       </c>
-      <c r="J97" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K97" s="3" t="s">
+      <c r="J97" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K97" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L97" t="n">
@@ -2982,28 +2994,28 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="s" s="3">
+      <c r="A99" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B99" t="s" s="3">
+      <c r="B99" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C99" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D99" t="s" s="3">
+      <c r="C99" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D99" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E99" t="s" s="3">
+      <c r="E99" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F99" t="s" s="3">
+      <c r="F99" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G99" t="s" s="3">
+      <c r="G99" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H99" t="s" s="3">
+      <c r="H99" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -3028,28 +3040,28 @@
       </c>
     </row>
     <row r="101">
-      <c r="B101" t="s" s="3">
+      <c r="B101" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C101" t="s" s="3">
+      <c r="C101" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D101" t="s" s="3">
+      <c r="D101" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E101" t="s" s="3">
+      <c r="E101" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F101" t="s" s="3">
+      <c r="F101" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G101" t="s" s="3">
+      <c r="G101" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H101" t="s" s="3">
+      <c r="H101" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I101" t="s" s="3">
+      <c r="I101" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -3108,10 +3120,10 @@
       <c r="I103">
         <f>((C103-C102)^2+(D103- D102)^2)^.5</f>
       </c>
-      <c r="J103" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K103" s="3" t="s">
+      <c r="J103" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K103" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L103" t="n">
@@ -3155,28 +3167,28 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="s" s="3">
+      <c r="A105" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B105" t="s" s="3">
+      <c r="B105" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C105" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D105" t="s" s="3">
+      <c r="C105" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D105" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E105" t="s" s="3">
+      <c r="E105" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F105" t="s" s="3">
+      <c r="F105" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G105" t="s" s="3">
+      <c r="G105" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H105" t="s" s="3">
+      <c r="H105" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -3201,28 +3213,28 @@
       </c>
     </row>
     <row r="107">
-      <c r="B107" t="s" s="3">
+      <c r="B107" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C107" t="s" s="3">
+      <c r="C107" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D107" t="s" s="3">
+      <c r="D107" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E107" t="s" s="3">
+      <c r="E107" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F107" t="s" s="3">
+      <c r="F107" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G107" t="s" s="3">
+      <c r="G107" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H107" t="s" s="3">
+      <c r="H107" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I107" t="s" s="3">
+      <c r="I107" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -3310,10 +3322,10 @@
       <c r="I110">
         <f>((C110-C109)^2+(D110- D109)^2)^.5</f>
       </c>
-      <c r="J110" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K110" s="3" t="s">
+      <c r="J110" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K110" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L110" t="n">
@@ -3357,28 +3369,28 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="s" s="3">
+      <c r="A112" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B112" t="s" s="3">
+      <c r="B112" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C112" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D112" t="s" s="3">
+      <c r="C112" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D112" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E112" t="s" s="3">
+      <c r="E112" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F112" t="s" s="3">
+      <c r="F112" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G112" t="s" s="3">
+      <c r="G112" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H112" t="s" s="3">
+      <c r="H112" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -3403,28 +3415,28 @@
       </c>
     </row>
     <row r="114">
-      <c r="B114" t="s" s="3">
+      <c r="B114" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C114" t="s" s="3">
+      <c r="C114" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D114" t="s" s="3">
+      <c r="D114" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E114" t="s" s="3">
+      <c r="E114" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F114" t="s" s="3">
+      <c r="F114" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G114" t="s" s="3">
+      <c r="G114" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H114" t="s" s="3">
+      <c r="H114" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I114" t="s" s="3">
+      <c r="I114" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -3512,10 +3524,10 @@
       <c r="I117">
         <f>((C117-C116)^2+(D117- D116)^2)^.5</f>
       </c>
-      <c r="J117" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K117" s="3" t="s">
+      <c r="J117" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K117" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L117" t="n">
@@ -3559,28 +3571,28 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="s" s="3">
+      <c r="A119" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B119" t="s" s="3">
+      <c r="B119" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C119" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D119" t="s" s="3">
+      <c r="C119" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D119" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E119" t="s" s="3">
+      <c r="E119" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F119" t="s" s="3">
+      <c r="F119" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G119" t="s" s="3">
+      <c r="G119" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H119" t="s" s="3">
+      <c r="H119" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -3605,28 +3617,28 @@
       </c>
     </row>
     <row r="121">
-      <c r="B121" t="s" s="3">
+      <c r="B121" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C121" t="s" s="3">
+      <c r="C121" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D121" t="s" s="3">
+      <c r="D121" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E121" t="s" s="3">
+      <c r="E121" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F121" t="s" s="3">
+      <c r="F121" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G121" t="s" s="3">
+      <c r="G121" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H121" t="s" s="3">
+      <c r="H121" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I121" t="s" s="3">
+      <c r="I121" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -3743,10 +3755,10 @@
       <c r="I125">
         <f>((C125-C124)^2+(D125- D124)^2)^.5</f>
       </c>
-      <c r="J125" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K125" s="3" t="s">
+      <c r="J125" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K125" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L125" t="n">
@@ -3790,28 +3802,28 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="s" s="3">
+      <c r="A127" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B127" t="s" s="3">
+      <c r="B127" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C127" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D127" t="s" s="3">
+      <c r="C127" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D127" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E127" t="s" s="3">
+      <c r="E127" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F127" t="s" s="3">
+      <c r="F127" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G127" t="s" s="3">
+      <c r="G127" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H127" t="s" s="3">
+      <c r="H127" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -3836,28 +3848,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="B129" t="s" s="3">
+      <c r="B129" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C129" t="s" s="3">
+      <c r="C129" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D129" t="s" s="3">
+      <c r="D129" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E129" t="s" s="3">
+      <c r="E129" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F129" t="s" s="3">
+      <c r="F129" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G129" t="s" s="3">
+      <c r="G129" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H129" t="s" s="3">
+      <c r="H129" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I129" t="s" s="3">
+      <c r="I129" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -3916,10 +3928,10 @@
       <c r="I131">
         <f>((C131-C130)^2+(D131- D130)^2)^.5</f>
       </c>
-      <c r="J131" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K131" s="3" t="s">
+      <c r="J131" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K131" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L131" t="n">
@@ -3963,28 +3975,28 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="s" s="3">
+      <c r="A133" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B133" t="s" s="3">
+      <c r="B133" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C133" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D133" t="s" s="3">
+      <c r="C133" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D133" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E133" t="s" s="3">
+      <c r="E133" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F133" t="s" s="3">
+      <c r="F133" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G133" t="s" s="3">
+      <c r="G133" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H133" t="s" s="3">
+      <c r="H133" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -4009,28 +4021,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="B135" t="s" s="3">
+      <c r="B135" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C135" t="s" s="3">
+      <c r="C135" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D135" t="s" s="3">
+      <c r="D135" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E135" t="s" s="3">
+      <c r="E135" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F135" t="s" s="3">
+      <c r="F135" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G135" t="s" s="3">
+      <c r="G135" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H135" t="s" s="3">
+      <c r="H135" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I135" t="s" s="3">
+      <c r="I135" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -4089,10 +4101,10 @@
       <c r="I137">
         <f>((C137-C136)^2+(D137- D136)^2)^.5</f>
       </c>
-      <c r="J137" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K137" s="3" t="s">
+      <c r="J137" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K137" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L137" t="n">
@@ -4136,28 +4148,28 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="s" s="3">
+      <c r="A139" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B139" t="s" s="3">
+      <c r="B139" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C139" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D139" t="s" s="3">
+      <c r="C139" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D139" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E139" t="s" s="3">
+      <c r="E139" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F139" t="s" s="3">
+      <c r="F139" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G139" t="s" s="3">
+      <c r="G139" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H139" t="s" s="3">
+      <c r="H139" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -4182,28 +4194,28 @@
       </c>
     </row>
     <row r="141">
-      <c r="B141" t="s" s="3">
+      <c r="B141" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C141" t="s" s="3">
+      <c r="C141" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D141" t="s" s="3">
+      <c r="D141" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E141" t="s" s="3">
+      <c r="E141" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F141" t="s" s="3">
+      <c r="F141" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G141" t="s" s="3">
+      <c r="G141" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H141" t="s" s="3">
+      <c r="H141" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I141" t="s" s="3">
+      <c r="I141" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -4291,10 +4303,10 @@
       <c r="I144">
         <f>((C144-C143)^2+(D144- D143)^2)^.5</f>
       </c>
-      <c r="J144" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K144" s="3" t="s">
+      <c r="J144" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K144" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L144" t="n">
@@ -4338,28 +4350,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="s" s="3">
+      <c r="A146" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B146" t="s" s="3">
+      <c r="B146" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C146" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D146" t="s" s="3">
+      <c r="C146" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D146" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E146" t="s" s="3">
+      <c r="E146" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F146" t="s" s="3">
+      <c r="F146" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G146" t="s" s="3">
+      <c r="G146" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H146" t="s" s="3">
+      <c r="H146" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -4384,28 +4396,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="B148" t="s" s="3">
+      <c r="B148" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C148" t="s" s="3">
+      <c r="C148" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D148" t="s" s="3">
+      <c r="D148" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E148" t="s" s="3">
+      <c r="E148" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F148" t="s" s="3">
+      <c r="F148" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G148" t="s" s="3">
+      <c r="G148" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H148" t="s" s="3">
+      <c r="H148" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I148" t="s" s="3">
+      <c r="I148" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -4464,10 +4476,10 @@
       <c r="I150">
         <f>((C150-C149)^2+(D150- D149)^2)^.5</f>
       </c>
-      <c r="J150" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K150" s="3" t="s">
+      <c r="J150" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K150" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L150" t="n">
@@ -4511,28 +4523,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="s" s="3">
+      <c r="A152" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B152" t="s" s="3">
+      <c r="B152" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C152" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D152" t="s" s="3">
+      <c r="C152" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D152" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E152" t="s" s="3">
+      <c r="E152" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F152" t="s" s="3">
+      <c r="F152" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G152" t="s" s="3">
+      <c r="G152" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H152" t="s" s="3">
+      <c r="H152" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -4557,28 +4569,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="B154" t="s" s="3">
+      <c r="B154" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C154" t="s" s="3">
+      <c r="C154" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D154" t="s" s="3">
+      <c r="D154" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E154" t="s" s="3">
+      <c r="E154" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F154" t="s" s="3">
+      <c r="F154" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G154" t="s" s="3">
+      <c r="G154" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H154" t="s" s="3">
+      <c r="H154" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I154" t="s" s="3">
+      <c r="I154" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -4666,10 +4678,10 @@
       <c r="I157">
         <f>((C157-C156)^2+(D157- D156)^2)^.5</f>
       </c>
-      <c r="J157" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K157" s="3" t="s">
+      <c r="J157" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K157" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L157" t="n">
@@ -4713,28 +4725,28 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="s" s="3">
+      <c r="A159" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B159" t="s" s="3">
+      <c r="B159" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C159" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D159" t="s" s="3">
+      <c r="C159" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D159" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E159" t="s" s="3">
+      <c r="E159" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F159" t="s" s="3">
+      <c r="F159" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G159" t="s" s="3">
+      <c r="G159" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H159" t="s" s="3">
+      <c r="H159" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -4759,28 +4771,28 @@
       </c>
     </row>
     <row r="161">
-      <c r="B161" t="s" s="3">
+      <c r="B161" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C161" t="s" s="3">
+      <c r="C161" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D161" t="s" s="3">
+      <c r="D161" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E161" t="s" s="3">
+      <c r="E161" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F161" t="s" s="3">
+      <c r="F161" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G161" t="s" s="3">
+      <c r="G161" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H161" t="s" s="3">
+      <c r="H161" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I161" t="s" s="3">
+      <c r="I161" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -4839,10 +4851,10 @@
       <c r="I163">
         <f>((C163-C162)^2+(D163- D162)^2)^.5</f>
       </c>
-      <c r="J163" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K163" s="3" t="s">
+      <c r="J163" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K163" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L163" t="n">
@@ -4886,28 +4898,28 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="s" s="3">
+      <c r="A165" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B165" t="s" s="3">
+      <c r="B165" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C165" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D165" t="s" s="3">
+      <c r="C165" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D165" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E165" t="s" s="3">
+      <c r="E165" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F165" t="s" s="3">
+      <c r="F165" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G165" t="s" s="3">
+      <c r="G165" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H165" t="s" s="3">
+      <c r="H165" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -4932,28 +4944,28 @@
       </c>
     </row>
     <row r="167">
-      <c r="B167" t="s" s="3">
+      <c r="B167" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C167" t="s" s="3">
+      <c r="C167" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D167" t="s" s="3">
+      <c r="D167" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E167" t="s" s="3">
+      <c r="E167" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F167" t="s" s="3">
+      <c r="F167" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G167" t="s" s="3">
+      <c r="G167" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H167" t="s" s="3">
+      <c r="H167" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I167" t="s" s="3">
+      <c r="I167" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -5012,10 +5024,10 @@
       <c r="I169">
         <f>((C169-C168)^2+(D169- D168)^2)^.5</f>
       </c>
-      <c r="J169" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K169" s="3" t="s">
+      <c r="J169" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K169" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L169" t="n">
@@ -5059,28 +5071,28 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="s" s="3">
+      <c r="A171" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B171" t="s" s="3">
+      <c r="B171" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C171" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D171" t="s" s="3">
+      <c r="C171" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D171" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E171" t="s" s="3">
+      <c r="E171" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F171" t="s" s="3">
+      <c r="F171" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G171" t="s" s="3">
+      <c r="G171" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H171" t="s" s="3">
+      <c r="H171" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -5105,28 +5117,28 @@
       </c>
     </row>
     <row r="173">
-      <c r="B173" t="s" s="3">
+      <c r="B173" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C173" t="s" s="3">
+      <c r="C173" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D173" t="s" s="3">
+      <c r="D173" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E173" t="s" s="3">
+      <c r="E173" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F173" t="s" s="3">
+      <c r="F173" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G173" t="s" s="3">
+      <c r="G173" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H173" t="s" s="3">
+      <c r="H173" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I173" t="s" s="3">
+      <c r="I173" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -5243,10 +5255,10 @@
       <c r="I177">
         <f>((C177-C176)^2+(D177- D176)^2)^.5</f>
       </c>
-      <c r="J177" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K177" s="3" t="s">
+      <c r="J177" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K177" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L177" t="n">
@@ -5290,28 +5302,28 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="s" s="3">
+      <c r="A179" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B179" t="s" s="3">
+      <c r="B179" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C179" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D179" t="s" s="3">
+      <c r="C179" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D179" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E179" t="s" s="3">
+      <c r="E179" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F179" t="s" s="3">
+      <c r="F179" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G179" t="s" s="3">
+      <c r="G179" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H179" t="s" s="3">
+      <c r="H179" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -5336,28 +5348,28 @@
       </c>
     </row>
     <row r="181">
-      <c r="B181" t="s" s="3">
+      <c r="B181" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C181" t="s" s="3">
+      <c r="C181" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D181" t="s" s="3">
+      <c r="D181" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E181" t="s" s="3">
+      <c r="E181" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F181" t="s" s="3">
+      <c r="F181" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G181" t="s" s="3">
+      <c r="G181" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H181" t="s" s="3">
+      <c r="H181" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I181" t="s" s="3">
+      <c r="I181" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -5416,10 +5428,10 @@
       <c r="I183">
         <f>((C183-C182)^2+(D183- D182)^2)^.5</f>
       </c>
-      <c r="J183" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K183" s="3" t="s">
+      <c r="J183" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K183" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L183" t="n">
@@ -5463,28 +5475,28 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="s" s="3">
+      <c r="A185" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B185" t="s" s="3">
+      <c r="B185" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C185" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D185" t="s" s="3">
+      <c r="C185" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D185" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E185" t="s" s="3">
+      <c r="E185" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F185" t="s" s="3">
+      <c r="F185" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G185" t="s" s="3">
+      <c r="G185" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H185" t="s" s="3">
+      <c r="H185" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -5509,28 +5521,28 @@
       </c>
     </row>
     <row r="187">
-      <c r="B187" t="s" s="3">
+      <c r="B187" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C187" t="s" s="3">
+      <c r="C187" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D187" t="s" s="3">
+      <c r="D187" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E187" t="s" s="3">
+      <c r="E187" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F187" t="s" s="3">
+      <c r="F187" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G187" t="s" s="3">
+      <c r="G187" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H187" t="s" s="3">
+      <c r="H187" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I187" t="s" s="3">
+      <c r="I187" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -5618,10 +5630,10 @@
       <c r="I190">
         <f>((C190-C189)^2+(D190- D189)^2)^.5</f>
       </c>
-      <c r="J190" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K190" s="3" t="s">
+      <c r="J190" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K190" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L190" t="n">
@@ -5665,28 +5677,28 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" t="s" s="3">
+      <c r="A192" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B192" t="s" s="3">
+      <c r="B192" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C192" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D192" t="s" s="3">
+      <c r="C192" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D192" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E192" t="s" s="3">
+      <c r="E192" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F192" t="s" s="3">
+      <c r="F192" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G192" t="s" s="3">
+      <c r="G192" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H192" t="s" s="3">
+      <c r="H192" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -5711,28 +5723,28 @@
       </c>
     </row>
     <row r="194">
-      <c r="B194" t="s" s="3">
+      <c r="B194" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C194" t="s" s="3">
+      <c r="C194" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D194" t="s" s="3">
+      <c r="D194" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E194" t="s" s="3">
+      <c r="E194" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F194" t="s" s="3">
+      <c r="F194" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G194" t="s" s="3">
+      <c r="G194" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H194" t="s" s="3">
+      <c r="H194" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I194" t="s" s="3">
+      <c r="I194" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -5791,10 +5803,10 @@
       <c r="I196">
         <f>((C196-C195)^2+(D196- D195)^2)^.5</f>
       </c>
-      <c r="J196" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K196" s="3" t="s">
+      <c r="J196" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K196" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L196" t="n">
@@ -5838,28 +5850,28 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="s" s="3">
+      <c r="A198" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B198" t="s" s="3">
+      <c r="B198" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C198" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D198" t="s" s="3">
+      <c r="C198" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D198" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E198" t="s" s="3">
+      <c r="E198" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F198" t="s" s="3">
+      <c r="F198" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G198" t="s" s="3">
+      <c r="G198" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H198" t="s" s="3">
+      <c r="H198" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -5884,28 +5896,28 @@
       </c>
     </row>
     <row r="200">
-      <c r="B200" t="s" s="3">
+      <c r="B200" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C200" t="s" s="3">
+      <c r="C200" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D200" t="s" s="3">
+      <c r="D200" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E200" t="s" s="3">
+      <c r="E200" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F200" t="s" s="3">
+      <c r="F200" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G200" t="s" s="3">
+      <c r="G200" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H200" t="s" s="3">
+      <c r="H200" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I200" t="s" s="3">
+      <c r="I200" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -6022,10 +6034,10 @@
       <c r="I204">
         <f>((C204-C203)^2+(D204- D203)^2)^.5</f>
       </c>
-      <c r="J204" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K204" s="3" t="s">
+      <c r="J204" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K204" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L204" t="n">
@@ -6069,28 +6081,28 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" t="s" s="3">
+      <c r="A206" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B206" t="s" s="3">
+      <c r="B206" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C206" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D206" t="s" s="3">
+      <c r="C206" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D206" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E206" t="s" s="3">
+      <c r="E206" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F206" t="s" s="3">
+      <c r="F206" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G206" t="s" s="3">
+      <c r="G206" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H206" t="s" s="3">
+      <c r="H206" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -6115,28 +6127,28 @@
       </c>
     </row>
     <row r="208">
-      <c r="B208" t="s" s="3">
+      <c r="B208" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C208" t="s" s="3">
+      <c r="C208" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D208" t="s" s="3">
+      <c r="D208" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E208" t="s" s="3">
+      <c r="E208" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F208" t="s" s="3">
+      <c r="F208" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G208" t="s" s="3">
+      <c r="G208" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H208" t="s" s="3">
+      <c r="H208" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I208" t="s" s="3">
+      <c r="I208" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -6253,10 +6265,10 @@
       <c r="I212">
         <f>((C212-C211)^2+(D212- D211)^2)^.5</f>
       </c>
-      <c r="J212" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K212" s="3" t="s">
+      <c r="J212" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K212" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L212" t="n">
@@ -6300,28 +6312,28 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="s" s="3">
+      <c r="A214" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B214" t="s" s="3">
+      <c r="B214" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C214" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D214" t="s" s="3">
+      <c r="C214" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D214" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E214" t="s" s="3">
+      <c r="E214" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F214" t="s" s="3">
+      <c r="F214" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G214" t="s" s="3">
+      <c r="G214" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H214" t="s" s="3">
+      <c r="H214" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -6346,28 +6358,28 @@
       </c>
     </row>
     <row r="216">
-      <c r="B216" t="s" s="3">
+      <c r="B216" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C216" t="s" s="3">
+      <c r="C216" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D216" t="s" s="3">
+      <c r="D216" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E216" t="s" s="3">
+      <c r="E216" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F216" t="s" s="3">
+      <c r="F216" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G216" t="s" s="3">
+      <c r="G216" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H216" t="s" s="3">
+      <c r="H216" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I216" t="s" s="3">
+      <c r="I216" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -6426,10 +6438,10 @@
       <c r="I218">
         <f>((C218-C217)^2+(D218- D217)^2)^.5</f>
       </c>
-      <c r="J218" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K218" s="3" t="s">
+      <c r="J218" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K218" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L218" t="n">
@@ -6473,28 +6485,28 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" t="s" s="3">
+      <c r="A220" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B220" t="s" s="3">
+      <c r="B220" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C220" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D220" t="s" s="3">
+      <c r="C220" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D220" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E220" t="s" s="3">
+      <c r="E220" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F220" t="s" s="3">
+      <c r="F220" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G220" t="s" s="3">
+      <c r="G220" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H220" t="s" s="3">
+      <c r="H220" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -6519,28 +6531,28 @@
       </c>
     </row>
     <row r="222">
-      <c r="B222" t="s" s="3">
+      <c r="B222" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C222" t="s" s="3">
+      <c r="C222" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D222" t="s" s="3">
+      <c r="D222" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E222" t="s" s="3">
+      <c r="E222" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F222" t="s" s="3">
+      <c r="F222" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G222" t="s" s="3">
+      <c r="G222" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H222" t="s" s="3">
+      <c r="H222" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I222" t="s" s="3">
+      <c r="I222" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -6628,10 +6640,10 @@
       <c r="I225">
         <f>((C225-C224)^2+(D225- D224)^2)^.5</f>
       </c>
-      <c r="J225" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K225" s="3" t="s">
+      <c r="J225" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K225" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L225" t="n">
@@ -6675,28 +6687,28 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" t="s" s="3">
+      <c r="A227" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B227" t="s" s="3">
+      <c r="B227" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C227" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D227" t="s" s="3">
+      <c r="C227" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D227" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E227" t="s" s="3">
+      <c r="E227" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F227" t="s" s="3">
+      <c r="F227" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G227" t="s" s="3">
+      <c r="G227" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H227" t="s" s="3">
+      <c r="H227" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -6721,28 +6733,28 @@
       </c>
     </row>
     <row r="229">
-      <c r="B229" t="s" s="3">
+      <c r="B229" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C229" t="s" s="3">
+      <c r="C229" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D229" t="s" s="3">
+      <c r="D229" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E229" t="s" s="3">
+      <c r="E229" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F229" t="s" s="3">
+      <c r="F229" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G229" t="s" s="3">
+      <c r="G229" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H229" t="s" s="3">
+      <c r="H229" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I229" t="s" s="3">
+      <c r="I229" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -6801,10 +6813,10 @@
       <c r="I231">
         <f>((C231-C230)^2+(D231- D230)^2)^.5</f>
       </c>
-      <c r="J231" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K231" s="3" t="s">
+      <c r="J231" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K231" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L231" t="n">
@@ -6848,28 +6860,28 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" t="s" s="3">
+      <c r="A233" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B233" t="s" s="3">
+      <c r="B233" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C233" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D233" t="s" s="3">
+      <c r="C233" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D233" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E233" t="s" s="3">
+      <c r="E233" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F233" t="s" s="3">
+      <c r="F233" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G233" t="s" s="3">
+      <c r="G233" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H233" t="s" s="3">
+      <c r="H233" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -6894,28 +6906,28 @@
       </c>
     </row>
     <row r="235">
-      <c r="B235" t="s" s="3">
+      <c r="B235" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C235" t="s" s="3">
+      <c r="C235" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D235" t="s" s="3">
+      <c r="D235" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E235" t="s" s="3">
+      <c r="E235" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F235" t="s" s="3">
+      <c r="F235" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G235" t="s" s="3">
+      <c r="G235" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H235" t="s" s="3">
+      <c r="H235" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I235" t="s" s="3">
+      <c r="I235" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -6974,10 +6986,10 @@
       <c r="I237">
         <f>((C237-C236)^2+(D237- D236)^2)^.5</f>
       </c>
-      <c r="J237" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K237" s="3" t="s">
+      <c r="J237" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K237" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L237" t="n">
@@ -7021,28 +7033,28 @@
       </c>
     </row>
     <row r="239">
-      <c r="A239" t="s" s="3">
+      <c r="A239" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B239" t="s" s="3">
+      <c r="B239" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C239" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D239" t="s" s="3">
+      <c r="C239" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D239" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E239" t="s" s="3">
+      <c r="E239" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F239" t="s" s="3">
+      <c r="F239" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G239" t="s" s="3">
+      <c r="G239" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H239" t="s" s="3">
+      <c r="H239" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -7067,28 +7079,28 @@
       </c>
     </row>
     <row r="241">
-      <c r="B241" t="s" s="3">
+      <c r="B241" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C241" t="s" s="3">
+      <c r="C241" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D241" t="s" s="3">
+      <c r="D241" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E241" t="s" s="3">
+      <c r="E241" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F241" t="s" s="3">
+      <c r="F241" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G241" t="s" s="3">
+      <c r="G241" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H241" t="s" s="3">
+      <c r="H241" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I241" t="s" s="3">
+      <c r="I241" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -7147,10 +7159,10 @@
       <c r="I243">
         <f>((C243-C242)^2+(D243- D242)^2)^.5</f>
       </c>
-      <c r="J243" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K243" s="3" t="s">
+      <c r="J243" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K243" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L243" t="n">
@@ -7194,28 +7206,28 @@
       </c>
     </row>
     <row r="245">
-      <c r="A245" t="s" s="3">
+      <c r="A245" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B245" t="s" s="3">
+      <c r="B245" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C245" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D245" t="s" s="3">
+      <c r="C245" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D245" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E245" t="s" s="3">
+      <c r="E245" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F245" t="s" s="3">
+      <c r="F245" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G245" t="s" s="3">
+      <c r="G245" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H245" t="s" s="3">
+      <c r="H245" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -7240,28 +7252,28 @@
       </c>
     </row>
     <row r="247">
-      <c r="B247" t="s" s="3">
+      <c r="B247" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C247" t="s" s="3">
+      <c r="C247" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D247" t="s" s="3">
+      <c r="D247" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E247" t="s" s="3">
+      <c r="E247" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F247" t="s" s="3">
+      <c r="F247" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G247" t="s" s="3">
+      <c r="G247" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H247" t="s" s="3">
+      <c r="H247" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I247" t="s" s="3">
+      <c r="I247" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -7320,10 +7332,10 @@
       <c r="I249">
         <f>((C249-C248)^2+(D249- D248)^2)^.5</f>
       </c>
-      <c r="J249" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K249" s="3" t="s">
+      <c r="J249" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K249" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L249" t="n">
@@ -7367,28 +7379,28 @@
       </c>
     </row>
     <row r="251">
-      <c r="A251" t="s" s="3">
+      <c r="A251" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B251" t="s" s="3">
+      <c r="B251" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C251" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D251" t="s" s="3">
+      <c r="C251" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D251" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E251" t="s" s="3">
+      <c r="E251" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F251" t="s" s="3">
+      <c r="F251" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G251" t="s" s="3">
+      <c r="G251" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H251" t="s" s="3">
+      <c r="H251" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -7413,28 +7425,28 @@
       </c>
     </row>
     <row r="253">
-      <c r="B253" t="s" s="3">
+      <c r="B253" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C253" t="s" s="3">
+      <c r="C253" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D253" t="s" s="3">
+      <c r="D253" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E253" t="s" s="3">
+      <c r="E253" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F253" t="s" s="3">
+      <c r="F253" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G253" t="s" s="3">
+      <c r="G253" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H253" t="s" s="3">
+      <c r="H253" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I253" t="s" s="3">
+      <c r="I253" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -7580,10 +7592,10 @@
       <c r="I258">
         <f>((C258-C257)^2+(D258- D257)^2)^.5</f>
       </c>
-      <c r="J258" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K258" s="3" t="s">
+      <c r="J258" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K258" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L258" t="n">
@@ -7627,28 +7639,28 @@
       </c>
     </row>
     <row r="260">
-      <c r="A260" t="s" s="3">
+      <c r="A260" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B260" t="s" s="3">
+      <c r="B260" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C260" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D260" t="s" s="3">
+      <c r="C260" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D260" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E260" t="s" s="3">
+      <c r="E260" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F260" t="s" s="3">
+      <c r="F260" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G260" t="s" s="3">
+      <c r="G260" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H260" t="s" s="3">
+      <c r="H260" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -7673,28 +7685,28 @@
       </c>
     </row>
     <row r="262">
-      <c r="B262" t="s" s="3">
+      <c r="B262" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C262" t="s" s="3">
+      <c r="C262" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D262" t="s" s="3">
+      <c r="D262" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E262" t="s" s="3">
+      <c r="E262" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F262" t="s" s="3">
+      <c r="F262" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G262" t="s" s="3">
+      <c r="G262" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H262" t="s" s="3">
+      <c r="H262" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I262" t="s" s="3">
+      <c r="I262" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -7782,10 +7794,10 @@
       <c r="I265">
         <f>((C265-C264)^2+(D265- D264)^2)^.5</f>
       </c>
-      <c r="J265" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K265" s="3" t="s">
+      <c r="J265" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K265" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L265" t="n">
@@ -7829,28 +7841,28 @@
       </c>
     </row>
     <row r="267">
-      <c r="A267" t="s" s="3">
+      <c r="A267" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B267" t="s" s="3">
+      <c r="B267" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C267" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D267" t="s" s="3">
+      <c r="C267" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D267" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E267" t="s" s="3">
+      <c r="E267" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F267" t="s" s="3">
+      <c r="F267" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G267" t="s" s="3">
+      <c r="G267" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H267" t="s" s="3">
+      <c r="H267" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -7875,28 +7887,28 @@
       </c>
     </row>
     <row r="269">
-      <c r="B269" t="s" s="3">
+      <c r="B269" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C269" t="s" s="3">
+      <c r="C269" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D269" t="s" s="3">
+      <c r="D269" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E269" t="s" s="3">
+      <c r="E269" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F269" t="s" s="3">
+      <c r="F269" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G269" t="s" s="3">
+      <c r="G269" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H269" t="s" s="3">
+      <c r="H269" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I269" t="s" s="3">
+      <c r="I269" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -7955,10 +7967,10 @@
       <c r="I271">
         <f>((C271-C270)^2+(D271- D270)^2)^.5</f>
       </c>
-      <c r="J271" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K271" s="3" t="s">
+      <c r="J271" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K271" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L271" t="n">
@@ -8002,28 +8014,28 @@
       </c>
     </row>
     <row r="273">
-      <c r="A273" t="s" s="3">
+      <c r="A273" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B273" t="s" s="3">
+      <c r="B273" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C273" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D273" t="s" s="3">
+      <c r="C273" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D273" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E273" t="s" s="3">
+      <c r="E273" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F273" t="s" s="3">
+      <c r="F273" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G273" t="s" s="3">
+      <c r="G273" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H273" t="s" s="3">
+      <c r="H273" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -8048,28 +8060,28 @@
       </c>
     </row>
     <row r="275">
-      <c r="B275" t="s" s="3">
+      <c r="B275" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C275" t="s" s="3">
+      <c r="C275" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D275" t="s" s="3">
+      <c r="D275" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E275" t="s" s="3">
+      <c r="E275" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F275" t="s" s="3">
+      <c r="F275" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G275" t="s" s="3">
+      <c r="G275" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H275" t="s" s="3">
+      <c r="H275" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I275" t="s" s="3">
+      <c r="I275" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -8157,10 +8169,10 @@
       <c r="I278">
         <f>((C278-C277)^2+(D278- D277)^2)^.5</f>
       </c>
-      <c r="J278" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K278" s="3" t="s">
+      <c r="J278" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K278" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L278" t="n">
@@ -8204,28 +8216,28 @@
       </c>
     </row>
     <row r="280">
-      <c r="A280" t="s" s="3">
+      <c r="A280" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B280" t="s" s="3">
+      <c r="B280" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C280" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D280" t="s" s="3">
+      <c r="C280" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D280" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E280" t="s" s="3">
+      <c r="E280" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F280" t="s" s="3">
+      <c r="F280" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G280" t="s" s="3">
+      <c r="G280" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H280" t="s" s="3">
+      <c r="H280" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -8250,28 +8262,28 @@
       </c>
     </row>
     <row r="282">
-      <c r="B282" t="s" s="3">
+      <c r="B282" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C282" t="s" s="3">
+      <c r="C282" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D282" t="s" s="3">
+      <c r="D282" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E282" t="s" s="3">
+      <c r="E282" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F282" t="s" s="3">
+      <c r="F282" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G282" t="s" s="3">
+      <c r="G282" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H282" t="s" s="3">
+      <c r="H282" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I282" t="s" s="3">
+      <c r="I282" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -8330,10 +8342,10 @@
       <c r="I284">
         <f>((C284-C283)^2+(D284- D283)^2)^.5</f>
       </c>
-      <c r="J284" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K284" s="3" t="s">
+      <c r="J284" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K284" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L284" t="n">
@@ -8377,28 +8389,28 @@
       </c>
     </row>
     <row r="286">
-      <c r="A286" t="s" s="3">
+      <c r="A286" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B286" t="s" s="3">
+      <c r="B286" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C286" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D286" t="s" s="3">
+      <c r="C286" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D286" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E286" t="s" s="3">
+      <c r="E286" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F286" t="s" s="3">
+      <c r="F286" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G286" t="s" s="3">
+      <c r="G286" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H286" t="s" s="3">
+      <c r="H286" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -8423,28 +8435,28 @@
       </c>
     </row>
     <row r="288">
-      <c r="B288" t="s" s="3">
+      <c r="B288" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C288" t="s" s="3">
+      <c r="C288" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D288" t="s" s="3">
+      <c r="D288" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E288" t="s" s="3">
+      <c r="E288" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F288" t="s" s="3">
+      <c r="F288" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G288" t="s" s="3">
+      <c r="G288" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H288" t="s" s="3">
+      <c r="H288" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I288" t="s" s="3">
+      <c r="I288" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -8503,10 +8515,10 @@
       <c r="I290">
         <f>((C290-C289)^2+(D290- D289)^2)^.5</f>
       </c>
-      <c r="J290" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K290" s="3" t="s">
+      <c r="J290" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K290" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L290" t="n">
@@ -8550,28 +8562,28 @@
       </c>
     </row>
     <row r="292">
-      <c r="A292" t="s" s="3">
+      <c r="A292" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B292" t="s" s="3">
+      <c r="B292" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C292" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D292" t="s" s="3">
+      <c r="C292" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D292" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E292" t="s" s="3">
+      <c r="E292" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F292" t="s" s="3">
+      <c r="F292" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G292" t="s" s="3">
+      <c r="G292" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H292" t="s" s="3">
+      <c r="H292" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -8596,28 +8608,28 @@
       </c>
     </row>
     <row r="294">
-      <c r="B294" t="s" s="3">
+      <c r="B294" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C294" t="s" s="3">
+      <c r="C294" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D294" t="s" s="3">
+      <c r="D294" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E294" t="s" s="3">
+      <c r="E294" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F294" t="s" s="3">
+      <c r="F294" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G294" t="s" s="3">
+      <c r="G294" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H294" t="s" s="3">
+      <c r="H294" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I294" t="s" s="3">
+      <c r="I294" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -8676,10 +8688,10 @@
       <c r="I296">
         <f>((C296-C295)^2+(D296- D295)^2)^.5</f>
       </c>
-      <c r="J296" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K296" s="3" t="s">
+      <c r="J296" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K296" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L296" t="n">
@@ -8723,28 +8735,28 @@
       </c>
     </row>
     <row r="298">
-      <c r="A298" t="s" s="3">
+      <c r="A298" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B298" t="s" s="3">
+      <c r="B298" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C298" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D298" t="s" s="3">
+      <c r="C298" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D298" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E298" t="s" s="3">
+      <c r="E298" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F298" t="s" s="3">
+      <c r="F298" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G298" t="s" s="3">
+      <c r="G298" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H298" t="s" s="3">
+      <c r="H298" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -8769,28 +8781,28 @@
       </c>
     </row>
     <row r="300">
-      <c r="B300" t="s" s="3">
+      <c r="B300" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C300" t="s" s="3">
+      <c r="C300" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D300" t="s" s="3">
+      <c r="D300" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E300" t="s" s="3">
+      <c r="E300" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F300" t="s" s="3">
+      <c r="F300" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G300" t="s" s="3">
+      <c r="G300" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H300" t="s" s="3">
+      <c r="H300" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I300" t="s" s="3">
+      <c r="I300" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -8849,10 +8861,10 @@
       <c r="I302">
         <f>((C302-C301)^2+(D302- D301)^2)^.5</f>
       </c>
-      <c r="J302" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K302" s="3" t="s">
+      <c r="J302" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K302" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L302" t="n">
@@ -8896,28 +8908,28 @@
       </c>
     </row>
     <row r="304">
-      <c r="A304" t="s" s="3">
+      <c r="A304" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B304" t="s" s="3">
+      <c r="B304" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C304" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D304" t="s" s="3">
+      <c r="C304" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D304" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E304" t="s" s="3">
+      <c r="E304" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F304" t="s" s="3">
+      <c r="F304" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G304" t="s" s="3">
+      <c r="G304" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H304" t="s" s="3">
+      <c r="H304" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -8942,28 +8954,28 @@
       </c>
     </row>
     <row r="306">
-      <c r="B306" t="s" s="3">
+      <c r="B306" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C306" t="s" s="3">
+      <c r="C306" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D306" t="s" s="3">
+      <c r="D306" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E306" t="s" s="3">
+      <c r="E306" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F306" t="s" s="3">
+      <c r="F306" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G306" t="s" s="3">
+      <c r="G306" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H306" t="s" s="3">
+      <c r="H306" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I306" t="s" s="3">
+      <c r="I306" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -9022,10 +9034,10 @@
       <c r="I308">
         <f>((C308-C307)^2+(D308- D307)^2)^.5</f>
       </c>
-      <c r="J308" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K308" s="3" t="s">
+      <c r="J308" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K308" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L308" t="n">
@@ -9069,28 +9081,28 @@
       </c>
     </row>
     <row r="310">
-      <c r="A310" t="s" s="3">
+      <c r="A310" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B310" t="s" s="3">
+      <c r="B310" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C310" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D310" t="s" s="3">
+      <c r="C310" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D310" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E310" t="s" s="3">
+      <c r="E310" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F310" t="s" s="3">
+      <c r="F310" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G310" t="s" s="3">
+      <c r="G310" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H310" t="s" s="3">
+      <c r="H310" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -9115,28 +9127,28 @@
       </c>
     </row>
     <row r="312">
-      <c r="B312" t="s" s="3">
+      <c r="B312" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C312" t="s" s="3">
+      <c r="C312" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D312" t="s" s="3">
+      <c r="D312" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E312" t="s" s="3">
+      <c r="E312" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F312" t="s" s="3">
+      <c r="F312" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G312" t="s" s="3">
+      <c r="G312" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H312" t="s" s="3">
+      <c r="H312" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I312" t="s" s="3">
+      <c r="I312" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -9224,10 +9236,10 @@
       <c r="I315">
         <f>((C315-C314)^2+(D315- D314)^2)^.5</f>
       </c>
-      <c r="J315" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K315" s="3" t="s">
+      <c r="J315" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K315" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L315" t="n">
@@ -9271,28 +9283,28 @@
       </c>
     </row>
     <row r="317">
-      <c r="A317" t="s" s="3">
+      <c r="A317" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B317" t="s" s="3">
+      <c r="B317" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C317" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D317" t="s" s="3">
+      <c r="C317" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D317" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E317" t="s" s="3">
+      <c r="E317" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F317" t="s" s="3">
+      <c r="F317" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G317" t="s" s="3">
+      <c r="G317" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H317" t="s" s="3">
+      <c r="H317" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -9317,28 +9329,28 @@
       </c>
     </row>
     <row r="319">
-      <c r="B319" t="s" s="3">
+      <c r="B319" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C319" t="s" s="3">
+      <c r="C319" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D319" t="s" s="3">
+      <c r="D319" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E319" t="s" s="3">
+      <c r="E319" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F319" t="s" s="3">
+      <c r="F319" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G319" t="s" s="3">
+      <c r="G319" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H319" t="s" s="3">
+      <c r="H319" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I319" t="s" s="3">
+      <c r="I319" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -9397,10 +9409,10 @@
       <c r="I321">
         <f>((C321-C320)^2+(D321- D320)^2)^.5</f>
       </c>
-      <c r="J321" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K321" s="3" t="s">
+      <c r="J321" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K321" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L321" t="n">
@@ -9444,28 +9456,28 @@
       </c>
     </row>
     <row r="323">
-      <c r="A323" t="s" s="3">
+      <c r="A323" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B323" t="s" s="3">
+      <c r="B323" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C323" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D323" t="s" s="3">
+      <c r="C323" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D323" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E323" t="s" s="3">
+      <c r="E323" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F323" t="s" s="3">
+      <c r="F323" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G323" t="s" s="3">
+      <c r="G323" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H323" t="s" s="3">
+      <c r="H323" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -9490,28 +9502,28 @@
       </c>
     </row>
     <row r="325">
-      <c r="B325" t="s" s="3">
+      <c r="B325" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C325" t="s" s="3">
+      <c r="C325" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D325" t="s" s="3">
+      <c r="D325" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E325" t="s" s="3">
+      <c r="E325" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F325" t="s" s="3">
+      <c r="F325" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G325" t="s" s="3">
+      <c r="G325" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H325" t="s" s="3">
+      <c r="H325" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I325" t="s" s="3">
+      <c r="I325" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -9570,10 +9582,10 @@
       <c r="I327">
         <f>((C327-C326)^2+(D327- D326)^2)^.5</f>
       </c>
-      <c r="J327" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K327" s="3" t="s">
+      <c r="J327" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K327" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L327" t="n">
@@ -9617,28 +9629,28 @@
       </c>
     </row>
     <row r="329">
-      <c r="A329" t="s" s="3">
+      <c r="A329" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B329" t="s" s="3">
+      <c r="B329" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C329" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D329" t="s" s="3">
+      <c r="C329" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D329" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E329" t="s" s="3">
+      <c r="E329" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F329" t="s" s="3">
+      <c r="F329" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G329" t="s" s="3">
+      <c r="G329" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H329" t="s" s="3">
+      <c r="H329" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -9663,28 +9675,28 @@
       </c>
     </row>
     <row r="331">
-      <c r="B331" t="s" s="3">
+      <c r="B331" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C331" t="s" s="3">
+      <c r="C331" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D331" t="s" s="3">
+      <c r="D331" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E331" t="s" s="3">
+      <c r="E331" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F331" t="s" s="3">
+      <c r="F331" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G331" t="s" s="3">
+      <c r="G331" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H331" t="s" s="3">
+      <c r="H331" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I331" t="s" s="3">
+      <c r="I331" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -9743,10 +9755,10 @@
       <c r="I333">
         <f>((C333-C332)^2+(D333- D332)^2)^.5</f>
       </c>
-      <c r="J333" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K333" s="3" t="s">
+      <c r="J333" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K333" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L333" t="n">
@@ -9790,28 +9802,28 @@
       </c>
     </row>
     <row r="335">
-      <c r="A335" t="s" s="3">
+      <c r="A335" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B335" t="s" s="3">
+      <c r="B335" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C335" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D335" t="s" s="3">
+      <c r="C335" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D335" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E335" t="s" s="3">
+      <c r="E335" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F335" t="s" s="3">
+      <c r="F335" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G335" t="s" s="3">
+      <c r="G335" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H335" t="s" s="3">
+      <c r="H335" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -9836,28 +9848,28 @@
       </c>
     </row>
     <row r="337">
-      <c r="B337" t="s" s="3">
+      <c r="B337" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C337" t="s" s="3">
+      <c r="C337" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D337" t="s" s="3">
+      <c r="D337" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E337" t="s" s="3">
+      <c r="E337" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F337" t="s" s="3">
+      <c r="F337" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G337" t="s" s="3">
+      <c r="G337" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H337" t="s" s="3">
+      <c r="H337" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I337" t="s" s="3">
+      <c r="I337" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -9916,10 +9928,10 @@
       <c r="I339">
         <f>((C339-C338)^2+(D339- D338)^2)^.5</f>
       </c>
-      <c r="J339" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K339" s="3" t="s">
+      <c r="J339" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K339" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L339" t="n">
@@ -9963,28 +9975,28 @@
       </c>
     </row>
     <row r="341">
-      <c r="A341" t="s" s="3">
+      <c r="A341" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B341" t="s" s="3">
+      <c r="B341" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C341" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D341" t="s" s="3">
+      <c r="C341" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D341" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E341" t="s" s="3">
+      <c r="E341" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F341" t="s" s="3">
+      <c r="F341" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G341" t="s" s="3">
+      <c r="G341" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H341" t="s" s="3">
+      <c r="H341" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -10009,28 +10021,28 @@
       </c>
     </row>
     <row r="343">
-      <c r="B343" t="s" s="3">
+      <c r="B343" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C343" t="s" s="3">
+      <c r="C343" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D343" t="s" s="3">
+      <c r="D343" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E343" t="s" s="3">
+      <c r="E343" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F343" t="s" s="3">
+      <c r="F343" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G343" t="s" s="3">
+      <c r="G343" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H343" t="s" s="3">
+      <c r="H343" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I343" t="s" s="3">
+      <c r="I343" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -10089,10 +10101,10 @@
       <c r="I345">
         <f>((C345-C344)^2+(D345- D344)^2)^.5</f>
       </c>
-      <c r="J345" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K345" s="3" t="s">
+      <c r="J345" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K345" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L345" t="n">
@@ -10136,28 +10148,28 @@
       </c>
     </row>
     <row r="347">
-      <c r="A347" t="s" s="3">
+      <c r="A347" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B347" t="s" s="3">
+      <c r="B347" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C347" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D347" t="s" s="3">
+      <c r="C347" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D347" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E347" t="s" s="3">
+      <c r="E347" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F347" t="s" s="3">
+      <c r="F347" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G347" t="s" s="3">
+      <c r="G347" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H347" t="s" s="3">
+      <c r="H347" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -10182,28 +10194,28 @@
       </c>
     </row>
     <row r="349">
-      <c r="B349" t="s" s="3">
+      <c r="B349" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C349" t="s" s="3">
+      <c r="C349" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D349" t="s" s="3">
+      <c r="D349" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E349" t="s" s="3">
+      <c r="E349" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F349" t="s" s="3">
+      <c r="F349" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G349" t="s" s="3">
+      <c r="G349" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H349" t="s" s="3">
+      <c r="H349" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I349" t="s" s="3">
+      <c r="I349" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -10291,10 +10303,10 @@
       <c r="I352">
         <f>((C352-C351)^2+(D352- D351)^2)^.5</f>
       </c>
-      <c r="J352" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K352" s="3" t="s">
+      <c r="J352" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K352" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L352" t="n">
@@ -10338,28 +10350,28 @@
       </c>
     </row>
     <row r="354">
-      <c r="A354" t="s" s="3">
+      <c r="A354" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B354" t="s" s="3">
+      <c r="B354" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C354" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D354" t="s" s="3">
+      <c r="C354" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D354" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E354" t="s" s="3">
+      <c r="E354" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F354" t="s" s="3">
+      <c r="F354" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G354" t="s" s="3">
+      <c r="G354" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H354" t="s" s="3">
+      <c r="H354" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -10384,28 +10396,28 @@
       </c>
     </row>
     <row r="356">
-      <c r="B356" t="s" s="3">
+      <c r="B356" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C356" t="s" s="3">
+      <c r="C356" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D356" t="s" s="3">
+      <c r="D356" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E356" t="s" s="3">
+      <c r="E356" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F356" t="s" s="3">
+      <c r="F356" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G356" t="s" s="3">
+      <c r="G356" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H356" t="s" s="3">
+      <c r="H356" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I356" t="s" s="3">
+      <c r="I356" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -10464,10 +10476,10 @@
       <c r="I358">
         <f>((C358-C357)^2+(D358- D357)^2)^.5</f>
       </c>
-      <c r="J358" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K358" s="3" t="s">
+      <c r="J358" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K358" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L358" t="n">
@@ -10511,28 +10523,28 @@
       </c>
     </row>
     <row r="360">
-      <c r="A360" t="s" s="3">
+      <c r="A360" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B360" t="s" s="3">
+      <c r="B360" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C360" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D360" t="s" s="3">
+      <c r="C360" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D360" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E360" t="s" s="3">
+      <c r="E360" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F360" t="s" s="3">
+      <c r="F360" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G360" t="s" s="3">
+      <c r="G360" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H360" t="s" s="3">
+      <c r="H360" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -10557,28 +10569,28 @@
       </c>
     </row>
     <row r="362">
-      <c r="B362" t="s" s="3">
+      <c r="B362" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C362" t="s" s="3">
+      <c r="C362" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D362" t="s" s="3">
+      <c r="D362" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E362" t="s" s="3">
+      <c r="E362" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F362" t="s" s="3">
+      <c r="F362" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G362" t="s" s="3">
+      <c r="G362" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H362" t="s" s="3">
+      <c r="H362" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I362" t="s" s="3">
+      <c r="I362" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -10695,10 +10707,10 @@
       <c r="I366">
         <f>((C366-C365)^2+(D366- D365)^2)^.5</f>
       </c>
-      <c r="J366" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K366" s="3" t="s">
+      <c r="J366" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K366" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L366" t="n">
@@ -10742,28 +10754,28 @@
       </c>
     </row>
     <row r="368">
-      <c r="A368" t="s" s="3">
+      <c r="A368" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B368" t="s" s="3">
+      <c r="B368" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C368" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D368" t="s" s="3">
+      <c r="C368" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D368" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E368" t="s" s="3">
+      <c r="E368" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F368" t="s" s="3">
+      <c r="F368" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G368" t="s" s="3">
+      <c r="G368" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H368" t="s" s="3">
+      <c r="H368" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -10788,28 +10800,28 @@
       </c>
     </row>
     <row r="370">
-      <c r="B370" t="s" s="3">
+      <c r="B370" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C370" t="s" s="3">
+      <c r="C370" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D370" t="s" s="3">
+      <c r="D370" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E370" t="s" s="3">
+      <c r="E370" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F370" t="s" s="3">
+      <c r="F370" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G370" t="s" s="3">
+      <c r="G370" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H370" t="s" s="3">
+      <c r="H370" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I370" t="s" s="3">
+      <c r="I370" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -10868,10 +10880,10 @@
       <c r="I372">
         <f>((C372-C371)^2+(D372- D371)^2)^.5</f>
       </c>
-      <c r="J372" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K372" s="3" t="s">
+      <c r="J372" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K372" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L372" t="n">
@@ -10915,28 +10927,28 @@
       </c>
     </row>
     <row r="374">
-      <c r="A374" t="s" s="3">
+      <c r="A374" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B374" t="s" s="3">
+      <c r="B374" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C374" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D374" t="s" s="3">
+      <c r="C374" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D374" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E374" t="s" s="3">
+      <c r="E374" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F374" t="s" s="3">
+      <c r="F374" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G374" t="s" s="3">
+      <c r="G374" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H374" t="s" s="3">
+      <c r="H374" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -10961,28 +10973,28 @@
       </c>
     </row>
     <row r="376">
-      <c r="B376" t="s" s="3">
+      <c r="B376" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C376" t="s" s="3">
+      <c r="C376" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D376" t="s" s="3">
+      <c r="D376" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E376" t="s" s="3">
+      <c r="E376" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F376" t="s" s="3">
+      <c r="F376" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G376" t="s" s="3">
+      <c r="G376" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H376" t="s" s="3">
+      <c r="H376" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I376" t="s" s="3">
+      <c r="I376" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -11041,10 +11053,10 @@
       <c r="I378">
         <f>((C378-C377)^2+(D378- D377)^2)^.5</f>
       </c>
-      <c r="J378" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K378" s="3" t="s">
+      <c r="J378" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K378" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L378" t="n">
@@ -11088,28 +11100,28 @@
       </c>
     </row>
     <row r="380">
-      <c r="A380" t="s" s="3">
+      <c r="A380" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B380" t="s" s="3">
+      <c r="B380" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C380" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D380" t="s" s="3">
+      <c r="C380" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D380" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E380" t="s" s="3">
+      <c r="E380" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F380" t="s" s="3">
+      <c r="F380" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G380" t="s" s="3">
+      <c r="G380" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H380" t="s" s="3">
+      <c r="H380" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -11134,28 +11146,28 @@
       </c>
     </row>
     <row r="382">
-      <c r="B382" t="s" s="3">
+      <c r="B382" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C382" t="s" s="3">
+      <c r="C382" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D382" t="s" s="3">
+      <c r="D382" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E382" t="s" s="3">
+      <c r="E382" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F382" t="s" s="3">
+      <c r="F382" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G382" t="s" s="3">
+      <c r="G382" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H382" t="s" s="3">
+      <c r="H382" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I382" t="s" s="3">
+      <c r="I382" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -11214,10 +11226,10 @@
       <c r="I384">
         <f>((C384-C383)^2+(D384- D383)^2)^.5</f>
       </c>
-      <c r="J384" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K384" s="3" t="s">
+      <c r="J384" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K384" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L384" t="n">
@@ -11261,28 +11273,28 @@
       </c>
     </row>
     <row r="386">
-      <c r="A386" t="s" s="3">
+      <c r="A386" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B386" t="s" s="3">
+      <c r="B386" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C386" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D386" t="s" s="3">
+      <c r="C386" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D386" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E386" t="s" s="3">
+      <c r="E386" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F386" t="s" s="3">
+      <c r="F386" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G386" t="s" s="3">
+      <c r="G386" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H386" t="s" s="3">
+      <c r="H386" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -11307,28 +11319,28 @@
       </c>
     </row>
     <row r="388">
-      <c r="B388" t="s" s="3">
+      <c r="B388" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C388" t="s" s="3">
+      <c r="C388" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D388" t="s" s="3">
+      <c r="D388" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E388" t="s" s="3">
+      <c r="E388" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F388" t="s" s="3">
+      <c r="F388" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G388" t="s" s="3">
+      <c r="G388" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H388" t="s" s="3">
+      <c r="H388" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I388" t="s" s="3">
+      <c r="I388" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -11387,10 +11399,10 @@
       <c r="I390">
         <f>((C390-C389)^2+(D390- D389)^2)^.5</f>
       </c>
-      <c r="J390" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K390" s="3" t="s">
+      <c r="J390" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K390" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L390" t="n">
@@ -11434,28 +11446,28 @@
       </c>
     </row>
     <row r="392">
-      <c r="A392" t="s" s="3">
+      <c r="A392" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B392" t="s" s="3">
+      <c r="B392" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C392" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D392" t="s" s="3">
+      <c r="C392" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D392" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E392" t="s" s="3">
+      <c r="E392" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F392" t="s" s="3">
+      <c r="F392" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G392" t="s" s="3">
+      <c r="G392" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H392" t="s" s="3">
+      <c r="H392" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -11480,28 +11492,28 @@
       </c>
     </row>
     <row r="394">
-      <c r="B394" t="s" s="3">
+      <c r="B394" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C394" t="s" s="3">
+      <c r="C394" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D394" t="s" s="3">
+      <c r="D394" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E394" t="s" s="3">
+      <c r="E394" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F394" t="s" s="3">
+      <c r="F394" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G394" t="s" s="3">
+      <c r="G394" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H394" t="s" s="3">
+      <c r="H394" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I394" t="s" s="3">
+      <c r="I394" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -11560,10 +11572,10 @@
       <c r="I396">
         <f>((C396-C395)^2+(D396- D395)^2)^.5</f>
       </c>
-      <c r="J396" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K396" s="3" t="s">
+      <c r="J396" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K396" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L396" t="n">
@@ -11607,28 +11619,28 @@
       </c>
     </row>
     <row r="398">
-      <c r="A398" t="s" s="3">
+      <c r="A398" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B398" t="s" s="3">
+      <c r="B398" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C398" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D398" t="s" s="3">
+      <c r="C398" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D398" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E398" t="s" s="3">
+      <c r="E398" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F398" t="s" s="3">
+      <c r="F398" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G398" t="s" s="3">
+      <c r="G398" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H398" t="s" s="3">
+      <c r="H398" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -11653,28 +11665,28 @@
       </c>
     </row>
     <row r="400">
-      <c r="B400" t="s" s="3">
+      <c r="B400" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C400" t="s" s="3">
+      <c r="C400" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D400" t="s" s="3">
+      <c r="D400" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E400" t="s" s="3">
+      <c r="E400" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F400" t="s" s="3">
+      <c r="F400" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G400" t="s" s="3">
+      <c r="G400" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H400" t="s" s="3">
+      <c r="H400" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I400" t="s" s="3">
+      <c r="I400" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -11733,10 +11745,10 @@
       <c r="I402">
         <f>((C402-C401)^2+(D402- D401)^2)^.5</f>
       </c>
-      <c r="J402" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K402" s="3" t="s">
+      <c r="J402" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K402" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L402" t="n">
@@ -11780,28 +11792,28 @@
       </c>
     </row>
     <row r="404">
-      <c r="A404" t="s" s="3">
+      <c r="A404" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B404" t="s" s="3">
+      <c r="B404" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C404" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D404" t="s" s="3">
+      <c r="C404" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D404" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E404" t="s" s="3">
+      <c r="E404" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F404" t="s" s="3">
+      <c r="F404" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G404" t="s" s="3">
+      <c r="G404" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H404" t="s" s="3">
+      <c r="H404" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -11826,28 +11838,28 @@
       </c>
     </row>
     <row r="406">
-      <c r="B406" t="s" s="3">
+      <c r="B406" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C406" t="s" s="3">
+      <c r="C406" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D406" t="s" s="3">
+      <c r="D406" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E406" t="s" s="3">
+      <c r="E406" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F406" t="s" s="3">
+      <c r="F406" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G406" t="s" s="3">
+      <c r="G406" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H406" t="s" s="3">
+      <c r="H406" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I406" t="s" s="3">
+      <c r="I406" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -11906,10 +11918,10 @@
       <c r="I408">
         <f>((C408-C407)^2+(D408- D407)^2)^.5</f>
       </c>
-      <c r="J408" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K408" s="3" t="s">
+      <c r="J408" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K408" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L408" t="n">
@@ -11953,28 +11965,28 @@
       </c>
     </row>
     <row r="410">
-      <c r="A410" t="s" s="3">
+      <c r="A410" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B410" t="s" s="3">
+      <c r="B410" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C410" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D410" t="s" s="3">
+      <c r="C410" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D410" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E410" t="s" s="3">
+      <c r="E410" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F410" t="s" s="3">
+      <c r="F410" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G410" t="s" s="3">
+      <c r="G410" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H410" t="s" s="3">
+      <c r="H410" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -11999,28 +12011,28 @@
       </c>
     </row>
     <row r="412">
-      <c r="B412" t="s" s="3">
+      <c r="B412" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C412" t="s" s="3">
+      <c r="C412" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D412" t="s" s="3">
+      <c r="D412" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E412" t="s" s="3">
+      <c r="E412" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F412" t="s" s="3">
+      <c r="F412" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G412" t="s" s="3">
+      <c r="G412" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H412" t="s" s="3">
+      <c r="H412" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I412" t="s" s="3">
+      <c r="I412" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -12108,10 +12120,10 @@
       <c r="I415">
         <f>((C415-C414)^2+(D415- D414)^2)^.5</f>
       </c>
-      <c r="J415" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K415" s="3" t="s">
+      <c r="J415" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K415" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L415" t="n">
@@ -12155,28 +12167,28 @@
       </c>
     </row>
     <row r="417">
-      <c r="A417" t="s" s="3">
+      <c r="A417" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B417" t="s" s="3">
+      <c r="B417" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C417" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D417" t="s" s="3">
+      <c r="C417" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D417" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E417" t="s" s="3">
+      <c r="E417" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F417" t="s" s="3">
+      <c r="F417" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G417" t="s" s="3">
+      <c r="G417" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H417" t="s" s="3">
+      <c r="H417" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -12201,28 +12213,28 @@
       </c>
     </row>
     <row r="419">
-      <c r="B419" t="s" s="3">
+      <c r="B419" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C419" t="s" s="3">
+      <c r="C419" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D419" t="s" s="3">
+      <c r="D419" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E419" t="s" s="3">
+      <c r="E419" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F419" t="s" s="3">
+      <c r="F419" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G419" t="s" s="3">
+      <c r="G419" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H419" t="s" s="3">
+      <c r="H419" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I419" t="s" s="3">
+      <c r="I419" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -12281,10 +12293,10 @@
       <c r="I421">
         <f>((C421-C420)^2+(D421- D420)^2)^.5</f>
       </c>
-      <c r="J421" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K421" s="3" t="s">
+      <c r="J421" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K421" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L421" t="n">

--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c101_I2_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c101_I2_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5840" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15184" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,53 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="6">
+  <fonts count="14">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -148,13 +188,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -177,26 +225,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="true">
-      <c r="A1" t="s" s="5">
+    <row r="1" s="13" customFormat="true">
+      <c r="A1" t="s" s="13">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="5">
+      <c r="B1" t="s" s="13">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="5">
+      <c r="C1" t="s" s="13">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="5">
+      <c r="D1" t="s" s="13">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="5">
+      <c r="E1" t="s" s="13">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="5">
+      <c r="F1" t="s" s="13">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="5">
+      <c r="G1" t="s" s="13">
         <v>7</v>
       </c>
     </row>
@@ -224,28 +272,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="5">
+      <c r="A3" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="5">
+      <c r="B3" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="5">
+      <c r="C3" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="5">
+      <c r="E3" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="5">
+      <c r="F3" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="5">
+      <c r="G3" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="5">
+      <c r="H3" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -270,28 +318,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="5">
+      <c r="B5" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="5">
+      <c r="C5" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="5">
+      <c r="D5" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="5">
+      <c r="E5" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="5">
+      <c r="F5" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="5">
+      <c r="G5" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="5">
+      <c r="H5" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="5">
+      <c r="I5" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -350,10 +398,10 @@
       <c r="I7">
         <f>((C7-C6)^2+(D7- D6)^2)^.5</f>
       </c>
-      <c r="J7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="5" t="s">
+      <c r="J7" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L7" t="n">
@@ -397,28 +445,28 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="5">
+      <c r="A9" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B9" t="s" s="5">
+      <c r="B9" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C9" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s" s="5">
+      <c r="C9" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E9" t="s" s="5">
+      <c r="E9" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F9" t="s" s="5">
+      <c r="F9" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G9" t="s" s="5">
+      <c r="G9" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H9" t="s" s="5">
+      <c r="H9" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -443,28 +491,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="B11" t="s" s="5">
+      <c r="B11" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C11" t="s" s="5">
+      <c r="C11" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D11" t="s" s="5">
+      <c r="D11" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E11" t="s" s="5">
+      <c r="E11" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F11" t="s" s="5">
+      <c r="F11" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G11" t="s" s="5">
+      <c r="G11" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H11" t="s" s="5">
+      <c r="H11" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I11" t="s" s="5">
+      <c r="I11" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -639,10 +687,10 @@
       <c r="I17">
         <f>((C17-C16)^2+(D17- D16)^2)^.5</f>
       </c>
-      <c r="J17" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K17" s="5" t="s">
+      <c r="J17" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K17" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L17" t="n">
@@ -686,28 +734,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s" s="5">
+      <c r="A19" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B19" t="s" s="5">
+      <c r="B19" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C19" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D19" t="s" s="5">
+      <c r="C19" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E19" t="s" s="5">
+      <c r="E19" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F19" t="s" s="5">
+      <c r="F19" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G19" t="s" s="5">
+      <c r="G19" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H19" t="s" s="5">
+      <c r="H19" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -732,28 +780,28 @@
       </c>
     </row>
     <row r="21">
-      <c r="B21" t="s" s="5">
+      <c r="B21" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C21" t="s" s="5">
+      <c r="C21" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D21" t="s" s="5">
+      <c r="D21" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E21" t="s" s="5">
+      <c r="E21" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F21" t="s" s="5">
+      <c r="F21" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G21" t="s" s="5">
+      <c r="G21" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H21" t="s" s="5">
+      <c r="H21" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I21" t="s" s="5">
+      <c r="I21" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -812,10 +860,10 @@
       <c r="I23">
         <f>((C23-C22)^2+(D23- D22)^2)^.5</f>
       </c>
-      <c r="J23" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K23" s="5" t="s">
+      <c r="J23" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K23" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L23" t="n">
@@ -859,28 +907,28 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="5">
+      <c r="A25" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B25" t="s" s="5">
+      <c r="B25" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C25" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D25" t="s" s="5">
+      <c r="C25" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E25" t="s" s="5">
+      <c r="E25" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F25" t="s" s="5">
+      <c r="F25" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G25" t="s" s="5">
+      <c r="G25" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H25" t="s" s="5">
+      <c r="H25" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -905,28 +953,28 @@
       </c>
     </row>
     <row r="27">
-      <c r="B27" t="s" s="5">
+      <c r="B27" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C27" t="s" s="5">
+      <c r="C27" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D27" t="s" s="5">
+      <c r="D27" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E27" t="s" s="5">
+      <c r="E27" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F27" t="s" s="5">
+      <c r="F27" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G27" t="s" s="5">
+      <c r="G27" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H27" t="s" s="5">
+      <c r="H27" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I27" t="s" s="5">
+      <c r="I27" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -1014,10 +1062,10 @@
       <c r="I30">
         <f>((C30-C29)^2+(D30- D29)^2)^.5</f>
       </c>
-      <c r="J30" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K30" s="5" t="s">
+      <c r="J30" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K30" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L30" t="n">
@@ -1061,28 +1109,28 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s" s="5">
+      <c r="A32" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B32" t="s" s="5">
+      <c r="B32" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C32" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D32" t="s" s="5">
+      <c r="C32" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E32" t="s" s="5">
+      <c r="E32" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F32" t="s" s="5">
+      <c r="F32" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G32" t="s" s="5">
+      <c r="G32" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H32" t="s" s="5">
+      <c r="H32" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -1107,28 +1155,28 @@
       </c>
     </row>
     <row r="34">
-      <c r="B34" t="s" s="5">
+      <c r="B34" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C34" t="s" s="5">
+      <c r="C34" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D34" t="s" s="5">
+      <c r="D34" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E34" t="s" s="5">
+      <c r="E34" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F34" t="s" s="5">
+      <c r="F34" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G34" t="s" s="5">
+      <c r="G34" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H34" t="s" s="5">
+      <c r="H34" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I34" t="s" s="5">
+      <c r="I34" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -1216,10 +1264,10 @@
       <c r="I37">
         <f>((C37-C36)^2+(D37- D36)^2)^.5</f>
       </c>
-      <c r="J37" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K37" s="5" t="s">
+      <c r="J37" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K37" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L37" t="n">
@@ -1263,28 +1311,28 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="s" s="5">
+      <c r="A39" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B39" t="s" s="5">
+      <c r="B39" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C39" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D39" t="s" s="5">
+      <c r="C39" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D39" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E39" t="s" s="5">
+      <c r="E39" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F39" t="s" s="5">
+      <c r="F39" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G39" t="s" s="5">
+      <c r="G39" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H39" t="s" s="5">
+      <c r="H39" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -1309,28 +1357,28 @@
       </c>
     </row>
     <row r="41">
-      <c r="B41" t="s" s="5">
+      <c r="B41" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C41" t="s" s="5">
+      <c r="C41" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D41" t="s" s="5">
+      <c r="D41" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E41" t="s" s="5">
+      <c r="E41" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F41" t="s" s="5">
+      <c r="F41" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G41" t="s" s="5">
+      <c r="G41" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H41" t="s" s="5">
+      <c r="H41" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I41" t="s" s="5">
+      <c r="I41" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -1418,10 +1466,10 @@
       <c r="I44">
         <f>((C44-C43)^2+(D44- D43)^2)^.5</f>
       </c>
-      <c r="J44" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K44" s="5" t="s">
+      <c r="J44" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K44" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L44" t="n">
@@ -1465,28 +1513,28 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="s" s="5">
+      <c r="A46" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B46" t="s" s="5">
+      <c r="B46" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C46" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D46" t="s" s="5">
+      <c r="C46" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D46" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E46" t="s" s="5">
+      <c r="E46" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F46" t="s" s="5">
+      <c r="F46" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G46" t="s" s="5">
+      <c r="G46" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H46" t="s" s="5">
+      <c r="H46" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -1511,28 +1559,28 @@
       </c>
     </row>
     <row r="48">
-      <c r="B48" t="s" s="5">
+      <c r="B48" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C48" t="s" s="5">
+      <c r="C48" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D48" t="s" s="5">
+      <c r="D48" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E48" t="s" s="5">
+      <c r="E48" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F48" t="s" s="5">
+      <c r="F48" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G48" t="s" s="5">
+      <c r="G48" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H48" t="s" s="5">
+      <c r="H48" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I48" t="s" s="5">
+      <c r="I48" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -1620,10 +1668,10 @@
       <c r="I51">
         <f>((C51-C50)^2+(D51- D50)^2)^.5</f>
       </c>
-      <c r="J51" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K51" s="5" t="s">
+      <c r="J51" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K51" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L51" t="n">
@@ -1667,28 +1715,28 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="s" s="5">
+      <c r="A53" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B53" t="s" s="5">
+      <c r="B53" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C53" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D53" t="s" s="5">
+      <c r="C53" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D53" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E53" t="s" s="5">
+      <c r="E53" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F53" t="s" s="5">
+      <c r="F53" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G53" t="s" s="5">
+      <c r="G53" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H53" t="s" s="5">
+      <c r="H53" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -1713,28 +1761,28 @@
       </c>
     </row>
     <row r="55">
-      <c r="B55" t="s" s="5">
+      <c r="B55" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C55" t="s" s="5">
+      <c r="C55" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D55" t="s" s="5">
+      <c r="D55" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E55" t="s" s="5">
+      <c r="E55" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F55" t="s" s="5">
+      <c r="F55" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G55" t="s" s="5">
+      <c r="G55" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H55" t="s" s="5">
+      <c r="H55" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I55" t="s" s="5">
+      <c r="I55" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -1793,10 +1841,10 @@
       <c r="I57">
         <f>((C57-C56)^2+(D57- D56)^2)^.5</f>
       </c>
-      <c r="J57" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K57" s="5" t="s">
+      <c r="J57" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K57" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L57" t="n">
@@ -1840,28 +1888,28 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="s" s="5">
+      <c r="A59" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B59" t="s" s="5">
+      <c r="B59" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C59" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D59" t="s" s="5">
+      <c r="C59" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D59" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E59" t="s" s="5">
+      <c r="E59" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F59" t="s" s="5">
+      <c r="F59" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G59" t="s" s="5">
+      <c r="G59" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H59" t="s" s="5">
+      <c r="H59" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -1886,28 +1934,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="B61" t="s" s="5">
+      <c r="B61" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C61" t="s" s="5">
+      <c r="C61" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D61" t="s" s="5">
+      <c r="D61" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E61" t="s" s="5">
+      <c r="E61" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F61" t="s" s="5">
+      <c r="F61" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G61" t="s" s="5">
+      <c r="G61" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H61" t="s" s="5">
+      <c r="H61" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I61" t="s" s="5">
+      <c r="I61" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -1966,10 +2014,10 @@
       <c r="I63">
         <f>((C63-C62)^2+(D63- D62)^2)^.5</f>
       </c>
-      <c r="J63" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K63" s="5" t="s">
+      <c r="J63" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K63" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L63" t="n">
@@ -2013,28 +2061,28 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="s" s="5">
+      <c r="A65" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B65" t="s" s="5">
+      <c r="B65" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C65" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D65" t="s" s="5">
+      <c r="C65" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D65" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E65" t="s" s="5">
+      <c r="E65" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F65" t="s" s="5">
+      <c r="F65" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G65" t="s" s="5">
+      <c r="G65" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H65" t="s" s="5">
+      <c r="H65" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -2059,28 +2107,28 @@
       </c>
     </row>
     <row r="67">
-      <c r="B67" t="s" s="5">
+      <c r="B67" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C67" t="s" s="5">
+      <c r="C67" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D67" t="s" s="5">
+      <c r="D67" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E67" t="s" s="5">
+      <c r="E67" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F67" t="s" s="5">
+      <c r="F67" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G67" t="s" s="5">
+      <c r="G67" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H67" t="s" s="5">
+      <c r="H67" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I67" t="s" s="5">
+      <c r="I67" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -2139,10 +2187,10 @@
       <c r="I69">
         <f>((C69-C68)^2+(D69- D68)^2)^.5</f>
       </c>
-      <c r="J69" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K69" s="5" t="s">
+      <c r="J69" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K69" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L69" t="n">
@@ -2186,28 +2234,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="s" s="5">
+      <c r="A71" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B71" t="s" s="5">
+      <c r="B71" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C71" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D71" t="s" s="5">
+      <c r="C71" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D71" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E71" t="s" s="5">
+      <c r="E71" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F71" t="s" s="5">
+      <c r="F71" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G71" t="s" s="5">
+      <c r="G71" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H71" t="s" s="5">
+      <c r="H71" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -2232,28 +2280,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="B73" t="s" s="5">
+      <c r="B73" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C73" t="s" s="5">
+      <c r="C73" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D73" t="s" s="5">
+      <c r="D73" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E73" t="s" s="5">
+      <c r="E73" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F73" t="s" s="5">
+      <c r="F73" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G73" t="s" s="5">
+      <c r="G73" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H73" t="s" s="5">
+      <c r="H73" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I73" t="s" s="5">
+      <c r="I73" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -2341,10 +2389,10 @@
       <c r="I76">
         <f>((C76-C75)^2+(D76- D75)^2)^.5</f>
       </c>
-      <c r="J76" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K76" s="5" t="s">
+      <c r="J76" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K76" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L76" t="n">
@@ -2388,28 +2436,28 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="s" s="5">
+      <c r="A78" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B78" t="s" s="5">
+      <c r="B78" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C78" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D78" t="s" s="5">
+      <c r="C78" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D78" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E78" t="s" s="5">
+      <c r="E78" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F78" t="s" s="5">
+      <c r="F78" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G78" t="s" s="5">
+      <c r="G78" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H78" t="s" s="5">
+      <c r="H78" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -2434,28 +2482,28 @@
       </c>
     </row>
     <row r="80">
-      <c r="B80" t="s" s="5">
+      <c r="B80" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C80" t="s" s="5">
+      <c r="C80" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D80" t="s" s="5">
+      <c r="D80" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E80" t="s" s="5">
+      <c r="E80" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F80" t="s" s="5">
+      <c r="F80" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G80" t="s" s="5">
+      <c r="G80" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H80" t="s" s="5">
+      <c r="H80" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I80" t="s" s="5">
+      <c r="I80" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -2514,10 +2562,10 @@
       <c r="I82">
         <f>((C82-C81)^2+(D82- D81)^2)^.5</f>
       </c>
-      <c r="J82" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K82" s="5" t="s">
+      <c r="J82" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K82" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L82" t="n">
@@ -2561,28 +2609,28 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="s" s="5">
+      <c r="A84" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B84" t="s" s="5">
+      <c r="B84" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C84" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D84" t="s" s="5">
+      <c r="C84" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D84" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E84" t="s" s="5">
+      <c r="E84" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F84" t="s" s="5">
+      <c r="F84" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G84" t="s" s="5">
+      <c r="G84" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H84" t="s" s="5">
+      <c r="H84" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -2607,28 +2655,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="B86" t="s" s="5">
+      <c r="B86" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C86" t="s" s="5">
+      <c r="C86" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D86" t="s" s="5">
+      <c r="D86" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E86" t="s" s="5">
+      <c r="E86" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F86" t="s" s="5">
+      <c r="F86" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G86" t="s" s="5">
+      <c r="G86" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H86" t="s" s="5">
+      <c r="H86" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I86" t="s" s="5">
+      <c r="I86" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -2716,10 +2764,10 @@
       <c r="I89">
         <f>((C89-C88)^2+(D89- D88)^2)^.5</f>
       </c>
-      <c r="J89" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K89" s="5" t="s">
+      <c r="J89" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K89" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L89" t="n">
@@ -2763,28 +2811,28 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="s" s="5">
+      <c r="A91" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B91" t="s" s="5">
+      <c r="B91" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C91" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D91" t="s" s="5">
+      <c r="C91" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D91" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E91" t="s" s="5">
+      <c r="E91" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F91" t="s" s="5">
+      <c r="F91" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G91" t="s" s="5">
+      <c r="G91" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H91" t="s" s="5">
+      <c r="H91" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -2809,28 +2857,28 @@
       </c>
     </row>
     <row r="93">
-      <c r="B93" t="s" s="5">
+      <c r="B93" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C93" t="s" s="5">
+      <c r="C93" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D93" t="s" s="5">
+      <c r="D93" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E93" t="s" s="5">
+      <c r="E93" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F93" t="s" s="5">
+      <c r="F93" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G93" t="s" s="5">
+      <c r="G93" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H93" t="s" s="5">
+      <c r="H93" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I93" t="s" s="5">
+      <c r="I93" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -2947,10 +2995,10 @@
       <c r="I97">
         <f>((C97-C96)^2+(D97- D96)^2)^.5</f>
       </c>
-      <c r="J97" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K97" s="5" t="s">
+      <c r="J97" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K97" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L97" t="n">
@@ -2994,28 +3042,28 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="s" s="5">
+      <c r="A99" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B99" t="s" s="5">
+      <c r="B99" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C99" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D99" t="s" s="5">
+      <c r="C99" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D99" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E99" t="s" s="5">
+      <c r="E99" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F99" t="s" s="5">
+      <c r="F99" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G99" t="s" s="5">
+      <c r="G99" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H99" t="s" s="5">
+      <c r="H99" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -3040,28 +3088,28 @@
       </c>
     </row>
     <row r="101">
-      <c r="B101" t="s" s="5">
+      <c r="B101" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C101" t="s" s="5">
+      <c r="C101" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D101" t="s" s="5">
+      <c r="D101" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E101" t="s" s="5">
+      <c r="E101" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F101" t="s" s="5">
+      <c r="F101" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G101" t="s" s="5">
+      <c r="G101" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H101" t="s" s="5">
+      <c r="H101" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I101" t="s" s="5">
+      <c r="I101" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -3120,10 +3168,10 @@
       <c r="I103">
         <f>((C103-C102)^2+(D103- D102)^2)^.5</f>
       </c>
-      <c r="J103" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K103" s="5" t="s">
+      <c r="J103" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K103" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L103" t="n">
@@ -3167,28 +3215,28 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="s" s="5">
+      <c r="A105" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B105" t="s" s="5">
+      <c r="B105" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C105" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D105" t="s" s="5">
+      <c r="C105" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D105" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E105" t="s" s="5">
+      <c r="E105" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F105" t="s" s="5">
+      <c r="F105" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G105" t="s" s="5">
+      <c r="G105" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H105" t="s" s="5">
+      <c r="H105" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -3213,28 +3261,28 @@
       </c>
     </row>
     <row r="107">
-      <c r="B107" t="s" s="5">
+      <c r="B107" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C107" t="s" s="5">
+      <c r="C107" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D107" t="s" s="5">
+      <c r="D107" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E107" t="s" s="5">
+      <c r="E107" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F107" t="s" s="5">
+      <c r="F107" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G107" t="s" s="5">
+      <c r="G107" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H107" t="s" s="5">
+      <c r="H107" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I107" t="s" s="5">
+      <c r="I107" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -3322,10 +3370,10 @@
       <c r="I110">
         <f>((C110-C109)^2+(D110- D109)^2)^.5</f>
       </c>
-      <c r="J110" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K110" s="5" t="s">
+      <c r="J110" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K110" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L110" t="n">
@@ -3369,28 +3417,28 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="s" s="5">
+      <c r="A112" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B112" t="s" s="5">
+      <c r="B112" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C112" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D112" t="s" s="5">
+      <c r="C112" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D112" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E112" t="s" s="5">
+      <c r="E112" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F112" t="s" s="5">
+      <c r="F112" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G112" t="s" s="5">
+      <c r="G112" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H112" t="s" s="5">
+      <c r="H112" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -3415,28 +3463,28 @@
       </c>
     </row>
     <row r="114">
-      <c r="B114" t="s" s="5">
+      <c r="B114" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C114" t="s" s="5">
+      <c r="C114" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D114" t="s" s="5">
+      <c r="D114" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E114" t="s" s="5">
+      <c r="E114" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F114" t="s" s="5">
+      <c r="F114" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G114" t="s" s="5">
+      <c r="G114" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H114" t="s" s="5">
+      <c r="H114" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I114" t="s" s="5">
+      <c r="I114" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -3524,10 +3572,10 @@
       <c r="I117">
         <f>((C117-C116)^2+(D117- D116)^2)^.5</f>
       </c>
-      <c r="J117" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K117" s="5" t="s">
+      <c r="J117" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K117" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L117" t="n">
@@ -3571,28 +3619,28 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="s" s="5">
+      <c r="A119" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B119" t="s" s="5">
+      <c r="B119" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C119" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D119" t="s" s="5">
+      <c r="C119" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D119" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E119" t="s" s="5">
+      <c r="E119" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F119" t="s" s="5">
+      <c r="F119" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G119" t="s" s="5">
+      <c r="G119" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H119" t="s" s="5">
+      <c r="H119" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -3617,28 +3665,28 @@
       </c>
     </row>
     <row r="121">
-      <c r="B121" t="s" s="5">
+      <c r="B121" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C121" t="s" s="5">
+      <c r="C121" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D121" t="s" s="5">
+      <c r="D121" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E121" t="s" s="5">
+      <c r="E121" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F121" t="s" s="5">
+      <c r="F121" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G121" t="s" s="5">
+      <c r="G121" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H121" t="s" s="5">
+      <c r="H121" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I121" t="s" s="5">
+      <c r="I121" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -3755,10 +3803,10 @@
       <c r="I125">
         <f>((C125-C124)^2+(D125- D124)^2)^.5</f>
       </c>
-      <c r="J125" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K125" s="5" t="s">
+      <c r="J125" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K125" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L125" t="n">
@@ -3802,28 +3850,28 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="s" s="5">
+      <c r="A127" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B127" t="s" s="5">
+      <c r="B127" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C127" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D127" t="s" s="5">
+      <c r="C127" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D127" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E127" t="s" s="5">
+      <c r="E127" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F127" t="s" s="5">
+      <c r="F127" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G127" t="s" s="5">
+      <c r="G127" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H127" t="s" s="5">
+      <c r="H127" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -3848,28 +3896,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="B129" t="s" s="5">
+      <c r="B129" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C129" t="s" s="5">
+      <c r="C129" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D129" t="s" s="5">
+      <c r="D129" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E129" t="s" s="5">
+      <c r="E129" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F129" t="s" s="5">
+      <c r="F129" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G129" t="s" s="5">
+      <c r="G129" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H129" t="s" s="5">
+      <c r="H129" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I129" t="s" s="5">
+      <c r="I129" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -3928,10 +3976,10 @@
       <c r="I131">
         <f>((C131-C130)^2+(D131- D130)^2)^.5</f>
       </c>
-      <c r="J131" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K131" s="5" t="s">
+      <c r="J131" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K131" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L131" t="n">
@@ -3975,28 +4023,28 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="s" s="5">
+      <c r="A133" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B133" t="s" s="5">
+      <c r="B133" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C133" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D133" t="s" s="5">
+      <c r="C133" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D133" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E133" t="s" s="5">
+      <c r="E133" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F133" t="s" s="5">
+      <c r="F133" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G133" t="s" s="5">
+      <c r="G133" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H133" t="s" s="5">
+      <c r="H133" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -4021,28 +4069,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="B135" t="s" s="5">
+      <c r="B135" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C135" t="s" s="5">
+      <c r="C135" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D135" t="s" s="5">
+      <c r="D135" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E135" t="s" s="5">
+      <c r="E135" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F135" t="s" s="5">
+      <c r="F135" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G135" t="s" s="5">
+      <c r="G135" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H135" t="s" s="5">
+      <c r="H135" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I135" t="s" s="5">
+      <c r="I135" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -4101,10 +4149,10 @@
       <c r="I137">
         <f>((C137-C136)^2+(D137- D136)^2)^.5</f>
       </c>
-      <c r="J137" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K137" s="5" t="s">
+      <c r="J137" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K137" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L137" t="n">
@@ -4148,28 +4196,28 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="s" s="5">
+      <c r="A139" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B139" t="s" s="5">
+      <c r="B139" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C139" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D139" t="s" s="5">
+      <c r="C139" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D139" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E139" t="s" s="5">
+      <c r="E139" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F139" t="s" s="5">
+      <c r="F139" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G139" t="s" s="5">
+      <c r="G139" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H139" t="s" s="5">
+      <c r="H139" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -4194,28 +4242,28 @@
       </c>
     </row>
     <row r="141">
-      <c r="B141" t="s" s="5">
+      <c r="B141" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C141" t="s" s="5">
+      <c r="C141" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D141" t="s" s="5">
+      <c r="D141" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E141" t="s" s="5">
+      <c r="E141" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F141" t="s" s="5">
+      <c r="F141" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G141" t="s" s="5">
+      <c r="G141" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H141" t="s" s="5">
+      <c r="H141" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I141" t="s" s="5">
+      <c r="I141" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -4303,10 +4351,10 @@
       <c r="I144">
         <f>((C144-C143)^2+(D144- D143)^2)^.5</f>
       </c>
-      <c r="J144" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K144" s="5" t="s">
+      <c r="J144" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K144" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L144" t="n">
@@ -4350,28 +4398,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="s" s="5">
+      <c r="A146" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B146" t="s" s="5">
+      <c r="B146" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C146" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D146" t="s" s="5">
+      <c r="C146" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D146" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E146" t="s" s="5">
+      <c r="E146" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F146" t="s" s="5">
+      <c r="F146" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G146" t="s" s="5">
+      <c r="G146" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H146" t="s" s="5">
+      <c r="H146" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -4396,28 +4444,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="B148" t="s" s="5">
+      <c r="B148" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C148" t="s" s="5">
+      <c r="C148" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D148" t="s" s="5">
+      <c r="D148" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E148" t="s" s="5">
+      <c r="E148" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F148" t="s" s="5">
+      <c r="F148" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G148" t="s" s="5">
+      <c r="G148" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H148" t="s" s="5">
+      <c r="H148" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I148" t="s" s="5">
+      <c r="I148" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -4476,10 +4524,10 @@
       <c r="I150">
         <f>((C150-C149)^2+(D150- D149)^2)^.5</f>
       </c>
-      <c r="J150" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K150" s="5" t="s">
+      <c r="J150" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K150" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L150" t="n">
@@ -4523,28 +4571,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="s" s="5">
+      <c r="A152" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B152" t="s" s="5">
+      <c r="B152" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C152" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D152" t="s" s="5">
+      <c r="C152" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D152" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E152" t="s" s="5">
+      <c r="E152" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F152" t="s" s="5">
+      <c r="F152" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G152" t="s" s="5">
+      <c r="G152" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H152" t="s" s="5">
+      <c r="H152" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -4569,28 +4617,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="B154" t="s" s="5">
+      <c r="B154" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C154" t="s" s="5">
+      <c r="C154" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D154" t="s" s="5">
+      <c r="D154" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E154" t="s" s="5">
+      <c r="E154" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F154" t="s" s="5">
+      <c r="F154" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G154" t="s" s="5">
+      <c r="G154" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H154" t="s" s="5">
+      <c r="H154" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I154" t="s" s="5">
+      <c r="I154" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -4678,10 +4726,10 @@
       <c r="I157">
         <f>((C157-C156)^2+(D157- D156)^2)^.5</f>
       </c>
-      <c r="J157" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K157" s="5" t="s">
+      <c r="J157" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K157" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L157" t="n">
@@ -4725,28 +4773,28 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="s" s="5">
+      <c r="A159" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B159" t="s" s="5">
+      <c r="B159" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C159" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D159" t="s" s="5">
+      <c r="C159" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D159" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E159" t="s" s="5">
+      <c r="E159" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F159" t="s" s="5">
+      <c r="F159" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G159" t="s" s="5">
+      <c r="G159" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H159" t="s" s="5">
+      <c r="H159" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -4771,28 +4819,28 @@
       </c>
     </row>
     <row r="161">
-      <c r="B161" t="s" s="5">
+      <c r="B161" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C161" t="s" s="5">
+      <c r="C161" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D161" t="s" s="5">
+      <c r="D161" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E161" t="s" s="5">
+      <c r="E161" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F161" t="s" s="5">
+      <c r="F161" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G161" t="s" s="5">
+      <c r="G161" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H161" t="s" s="5">
+      <c r="H161" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I161" t="s" s="5">
+      <c r="I161" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -4851,10 +4899,10 @@
       <c r="I163">
         <f>((C163-C162)^2+(D163- D162)^2)^.5</f>
       </c>
-      <c r="J163" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K163" s="5" t="s">
+      <c r="J163" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K163" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L163" t="n">
@@ -4898,28 +4946,28 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="s" s="5">
+      <c r="A165" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B165" t="s" s="5">
+      <c r="B165" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C165" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D165" t="s" s="5">
+      <c r="C165" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D165" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E165" t="s" s="5">
+      <c r="E165" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F165" t="s" s="5">
+      <c r="F165" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G165" t="s" s="5">
+      <c r="G165" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H165" t="s" s="5">
+      <c r="H165" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -4944,28 +4992,28 @@
       </c>
     </row>
     <row r="167">
-      <c r="B167" t="s" s="5">
+      <c r="B167" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C167" t="s" s="5">
+      <c r="C167" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D167" t="s" s="5">
+      <c r="D167" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E167" t="s" s="5">
+      <c r="E167" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F167" t="s" s="5">
+      <c r="F167" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G167" t="s" s="5">
+      <c r="G167" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H167" t="s" s="5">
+      <c r="H167" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I167" t="s" s="5">
+      <c r="I167" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -5024,10 +5072,10 @@
       <c r="I169">
         <f>((C169-C168)^2+(D169- D168)^2)^.5</f>
       </c>
-      <c r="J169" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K169" s="5" t="s">
+      <c r="J169" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K169" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L169" t="n">
@@ -5071,28 +5119,28 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="s" s="5">
+      <c r="A171" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B171" t="s" s="5">
+      <c r="B171" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C171" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D171" t="s" s="5">
+      <c r="C171" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D171" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E171" t="s" s="5">
+      <c r="E171" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F171" t="s" s="5">
+      <c r="F171" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G171" t="s" s="5">
+      <c r="G171" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H171" t="s" s="5">
+      <c r="H171" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -5117,28 +5165,28 @@
       </c>
     </row>
     <row r="173">
-      <c r="B173" t="s" s="5">
+      <c r="B173" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C173" t="s" s="5">
+      <c r="C173" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D173" t="s" s="5">
+      <c r="D173" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E173" t="s" s="5">
+      <c r="E173" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F173" t="s" s="5">
+      <c r="F173" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G173" t="s" s="5">
+      <c r="G173" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H173" t="s" s="5">
+      <c r="H173" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I173" t="s" s="5">
+      <c r="I173" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -5255,10 +5303,10 @@
       <c r="I177">
         <f>((C177-C176)^2+(D177- D176)^2)^.5</f>
       </c>
-      <c r="J177" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K177" s="5" t="s">
+      <c r="J177" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K177" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L177" t="n">
@@ -5302,28 +5350,28 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="s" s="5">
+      <c r="A179" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B179" t="s" s="5">
+      <c r="B179" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C179" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D179" t="s" s="5">
+      <c r="C179" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D179" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E179" t="s" s="5">
+      <c r="E179" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F179" t="s" s="5">
+      <c r="F179" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G179" t="s" s="5">
+      <c r="G179" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H179" t="s" s="5">
+      <c r="H179" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -5348,28 +5396,28 @@
       </c>
     </row>
     <row r="181">
-      <c r="B181" t="s" s="5">
+      <c r="B181" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C181" t="s" s="5">
+      <c r="C181" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D181" t="s" s="5">
+      <c r="D181" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E181" t="s" s="5">
+      <c r="E181" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F181" t="s" s="5">
+      <c r="F181" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G181" t="s" s="5">
+      <c r="G181" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H181" t="s" s="5">
+      <c r="H181" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I181" t="s" s="5">
+      <c r="I181" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -5428,10 +5476,10 @@
       <c r="I183">
         <f>((C183-C182)^2+(D183- D182)^2)^.5</f>
       </c>
-      <c r="J183" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K183" s="5" t="s">
+      <c r="J183" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K183" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L183" t="n">
@@ -5475,28 +5523,28 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="s" s="5">
+      <c r="A185" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B185" t="s" s="5">
+      <c r="B185" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C185" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D185" t="s" s="5">
+      <c r="C185" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D185" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E185" t="s" s="5">
+      <c r="E185" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F185" t="s" s="5">
+      <c r="F185" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G185" t="s" s="5">
+      <c r="G185" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H185" t="s" s="5">
+      <c r="H185" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -5521,28 +5569,28 @@
       </c>
     </row>
     <row r="187">
-      <c r="B187" t="s" s="5">
+      <c r="B187" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C187" t="s" s="5">
+      <c r="C187" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D187" t="s" s="5">
+      <c r="D187" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E187" t="s" s="5">
+      <c r="E187" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F187" t="s" s="5">
+      <c r="F187" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G187" t="s" s="5">
+      <c r="G187" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H187" t="s" s="5">
+      <c r="H187" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I187" t="s" s="5">
+      <c r="I187" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -5630,10 +5678,10 @@
       <c r="I190">
         <f>((C190-C189)^2+(D190- D189)^2)^.5</f>
       </c>
-      <c r="J190" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K190" s="5" t="s">
+      <c r="J190" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K190" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L190" t="n">
@@ -5677,28 +5725,28 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" t="s" s="5">
+      <c r="A192" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B192" t="s" s="5">
+      <c r="B192" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C192" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D192" t="s" s="5">
+      <c r="C192" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D192" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E192" t="s" s="5">
+      <c r="E192" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F192" t="s" s="5">
+      <c r="F192" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G192" t="s" s="5">
+      <c r="G192" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H192" t="s" s="5">
+      <c r="H192" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -5723,28 +5771,28 @@
       </c>
     </row>
     <row r="194">
-      <c r="B194" t="s" s="5">
+      <c r="B194" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C194" t="s" s="5">
+      <c r="C194" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D194" t="s" s="5">
+      <c r="D194" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E194" t="s" s="5">
+      <c r="E194" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F194" t="s" s="5">
+      <c r="F194" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G194" t="s" s="5">
+      <c r="G194" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H194" t="s" s="5">
+      <c r="H194" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I194" t="s" s="5">
+      <c r="I194" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -5803,10 +5851,10 @@
       <c r="I196">
         <f>((C196-C195)^2+(D196- D195)^2)^.5</f>
       </c>
-      <c r="J196" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K196" s="5" t="s">
+      <c r="J196" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K196" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L196" t="n">
@@ -5850,28 +5898,28 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="s" s="5">
+      <c r="A198" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B198" t="s" s="5">
+      <c r="B198" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C198" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D198" t="s" s="5">
+      <c r="C198" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D198" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E198" t="s" s="5">
+      <c r="E198" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F198" t="s" s="5">
+      <c r="F198" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G198" t="s" s="5">
+      <c r="G198" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H198" t="s" s="5">
+      <c r="H198" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -5896,28 +5944,28 @@
       </c>
     </row>
     <row r="200">
-      <c r="B200" t="s" s="5">
+      <c r="B200" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C200" t="s" s="5">
+      <c r="C200" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D200" t="s" s="5">
+      <c r="D200" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E200" t="s" s="5">
+      <c r="E200" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F200" t="s" s="5">
+      <c r="F200" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G200" t="s" s="5">
+      <c r="G200" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H200" t="s" s="5">
+      <c r="H200" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I200" t="s" s="5">
+      <c r="I200" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -6034,10 +6082,10 @@
       <c r="I204">
         <f>((C204-C203)^2+(D204- D203)^2)^.5</f>
       </c>
-      <c r="J204" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K204" s="5" t="s">
+      <c r="J204" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K204" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L204" t="n">
@@ -6081,28 +6129,28 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" t="s" s="5">
+      <c r="A206" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B206" t="s" s="5">
+      <c r="B206" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C206" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D206" t="s" s="5">
+      <c r="C206" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D206" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E206" t="s" s="5">
+      <c r="E206" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F206" t="s" s="5">
+      <c r="F206" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G206" t="s" s="5">
+      <c r="G206" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H206" t="s" s="5">
+      <c r="H206" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -6127,28 +6175,28 @@
       </c>
     </row>
     <row r="208">
-      <c r="B208" t="s" s="5">
+      <c r="B208" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C208" t="s" s="5">
+      <c r="C208" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D208" t="s" s="5">
+      <c r="D208" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E208" t="s" s="5">
+      <c r="E208" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F208" t="s" s="5">
+      <c r="F208" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G208" t="s" s="5">
+      <c r="G208" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H208" t="s" s="5">
+      <c r="H208" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I208" t="s" s="5">
+      <c r="I208" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -6265,10 +6313,10 @@
       <c r="I212">
         <f>((C212-C211)^2+(D212- D211)^2)^.5</f>
       </c>
-      <c r="J212" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K212" s="5" t="s">
+      <c r="J212" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K212" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L212" t="n">
@@ -6312,28 +6360,28 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="s" s="5">
+      <c r="A214" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B214" t="s" s="5">
+      <c r="B214" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C214" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D214" t="s" s="5">
+      <c r="C214" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D214" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E214" t="s" s="5">
+      <c r="E214" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F214" t="s" s="5">
+      <c r="F214" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G214" t="s" s="5">
+      <c r="G214" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H214" t="s" s="5">
+      <c r="H214" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -6358,28 +6406,28 @@
       </c>
     </row>
     <row r="216">
-      <c r="B216" t="s" s="5">
+      <c r="B216" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C216" t="s" s="5">
+      <c r="C216" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D216" t="s" s="5">
+      <c r="D216" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E216" t="s" s="5">
+      <c r="E216" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F216" t="s" s="5">
+      <c r="F216" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G216" t="s" s="5">
+      <c r="G216" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H216" t="s" s="5">
+      <c r="H216" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I216" t="s" s="5">
+      <c r="I216" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -6438,10 +6486,10 @@
       <c r="I218">
         <f>((C218-C217)^2+(D218- D217)^2)^.5</f>
       </c>
-      <c r="J218" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K218" s="5" t="s">
+      <c r="J218" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K218" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L218" t="n">
@@ -6485,28 +6533,28 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" t="s" s="5">
+      <c r="A220" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B220" t="s" s="5">
+      <c r="B220" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C220" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D220" t="s" s="5">
+      <c r="C220" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D220" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E220" t="s" s="5">
+      <c r="E220" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F220" t="s" s="5">
+      <c r="F220" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G220" t="s" s="5">
+      <c r="G220" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H220" t="s" s="5">
+      <c r="H220" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -6531,28 +6579,28 @@
       </c>
     </row>
     <row r="222">
-      <c r="B222" t="s" s="5">
+      <c r="B222" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C222" t="s" s="5">
+      <c r="C222" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D222" t="s" s="5">
+      <c r="D222" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E222" t="s" s="5">
+      <c r="E222" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F222" t="s" s="5">
+      <c r="F222" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G222" t="s" s="5">
+      <c r="G222" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H222" t="s" s="5">
+      <c r="H222" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I222" t="s" s="5">
+      <c r="I222" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -6640,10 +6688,10 @@
       <c r="I225">
         <f>((C225-C224)^2+(D225- D224)^2)^.5</f>
       </c>
-      <c r="J225" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K225" s="5" t="s">
+      <c r="J225" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K225" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L225" t="n">
@@ -6687,28 +6735,28 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" t="s" s="5">
+      <c r="A227" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B227" t="s" s="5">
+      <c r="B227" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C227" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D227" t="s" s="5">
+      <c r="C227" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D227" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E227" t="s" s="5">
+      <c r="E227" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F227" t="s" s="5">
+      <c r="F227" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G227" t="s" s="5">
+      <c r="G227" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H227" t="s" s="5">
+      <c r="H227" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -6733,28 +6781,28 @@
       </c>
     </row>
     <row r="229">
-      <c r="B229" t="s" s="5">
+      <c r="B229" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C229" t="s" s="5">
+      <c r="C229" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D229" t="s" s="5">
+      <c r="D229" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E229" t="s" s="5">
+      <c r="E229" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F229" t="s" s="5">
+      <c r="F229" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G229" t="s" s="5">
+      <c r="G229" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H229" t="s" s="5">
+      <c r="H229" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I229" t="s" s="5">
+      <c r="I229" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -6813,10 +6861,10 @@
       <c r="I231">
         <f>((C231-C230)^2+(D231- D230)^2)^.5</f>
       </c>
-      <c r="J231" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K231" s="5" t="s">
+      <c r="J231" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K231" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L231" t="n">
@@ -6860,28 +6908,28 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" t="s" s="5">
+      <c r="A233" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B233" t="s" s="5">
+      <c r="B233" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C233" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D233" t="s" s="5">
+      <c r="C233" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D233" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E233" t="s" s="5">
+      <c r="E233" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F233" t="s" s="5">
+      <c r="F233" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G233" t="s" s="5">
+      <c r="G233" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H233" t="s" s="5">
+      <c r="H233" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -6906,28 +6954,28 @@
       </c>
     </row>
     <row r="235">
-      <c r="B235" t="s" s="5">
+      <c r="B235" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C235" t="s" s="5">
+      <c r="C235" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D235" t="s" s="5">
+      <c r="D235" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E235" t="s" s="5">
+      <c r="E235" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F235" t="s" s="5">
+      <c r="F235" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G235" t="s" s="5">
+      <c r="G235" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H235" t="s" s="5">
+      <c r="H235" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I235" t="s" s="5">
+      <c r="I235" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -6986,10 +7034,10 @@
       <c r="I237">
         <f>((C237-C236)^2+(D237- D236)^2)^.5</f>
       </c>
-      <c r="J237" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K237" s="5" t="s">
+      <c r="J237" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K237" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L237" t="n">
@@ -7033,28 +7081,28 @@
       </c>
     </row>
     <row r="239">
-      <c r="A239" t="s" s="5">
+      <c r="A239" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B239" t="s" s="5">
+      <c r="B239" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C239" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D239" t="s" s="5">
+      <c r="C239" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D239" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E239" t="s" s="5">
+      <c r="E239" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F239" t="s" s="5">
+      <c r="F239" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G239" t="s" s="5">
+      <c r="G239" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H239" t="s" s="5">
+      <c r="H239" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -7079,28 +7127,28 @@
       </c>
     </row>
     <row r="241">
-      <c r="B241" t="s" s="5">
+      <c r="B241" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C241" t="s" s="5">
+      <c r="C241" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D241" t="s" s="5">
+      <c r="D241" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E241" t="s" s="5">
+      <c r="E241" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F241" t="s" s="5">
+      <c r="F241" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G241" t="s" s="5">
+      <c r="G241" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H241" t="s" s="5">
+      <c r="H241" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I241" t="s" s="5">
+      <c r="I241" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -7159,10 +7207,10 @@
       <c r="I243">
         <f>((C243-C242)^2+(D243- D242)^2)^.5</f>
       </c>
-      <c r="J243" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K243" s="5" t="s">
+      <c r="J243" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K243" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L243" t="n">
@@ -7206,28 +7254,28 @@
       </c>
     </row>
     <row r="245">
-      <c r="A245" t="s" s="5">
+      <c r="A245" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B245" t="s" s="5">
+      <c r="B245" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C245" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D245" t="s" s="5">
+      <c r="C245" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D245" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E245" t="s" s="5">
+      <c r="E245" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F245" t="s" s="5">
+      <c r="F245" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G245" t="s" s="5">
+      <c r="G245" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H245" t="s" s="5">
+      <c r="H245" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -7252,28 +7300,28 @@
       </c>
     </row>
     <row r="247">
-      <c r="B247" t="s" s="5">
+      <c r="B247" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C247" t="s" s="5">
+      <c r="C247" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D247" t="s" s="5">
+      <c r="D247" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E247" t="s" s="5">
+      <c r="E247" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F247" t="s" s="5">
+      <c r="F247" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G247" t="s" s="5">
+      <c r="G247" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H247" t="s" s="5">
+      <c r="H247" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I247" t="s" s="5">
+      <c r="I247" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -7332,10 +7380,10 @@
       <c r="I249">
         <f>((C249-C248)^2+(D249- D248)^2)^.5</f>
       </c>
-      <c r="J249" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K249" s="5" t="s">
+      <c r="J249" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K249" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L249" t="n">
@@ -7379,28 +7427,28 @@
       </c>
     </row>
     <row r="251">
-      <c r="A251" t="s" s="5">
+      <c r="A251" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B251" t="s" s="5">
+      <c r="B251" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C251" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D251" t="s" s="5">
+      <c r="C251" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D251" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E251" t="s" s="5">
+      <c r="E251" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F251" t="s" s="5">
+      <c r="F251" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G251" t="s" s="5">
+      <c r="G251" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H251" t="s" s="5">
+      <c r="H251" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -7425,28 +7473,28 @@
       </c>
     </row>
     <row r="253">
-      <c r="B253" t="s" s="5">
+      <c r="B253" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C253" t="s" s="5">
+      <c r="C253" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D253" t="s" s="5">
+      <c r="D253" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E253" t="s" s="5">
+      <c r="E253" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F253" t="s" s="5">
+      <c r="F253" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G253" t="s" s="5">
+      <c r="G253" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H253" t="s" s="5">
+      <c r="H253" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I253" t="s" s="5">
+      <c r="I253" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -7592,10 +7640,10 @@
       <c r="I258">
         <f>((C258-C257)^2+(D258- D257)^2)^.5</f>
       </c>
-      <c r="J258" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K258" s="5" t="s">
+      <c r="J258" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K258" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L258" t="n">
@@ -7639,28 +7687,28 @@
       </c>
     </row>
     <row r="260">
-      <c r="A260" t="s" s="5">
+      <c r="A260" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B260" t="s" s="5">
+      <c r="B260" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C260" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D260" t="s" s="5">
+      <c r="C260" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D260" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E260" t="s" s="5">
+      <c r="E260" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F260" t="s" s="5">
+      <c r="F260" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G260" t="s" s="5">
+      <c r="G260" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H260" t="s" s="5">
+      <c r="H260" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -7685,28 +7733,28 @@
       </c>
     </row>
     <row r="262">
-      <c r="B262" t="s" s="5">
+      <c r="B262" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C262" t="s" s="5">
+      <c r="C262" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D262" t="s" s="5">
+      <c r="D262" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E262" t="s" s="5">
+      <c r="E262" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F262" t="s" s="5">
+      <c r="F262" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G262" t="s" s="5">
+      <c r="G262" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H262" t="s" s="5">
+      <c r="H262" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I262" t="s" s="5">
+      <c r="I262" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -7794,10 +7842,10 @@
       <c r="I265">
         <f>((C265-C264)^2+(D265- D264)^2)^.5</f>
       </c>
-      <c r="J265" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K265" s="5" t="s">
+      <c r="J265" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K265" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L265" t="n">
@@ -7841,28 +7889,28 @@
       </c>
     </row>
     <row r="267">
-      <c r="A267" t="s" s="5">
+      <c r="A267" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B267" t="s" s="5">
+      <c r="B267" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C267" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D267" t="s" s="5">
+      <c r="C267" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D267" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E267" t="s" s="5">
+      <c r="E267" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F267" t="s" s="5">
+      <c r="F267" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G267" t="s" s="5">
+      <c r="G267" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H267" t="s" s="5">
+      <c r="H267" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -7887,28 +7935,28 @@
       </c>
     </row>
     <row r="269">
-      <c r="B269" t="s" s="5">
+      <c r="B269" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C269" t="s" s="5">
+      <c r="C269" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D269" t="s" s="5">
+      <c r="D269" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E269" t="s" s="5">
+      <c r="E269" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F269" t="s" s="5">
+      <c r="F269" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G269" t="s" s="5">
+      <c r="G269" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H269" t="s" s="5">
+      <c r="H269" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I269" t="s" s="5">
+      <c r="I269" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -7967,10 +8015,10 @@
       <c r="I271">
         <f>((C271-C270)^2+(D271- D270)^2)^.5</f>
       </c>
-      <c r="J271" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K271" s="5" t="s">
+      <c r="J271" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K271" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L271" t="n">
@@ -8014,28 +8062,28 @@
       </c>
     </row>
     <row r="273">
-      <c r="A273" t="s" s="5">
+      <c r="A273" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B273" t="s" s="5">
+      <c r="B273" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C273" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D273" t="s" s="5">
+      <c r="C273" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D273" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E273" t="s" s="5">
+      <c r="E273" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F273" t="s" s="5">
+      <c r="F273" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G273" t="s" s="5">
+      <c r="G273" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H273" t="s" s="5">
+      <c r="H273" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -8060,28 +8108,28 @@
       </c>
     </row>
     <row r="275">
-      <c r="B275" t="s" s="5">
+      <c r="B275" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C275" t="s" s="5">
+      <c r="C275" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D275" t="s" s="5">
+      <c r="D275" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E275" t="s" s="5">
+      <c r="E275" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F275" t="s" s="5">
+      <c r="F275" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G275" t="s" s="5">
+      <c r="G275" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H275" t="s" s="5">
+      <c r="H275" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I275" t="s" s="5">
+      <c r="I275" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -8169,10 +8217,10 @@
       <c r="I278">
         <f>((C278-C277)^2+(D278- D277)^2)^.5</f>
       </c>
-      <c r="J278" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K278" s="5" t="s">
+      <c r="J278" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K278" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L278" t="n">
@@ -8216,28 +8264,28 @@
       </c>
     </row>
     <row r="280">
-      <c r="A280" t="s" s="5">
+      <c r="A280" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B280" t="s" s="5">
+      <c r="B280" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C280" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D280" t="s" s="5">
+      <c r="C280" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D280" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E280" t="s" s="5">
+      <c r="E280" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F280" t="s" s="5">
+      <c r="F280" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G280" t="s" s="5">
+      <c r="G280" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H280" t="s" s="5">
+      <c r="H280" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -8262,28 +8310,28 @@
       </c>
     </row>
     <row r="282">
-      <c r="B282" t="s" s="5">
+      <c r="B282" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C282" t="s" s="5">
+      <c r="C282" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D282" t="s" s="5">
+      <c r="D282" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E282" t="s" s="5">
+      <c r="E282" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F282" t="s" s="5">
+      <c r="F282" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G282" t="s" s="5">
+      <c r="G282" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H282" t="s" s="5">
+      <c r="H282" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I282" t="s" s="5">
+      <c r="I282" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -8342,10 +8390,10 @@
       <c r="I284">
         <f>((C284-C283)^2+(D284- D283)^2)^.5</f>
       </c>
-      <c r="J284" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K284" s="5" t="s">
+      <c r="J284" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K284" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L284" t="n">
@@ -8389,28 +8437,28 @@
       </c>
     </row>
     <row r="286">
-      <c r="A286" t="s" s="5">
+      <c r="A286" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B286" t="s" s="5">
+      <c r="B286" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C286" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D286" t="s" s="5">
+      <c r="C286" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D286" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E286" t="s" s="5">
+      <c r="E286" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F286" t="s" s="5">
+      <c r="F286" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G286" t="s" s="5">
+      <c r="G286" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H286" t="s" s="5">
+      <c r="H286" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -8435,28 +8483,28 @@
       </c>
     </row>
     <row r="288">
-      <c r="B288" t="s" s="5">
+      <c r="B288" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C288" t="s" s="5">
+      <c r="C288" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D288" t="s" s="5">
+      <c r="D288" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E288" t="s" s="5">
+      <c r="E288" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F288" t="s" s="5">
+      <c r="F288" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G288" t="s" s="5">
+      <c r="G288" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H288" t="s" s="5">
+      <c r="H288" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I288" t="s" s="5">
+      <c r="I288" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -8515,10 +8563,10 @@
       <c r="I290">
         <f>((C290-C289)^2+(D290- D289)^2)^.5</f>
       </c>
-      <c r="J290" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K290" s="5" t="s">
+      <c r="J290" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K290" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L290" t="n">
@@ -8562,28 +8610,28 @@
       </c>
     </row>
     <row r="292">
-      <c r="A292" t="s" s="5">
+      <c r="A292" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B292" t="s" s="5">
+      <c r="B292" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C292" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D292" t="s" s="5">
+      <c r="C292" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D292" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E292" t="s" s="5">
+      <c r="E292" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F292" t="s" s="5">
+      <c r="F292" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G292" t="s" s="5">
+      <c r="G292" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H292" t="s" s="5">
+      <c r="H292" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -8608,28 +8656,28 @@
       </c>
     </row>
     <row r="294">
-      <c r="B294" t="s" s="5">
+      <c r="B294" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C294" t="s" s="5">
+      <c r="C294" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D294" t="s" s="5">
+      <c r="D294" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E294" t="s" s="5">
+      <c r="E294" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F294" t="s" s="5">
+      <c r="F294" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G294" t="s" s="5">
+      <c r="G294" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H294" t="s" s="5">
+      <c r="H294" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I294" t="s" s="5">
+      <c r="I294" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -8688,10 +8736,10 @@
       <c r="I296">
         <f>((C296-C295)^2+(D296- D295)^2)^.5</f>
       </c>
-      <c r="J296" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K296" s="5" t="s">
+      <c r="J296" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K296" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L296" t="n">
@@ -8735,28 +8783,28 @@
       </c>
     </row>
     <row r="298">
-      <c r="A298" t="s" s="5">
+      <c r="A298" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B298" t="s" s="5">
+      <c r="B298" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C298" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D298" t="s" s="5">
+      <c r="C298" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D298" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E298" t="s" s="5">
+      <c r="E298" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F298" t="s" s="5">
+      <c r="F298" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G298" t="s" s="5">
+      <c r="G298" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H298" t="s" s="5">
+      <c r="H298" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -8781,28 +8829,28 @@
       </c>
     </row>
     <row r="300">
-      <c r="B300" t="s" s="5">
+      <c r="B300" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C300" t="s" s="5">
+      <c r="C300" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D300" t="s" s="5">
+      <c r="D300" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E300" t="s" s="5">
+      <c r="E300" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F300" t="s" s="5">
+      <c r="F300" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G300" t="s" s="5">
+      <c r="G300" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H300" t="s" s="5">
+      <c r="H300" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I300" t="s" s="5">
+      <c r="I300" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -8861,10 +8909,10 @@
       <c r="I302">
         <f>((C302-C301)^2+(D302- D301)^2)^.5</f>
       </c>
-      <c r="J302" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K302" s="5" t="s">
+      <c r="J302" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K302" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L302" t="n">
@@ -8908,28 +8956,28 @@
       </c>
     </row>
     <row r="304">
-      <c r="A304" t="s" s="5">
+      <c r="A304" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B304" t="s" s="5">
+      <c r="B304" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C304" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D304" t="s" s="5">
+      <c r="C304" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D304" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E304" t="s" s="5">
+      <c r="E304" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F304" t="s" s="5">
+      <c r="F304" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G304" t="s" s="5">
+      <c r="G304" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H304" t="s" s="5">
+      <c r="H304" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -8954,28 +9002,28 @@
       </c>
     </row>
     <row r="306">
-      <c r="B306" t="s" s="5">
+      <c r="B306" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C306" t="s" s="5">
+      <c r="C306" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D306" t="s" s="5">
+      <c r="D306" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E306" t="s" s="5">
+      <c r="E306" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F306" t="s" s="5">
+      <c r="F306" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G306" t="s" s="5">
+      <c r="G306" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H306" t="s" s="5">
+      <c r="H306" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I306" t="s" s="5">
+      <c r="I306" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -9034,10 +9082,10 @@
       <c r="I308">
         <f>((C308-C307)^2+(D308- D307)^2)^.5</f>
       </c>
-      <c r="J308" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K308" s="5" t="s">
+      <c r="J308" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K308" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L308" t="n">
@@ -9081,28 +9129,28 @@
       </c>
     </row>
     <row r="310">
-      <c r="A310" t="s" s="5">
+      <c r="A310" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B310" t="s" s="5">
+      <c r="B310" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C310" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D310" t="s" s="5">
+      <c r="C310" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D310" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E310" t="s" s="5">
+      <c r="E310" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F310" t="s" s="5">
+      <c r="F310" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G310" t="s" s="5">
+      <c r="G310" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H310" t="s" s="5">
+      <c r="H310" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -9127,28 +9175,28 @@
       </c>
     </row>
     <row r="312">
-      <c r="B312" t="s" s="5">
+      <c r="B312" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C312" t="s" s="5">
+      <c r="C312" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D312" t="s" s="5">
+      <c r="D312" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E312" t="s" s="5">
+      <c r="E312" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F312" t="s" s="5">
+      <c r="F312" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G312" t="s" s="5">
+      <c r="G312" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H312" t="s" s="5">
+      <c r="H312" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I312" t="s" s="5">
+      <c r="I312" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -9236,10 +9284,10 @@
       <c r="I315">
         <f>((C315-C314)^2+(D315- D314)^2)^.5</f>
       </c>
-      <c r="J315" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K315" s="5" t="s">
+      <c r="J315" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K315" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L315" t="n">
@@ -9283,28 +9331,28 @@
       </c>
     </row>
     <row r="317">
-      <c r="A317" t="s" s="5">
+      <c r="A317" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B317" t="s" s="5">
+      <c r="B317" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C317" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D317" t="s" s="5">
+      <c r="C317" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D317" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E317" t="s" s="5">
+      <c r="E317" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F317" t="s" s="5">
+      <c r="F317" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G317" t="s" s="5">
+      <c r="G317" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H317" t="s" s="5">
+      <c r="H317" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -9329,28 +9377,28 @@
       </c>
     </row>
     <row r="319">
-      <c r="B319" t="s" s="5">
+      <c r="B319" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C319" t="s" s="5">
+      <c r="C319" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D319" t="s" s="5">
+      <c r="D319" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E319" t="s" s="5">
+      <c r="E319" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F319" t="s" s="5">
+      <c r="F319" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G319" t="s" s="5">
+      <c r="G319" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H319" t="s" s="5">
+      <c r="H319" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I319" t="s" s="5">
+      <c r="I319" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -9409,10 +9457,10 @@
       <c r="I321">
         <f>((C321-C320)^2+(D321- D320)^2)^.5</f>
       </c>
-      <c r="J321" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K321" s="5" t="s">
+      <c r="J321" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K321" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L321" t="n">
@@ -9456,28 +9504,28 @@
       </c>
     </row>
     <row r="323">
-      <c r="A323" t="s" s="5">
+      <c r="A323" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B323" t="s" s="5">
+      <c r="B323" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C323" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D323" t="s" s="5">
+      <c r="C323" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D323" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E323" t="s" s="5">
+      <c r="E323" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F323" t="s" s="5">
+      <c r="F323" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G323" t="s" s="5">
+      <c r="G323" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H323" t="s" s="5">
+      <c r="H323" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -9502,28 +9550,28 @@
       </c>
     </row>
     <row r="325">
-      <c r="B325" t="s" s="5">
+      <c r="B325" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C325" t="s" s="5">
+      <c r="C325" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D325" t="s" s="5">
+      <c r="D325" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E325" t="s" s="5">
+      <c r="E325" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F325" t="s" s="5">
+      <c r="F325" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G325" t="s" s="5">
+      <c r="G325" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H325" t="s" s="5">
+      <c r="H325" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I325" t="s" s="5">
+      <c r="I325" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -9582,10 +9630,10 @@
       <c r="I327">
         <f>((C327-C326)^2+(D327- D326)^2)^.5</f>
       </c>
-      <c r="J327" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K327" s="5" t="s">
+      <c r="J327" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K327" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L327" t="n">
@@ -9629,28 +9677,28 @@
       </c>
     </row>
     <row r="329">
-      <c r="A329" t="s" s="5">
+      <c r="A329" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B329" t="s" s="5">
+      <c r="B329" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C329" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D329" t="s" s="5">
+      <c r="C329" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D329" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E329" t="s" s="5">
+      <c r="E329" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F329" t="s" s="5">
+      <c r="F329" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G329" t="s" s="5">
+      <c r="G329" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H329" t="s" s="5">
+      <c r="H329" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -9675,28 +9723,28 @@
       </c>
     </row>
     <row r="331">
-      <c r="B331" t="s" s="5">
+      <c r="B331" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C331" t="s" s="5">
+      <c r="C331" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D331" t="s" s="5">
+      <c r="D331" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E331" t="s" s="5">
+      <c r="E331" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F331" t="s" s="5">
+      <c r="F331" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G331" t="s" s="5">
+      <c r="G331" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H331" t="s" s="5">
+      <c r="H331" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I331" t="s" s="5">
+      <c r="I331" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -9755,10 +9803,10 @@
       <c r="I333">
         <f>((C333-C332)^2+(D333- D332)^2)^.5</f>
       </c>
-      <c r="J333" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K333" s="5" t="s">
+      <c r="J333" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K333" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L333" t="n">
@@ -9802,28 +9850,28 @@
       </c>
     </row>
     <row r="335">
-      <c r="A335" t="s" s="5">
+      <c r="A335" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B335" t="s" s="5">
+      <c r="B335" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C335" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D335" t="s" s="5">
+      <c r="C335" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D335" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E335" t="s" s="5">
+      <c r="E335" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F335" t="s" s="5">
+      <c r="F335" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G335" t="s" s="5">
+      <c r="G335" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H335" t="s" s="5">
+      <c r="H335" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -9848,28 +9896,28 @@
       </c>
     </row>
     <row r="337">
-      <c r="B337" t="s" s="5">
+      <c r="B337" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C337" t="s" s="5">
+      <c r="C337" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D337" t="s" s="5">
+      <c r="D337" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E337" t="s" s="5">
+      <c r="E337" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F337" t="s" s="5">
+      <c r="F337" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G337" t="s" s="5">
+      <c r="G337" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H337" t="s" s="5">
+      <c r="H337" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I337" t="s" s="5">
+      <c r="I337" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -9928,10 +9976,10 @@
       <c r="I339">
         <f>((C339-C338)^2+(D339- D338)^2)^.5</f>
       </c>
-      <c r="J339" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K339" s="5" t="s">
+      <c r="J339" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K339" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L339" t="n">
@@ -9975,28 +10023,28 @@
       </c>
     </row>
     <row r="341">
-      <c r="A341" t="s" s="5">
+      <c r="A341" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B341" t="s" s="5">
+      <c r="B341" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C341" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D341" t="s" s="5">
+      <c r="C341" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D341" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E341" t="s" s="5">
+      <c r="E341" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F341" t="s" s="5">
+      <c r="F341" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G341" t="s" s="5">
+      <c r="G341" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H341" t="s" s="5">
+      <c r="H341" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -10021,28 +10069,28 @@
       </c>
     </row>
     <row r="343">
-      <c r="B343" t="s" s="5">
+      <c r="B343" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C343" t="s" s="5">
+      <c r="C343" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D343" t="s" s="5">
+      <c r="D343" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E343" t="s" s="5">
+      <c r="E343" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F343" t="s" s="5">
+      <c r="F343" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G343" t="s" s="5">
+      <c r="G343" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H343" t="s" s="5">
+      <c r="H343" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I343" t="s" s="5">
+      <c r="I343" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -10101,10 +10149,10 @@
       <c r="I345">
         <f>((C345-C344)^2+(D345- D344)^2)^.5</f>
       </c>
-      <c r="J345" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K345" s="5" t="s">
+      <c r="J345" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K345" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L345" t="n">
@@ -10148,28 +10196,28 @@
       </c>
     </row>
     <row r="347">
-      <c r="A347" t="s" s="5">
+      <c r="A347" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B347" t="s" s="5">
+      <c r="B347" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C347" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D347" t="s" s="5">
+      <c r="C347" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D347" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E347" t="s" s="5">
+      <c r="E347" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F347" t="s" s="5">
+      <c r="F347" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G347" t="s" s="5">
+      <c r="G347" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H347" t="s" s="5">
+      <c r="H347" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -10194,28 +10242,28 @@
       </c>
     </row>
     <row r="349">
-      <c r="B349" t="s" s="5">
+      <c r="B349" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C349" t="s" s="5">
+      <c r="C349" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D349" t="s" s="5">
+      <c r="D349" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E349" t="s" s="5">
+      <c r="E349" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F349" t="s" s="5">
+      <c r="F349" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G349" t="s" s="5">
+      <c r="G349" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H349" t="s" s="5">
+      <c r="H349" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I349" t="s" s="5">
+      <c r="I349" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -10303,10 +10351,10 @@
       <c r="I352">
         <f>((C352-C351)^2+(D352- D351)^2)^.5</f>
       </c>
-      <c r="J352" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K352" s="5" t="s">
+      <c r="J352" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K352" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L352" t="n">
@@ -10350,28 +10398,28 @@
       </c>
     </row>
     <row r="354">
-      <c r="A354" t="s" s="5">
+      <c r="A354" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B354" t="s" s="5">
+      <c r="B354" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C354" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D354" t="s" s="5">
+      <c r="C354" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D354" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E354" t="s" s="5">
+      <c r="E354" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F354" t="s" s="5">
+      <c r="F354" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G354" t="s" s="5">
+      <c r="G354" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H354" t="s" s="5">
+      <c r="H354" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -10396,28 +10444,28 @@
       </c>
     </row>
     <row r="356">
-      <c r="B356" t="s" s="5">
+      <c r="B356" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C356" t="s" s="5">
+      <c r="C356" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D356" t="s" s="5">
+      <c r="D356" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E356" t="s" s="5">
+      <c r="E356" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F356" t="s" s="5">
+      <c r="F356" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G356" t="s" s="5">
+      <c r="G356" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H356" t="s" s="5">
+      <c r="H356" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I356" t="s" s="5">
+      <c r="I356" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -10476,10 +10524,10 @@
       <c r="I358">
         <f>((C358-C357)^2+(D358- D357)^2)^.5</f>
       </c>
-      <c r="J358" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K358" s="5" t="s">
+      <c r="J358" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K358" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L358" t="n">
@@ -10523,28 +10571,28 @@
       </c>
     </row>
     <row r="360">
-      <c r="A360" t="s" s="5">
+      <c r="A360" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B360" t="s" s="5">
+      <c r="B360" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C360" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D360" t="s" s="5">
+      <c r="C360" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D360" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E360" t="s" s="5">
+      <c r="E360" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F360" t="s" s="5">
+      <c r="F360" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G360" t="s" s="5">
+      <c r="G360" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H360" t="s" s="5">
+      <c r="H360" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -10569,28 +10617,28 @@
       </c>
     </row>
     <row r="362">
-      <c r="B362" t="s" s="5">
+      <c r="B362" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C362" t="s" s="5">
+      <c r="C362" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D362" t="s" s="5">
+      <c r="D362" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E362" t="s" s="5">
+      <c r="E362" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F362" t="s" s="5">
+      <c r="F362" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G362" t="s" s="5">
+      <c r="G362" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H362" t="s" s="5">
+      <c r="H362" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I362" t="s" s="5">
+      <c r="I362" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -10707,10 +10755,10 @@
       <c r="I366">
         <f>((C366-C365)^2+(D366- D365)^2)^.5</f>
       </c>
-      <c r="J366" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K366" s="5" t="s">
+      <c r="J366" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K366" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L366" t="n">
@@ -10754,28 +10802,28 @@
       </c>
     </row>
     <row r="368">
-      <c r="A368" t="s" s="5">
+      <c r="A368" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B368" t="s" s="5">
+      <c r="B368" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C368" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D368" t="s" s="5">
+      <c r="C368" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D368" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E368" t="s" s="5">
+      <c r="E368" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F368" t="s" s="5">
+      <c r="F368" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G368" t="s" s="5">
+      <c r="G368" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H368" t="s" s="5">
+      <c r="H368" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -10800,28 +10848,28 @@
       </c>
     </row>
     <row r="370">
-      <c r="B370" t="s" s="5">
+      <c r="B370" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C370" t="s" s="5">
+      <c r="C370" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D370" t="s" s="5">
+      <c r="D370" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E370" t="s" s="5">
+      <c r="E370" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F370" t="s" s="5">
+      <c r="F370" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G370" t="s" s="5">
+      <c r="G370" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H370" t="s" s="5">
+      <c r="H370" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I370" t="s" s="5">
+      <c r="I370" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -10880,10 +10928,10 @@
       <c r="I372">
         <f>((C372-C371)^2+(D372- D371)^2)^.5</f>
       </c>
-      <c r="J372" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K372" s="5" t="s">
+      <c r="J372" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K372" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L372" t="n">
@@ -10927,28 +10975,28 @@
       </c>
     </row>
     <row r="374">
-      <c r="A374" t="s" s="5">
+      <c r="A374" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B374" t="s" s="5">
+      <c r="B374" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C374" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D374" t="s" s="5">
+      <c r="C374" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D374" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E374" t="s" s="5">
+      <c r="E374" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F374" t="s" s="5">
+      <c r="F374" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G374" t="s" s="5">
+      <c r="G374" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H374" t="s" s="5">
+      <c r="H374" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -10973,28 +11021,28 @@
       </c>
     </row>
     <row r="376">
-      <c r="B376" t="s" s="5">
+      <c r="B376" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C376" t="s" s="5">
+      <c r="C376" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D376" t="s" s="5">
+      <c r="D376" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E376" t="s" s="5">
+      <c r="E376" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F376" t="s" s="5">
+      <c r="F376" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G376" t="s" s="5">
+      <c r="G376" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H376" t="s" s="5">
+      <c r="H376" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I376" t="s" s="5">
+      <c r="I376" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -11053,10 +11101,10 @@
       <c r="I378">
         <f>((C378-C377)^2+(D378- D377)^2)^.5</f>
       </c>
-      <c r="J378" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K378" s="5" t="s">
+      <c r="J378" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K378" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L378" t="n">
@@ -11100,28 +11148,28 @@
       </c>
     </row>
     <row r="380">
-      <c r="A380" t="s" s="5">
+      <c r="A380" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B380" t="s" s="5">
+      <c r="B380" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C380" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D380" t="s" s="5">
+      <c r="C380" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D380" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E380" t="s" s="5">
+      <c r="E380" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F380" t="s" s="5">
+      <c r="F380" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G380" t="s" s="5">
+      <c r="G380" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H380" t="s" s="5">
+      <c r="H380" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -11146,28 +11194,28 @@
       </c>
     </row>
     <row r="382">
-      <c r="B382" t="s" s="5">
+      <c r="B382" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C382" t="s" s="5">
+      <c r="C382" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D382" t="s" s="5">
+      <c r="D382" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E382" t="s" s="5">
+      <c r="E382" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F382" t="s" s="5">
+      <c r="F382" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G382" t="s" s="5">
+      <c r="G382" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H382" t="s" s="5">
+      <c r="H382" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I382" t="s" s="5">
+      <c r="I382" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -11226,10 +11274,10 @@
       <c r="I384">
         <f>((C384-C383)^2+(D384- D383)^2)^.5</f>
       </c>
-      <c r="J384" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K384" s="5" t="s">
+      <c r="J384" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K384" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L384" t="n">
@@ -11273,28 +11321,28 @@
       </c>
     </row>
     <row r="386">
-      <c r="A386" t="s" s="5">
+      <c r="A386" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B386" t="s" s="5">
+      <c r="B386" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C386" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D386" t="s" s="5">
+      <c r="C386" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D386" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E386" t="s" s="5">
+      <c r="E386" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F386" t="s" s="5">
+      <c r="F386" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G386" t="s" s="5">
+      <c r="G386" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H386" t="s" s="5">
+      <c r="H386" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -11319,28 +11367,28 @@
       </c>
     </row>
     <row r="388">
-      <c r="B388" t="s" s="5">
+      <c r="B388" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C388" t="s" s="5">
+      <c r="C388" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D388" t="s" s="5">
+      <c r="D388" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E388" t="s" s="5">
+      <c r="E388" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F388" t="s" s="5">
+      <c r="F388" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G388" t="s" s="5">
+      <c r="G388" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H388" t="s" s="5">
+      <c r="H388" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I388" t="s" s="5">
+      <c r="I388" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -11399,10 +11447,10 @@
       <c r="I390">
         <f>((C390-C389)^2+(D390- D389)^2)^.5</f>
       </c>
-      <c r="J390" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K390" s="5" t="s">
+      <c r="J390" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K390" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L390" t="n">
@@ -11446,28 +11494,28 @@
       </c>
     </row>
     <row r="392">
-      <c r="A392" t="s" s="5">
+      <c r="A392" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B392" t="s" s="5">
+      <c r="B392" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C392" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D392" t="s" s="5">
+      <c r="C392" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D392" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E392" t="s" s="5">
+      <c r="E392" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F392" t="s" s="5">
+      <c r="F392" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G392" t="s" s="5">
+      <c r="G392" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H392" t="s" s="5">
+      <c r="H392" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -11492,28 +11540,28 @@
       </c>
     </row>
     <row r="394">
-      <c r="B394" t="s" s="5">
+      <c r="B394" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C394" t="s" s="5">
+      <c r="C394" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D394" t="s" s="5">
+      <c r="D394" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E394" t="s" s="5">
+      <c r="E394" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F394" t="s" s="5">
+      <c r="F394" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G394" t="s" s="5">
+      <c r="G394" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H394" t="s" s="5">
+      <c r="H394" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I394" t="s" s="5">
+      <c r="I394" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -11572,10 +11620,10 @@
       <c r="I396">
         <f>((C396-C395)^2+(D396- D395)^2)^.5</f>
       </c>
-      <c r="J396" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K396" s="5" t="s">
+      <c r="J396" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K396" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L396" t="n">
@@ -11619,28 +11667,28 @@
       </c>
     </row>
     <row r="398">
-      <c r="A398" t="s" s="5">
+      <c r="A398" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B398" t="s" s="5">
+      <c r="B398" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C398" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D398" t="s" s="5">
+      <c r="C398" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D398" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E398" t="s" s="5">
+      <c r="E398" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F398" t="s" s="5">
+      <c r="F398" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G398" t="s" s="5">
+      <c r="G398" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H398" t="s" s="5">
+      <c r="H398" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -11665,28 +11713,28 @@
       </c>
     </row>
     <row r="400">
-      <c r="B400" t="s" s="5">
+      <c r="B400" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C400" t="s" s="5">
+      <c r="C400" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D400" t="s" s="5">
+      <c r="D400" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E400" t="s" s="5">
+      <c r="E400" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F400" t="s" s="5">
+      <c r="F400" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G400" t="s" s="5">
+      <c r="G400" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H400" t="s" s="5">
+      <c r="H400" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I400" t="s" s="5">
+      <c r="I400" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -11745,10 +11793,10 @@
       <c r="I402">
         <f>((C402-C401)^2+(D402- D401)^2)^.5</f>
       </c>
-      <c r="J402" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K402" s="5" t="s">
+      <c r="J402" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K402" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L402" t="n">
@@ -11792,28 +11840,28 @@
       </c>
     </row>
     <row r="404">
-      <c r="A404" t="s" s="5">
+      <c r="A404" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B404" t="s" s="5">
+      <c r="B404" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C404" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D404" t="s" s="5">
+      <c r="C404" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D404" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E404" t="s" s="5">
+      <c r="E404" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F404" t="s" s="5">
+      <c r="F404" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G404" t="s" s="5">
+      <c r="G404" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H404" t="s" s="5">
+      <c r="H404" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -11838,28 +11886,28 @@
       </c>
     </row>
     <row r="406">
-      <c r="B406" t="s" s="5">
+      <c r="B406" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C406" t="s" s="5">
+      <c r="C406" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D406" t="s" s="5">
+      <c r="D406" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E406" t="s" s="5">
+      <c r="E406" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F406" t="s" s="5">
+      <c r="F406" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G406" t="s" s="5">
+      <c r="G406" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H406" t="s" s="5">
+      <c r="H406" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I406" t="s" s="5">
+      <c r="I406" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -11918,10 +11966,10 @@
       <c r="I408">
         <f>((C408-C407)^2+(D408- D407)^2)^.5</f>
       </c>
-      <c r="J408" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K408" s="5" t="s">
+      <c r="J408" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K408" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L408" t="n">
@@ -11965,28 +12013,28 @@
       </c>
     </row>
     <row r="410">
-      <c r="A410" t="s" s="5">
+      <c r="A410" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B410" t="s" s="5">
+      <c r="B410" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C410" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D410" t="s" s="5">
+      <c r="C410" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D410" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E410" t="s" s="5">
+      <c r="E410" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F410" t="s" s="5">
+      <c r="F410" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G410" t="s" s="5">
+      <c r="G410" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H410" t="s" s="5">
+      <c r="H410" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -12011,28 +12059,28 @@
       </c>
     </row>
     <row r="412">
-      <c r="B412" t="s" s="5">
+      <c r="B412" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C412" t="s" s="5">
+      <c r="C412" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D412" t="s" s="5">
+      <c r="D412" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E412" t="s" s="5">
+      <c r="E412" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F412" t="s" s="5">
+      <c r="F412" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G412" t="s" s="5">
+      <c r="G412" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H412" t="s" s="5">
+      <c r="H412" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I412" t="s" s="5">
+      <c r="I412" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -12120,10 +12168,10 @@
       <c r="I415">
         <f>((C415-C414)^2+(D415- D414)^2)^.5</f>
       </c>
-      <c r="J415" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K415" s="5" t="s">
+      <c r="J415" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K415" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L415" t="n">
@@ -12167,28 +12215,28 @@
       </c>
     </row>
     <row r="417">
-      <c r="A417" t="s" s="5">
+      <c r="A417" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B417" t="s" s="5">
+      <c r="B417" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C417" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D417" t="s" s="5">
+      <c r="C417" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D417" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E417" t="s" s="5">
+      <c r="E417" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F417" t="s" s="5">
+      <c r="F417" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G417" t="s" s="5">
+      <c r="G417" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H417" t="s" s="5">
+      <c r="H417" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -12213,28 +12261,28 @@
       </c>
     </row>
     <row r="419">
-      <c r="B419" t="s" s="5">
+      <c r="B419" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C419" t="s" s="5">
+      <c r="C419" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D419" t="s" s="5">
+      <c r="D419" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E419" t="s" s="5">
+      <c r="E419" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F419" t="s" s="5">
+      <c r="F419" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G419" t="s" s="5">
+      <c r="G419" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H419" t="s" s="5">
+      <c r="H419" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I419" t="s" s="5">
+      <c r="I419" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -12293,10 +12341,10 @@
       <c r="I421">
         <f>((C421-C420)^2+(D421- D420)^2)^.5</f>
       </c>
-      <c r="J421" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K421" s="5" t="s">
+      <c r="J421" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K421" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L421" t="n">

--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c101_I2_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c101_I2_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15184" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18688" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,28 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="14">
+  <fonts count="17">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -188,7 +203,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -203,6 +218,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -225,26 +243,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="13" customFormat="true">
-      <c r="A1" t="s" s="13">
+    <row r="1" s="16" customFormat="true">
+      <c r="A1" t="s" s="16">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="13">
+      <c r="B1" t="s" s="16">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="13">
+      <c r="C1" t="s" s="16">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="13">
+      <c r="D1" t="s" s="16">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="13">
+      <c r="E1" t="s" s="16">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="13">
+      <c r="F1" t="s" s="16">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="13">
+      <c r="G1" t="s" s="16">
         <v>7</v>
       </c>
     </row>
@@ -272,28 +290,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="13">
+      <c r="A3" t="s" s="16">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="13">
+      <c r="B3" t="s" s="16">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="13">
+      <c r="C3" t="s" s="16">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="16">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="13">
+      <c r="E3" t="s" s="16">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="13">
+      <c r="F3" t="s" s="16">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="13">
+      <c r="G3" t="s" s="16">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="13">
+      <c r="H3" t="s" s="16">
         <v>16</v>
       </c>
     </row>
@@ -318,28 +336,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="13">
+      <c r="B5" t="s" s="16">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="13">
+      <c r="C5" t="s" s="16">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="13">
+      <c r="D5" t="s" s="16">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="13">
+      <c r="E5" t="s" s="16">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="13">
+      <c r="F5" t="s" s="16">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="13">
+      <c r="G5" t="s" s="16">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="13">
+      <c r="H5" t="s" s="16">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="13">
+      <c r="I5" t="s" s="16">
         <v>11</v>
       </c>
     </row>
@@ -398,10 +416,10 @@
       <c r="I7">
         <f>((C7-C6)^2+(D7- D6)^2)^.5</f>
       </c>
-      <c r="J7" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="13" t="s">
+      <c r="J7" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="16" t="s">
         <v>24</v>
       </c>
       <c r="L7" t="n">
@@ -445,28 +463,28 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="13">
+      <c r="A9" t="s" s="16">
         <v>9</v>
       </c>
-      <c r="B9" t="s" s="13">
+      <c r="B9" t="s" s="16">
         <v>10</v>
       </c>
-      <c r="C9" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s" s="13">
+      <c r="C9" t="s" s="16">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s" s="16">
         <v>12</v>
       </c>
-      <c r="E9" t="s" s="13">
+      <c r="E9" t="s" s="16">
         <v>13</v>
       </c>
-      <c r="F9" t="s" s="13">
+      <c r="F9" t="s" s="16">
         <v>14</v>
       </c>
-      <c r="G9" t="s" s="13">
+      <c r="G9" t="s" s="16">
         <v>15</v>
       </c>
-      <c r="H9" t="s" s="13">
+      <c r="H9" t="s" s="16">
         <v>16</v>
       </c>
     </row>
@@ -491,28 +509,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="B11" t="s" s="13">
+      <c r="B11" t="s" s="16">
         <v>17</v>
       </c>
-      <c r="C11" t="s" s="13">
+      <c r="C11" t="s" s="16">
         <v>18</v>
       </c>
-      <c r="D11" t="s" s="13">
+      <c r="D11" t="s" s="16">
         <v>19</v>
       </c>
-      <c r="E11" t="s" s="13">
+      <c r="E11" t="s" s="16">
         <v>20</v>
       </c>
-      <c r="F11" t="s" s="13">
+      <c r="F11" t="s" s="16">
         <v>21</v>
       </c>
-      <c r="G11" t="s" s="13">
+      <c r="G11" t="s" s="16">
         <v>22</v>
       </c>
-      <c r="H11" t="s" s="13">
+      <c r="H11" t="s" s="16">
         <v>23</v>
       </c>
-      <c r="I11" t="s" s="13">
+      <c r="I11" t="s" s="16">
         <v>11</v>
       </c>
     </row>
@@ -687,10 +705,10 @@
       <c r="I17">
         <f>((C17-C16)^2+(D17- D16)^2)^.5</f>
       </c>
-      <c r="J17" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K17" s="13" t="s">
+      <c r="J17" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K17" s="16" t="s">
         <v>24</v>
       </c>
       <c r="L17" t="n">
@@ -734,28 +752,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s" s="13">
+      <c r="A19" t="s" s="16">
         <v>9</v>
       </c>
-      <c r="B19" t="s" s="13">
+      <c r="B19" t="s" s="16">
         <v>10</v>
       </c>
-      <c r="C19" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D19" t="s" s="13">
+      <c r="C19" t="s" s="16">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s" s="16">
         <v>12</v>
       </c>
-      <c r="E19" t="s" s="13">
+      <c r="E19" t="s" s="16">
         <v>13</v>
       </c>
-      <c r="F19" t="s" s="13">
+      <c r="F19" t="s" s="16">
         <v>14</v>
       </c>
-      <c r="G19" t="s" s="13">
+      <c r="G19" t="s" s="16">
         <v>15</v>
       </c>
-      <c r="H19" t="s" s="13">
+      <c r="H19" t="s" s="16">
         <v>16</v>
       </c>
     </row>
@@ -780,28 +798,28 @@
       </c>
     </row>
     <row r="21">
-      <c r="B21" t="s" s="13">
+      <c r="B21" t="s" s="16">
         <v>17</v>
       </c>
-      <c r="C21" t="s" s="13">
+      <c r="C21" t="s" s="16">
         <v>18</v>
       </c>
-      <c r="D21" t="s" s="13">
+      <c r="D21" t="s" s="16">
         <v>19</v>
       </c>
-      <c r="E21" t="s" s="13">
+      <c r="E21" t="s" s="16">
         <v>20</v>
       </c>
-      <c r="F21" t="s" s="13">
+      <c r="F21" t="s" s="16">
         <v>21</v>
       </c>
-      <c r="G21" t="s" s="13">
+      <c r="G21" t="s" s="16">
         <v>22</v>
       </c>
-      <c r="H21" t="s" s="13">
+      <c r="H21" t="s" s="16">
         <v>23</v>
       </c>
-      <c r="I21" t="s" s="13">
+      <c r="I21" t="s" s="16">
         <v>11</v>
       </c>
     </row>
@@ -860,10 +878,10 @@
       <c r="I23">
         <f>((C23-C22)^2+(D23- D22)^2)^.5</f>
       </c>
-      <c r="J23" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K23" s="13" t="s">
+      <c r="J23" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K23" s="16" t="s">
         <v>24</v>
       </c>
       <c r="L23" t="n">
@@ -907,28 +925,28 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="13">
+      <c r="A25" t="s" s="16">
         <v>9</v>
       </c>
-      <c r="B25" t="s" s="13">
+      <c r="B25" t="s" s="16">
         <v>10</v>
       </c>
-      <c r="C25" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D25" t="s" s="13">
+      <c r="C25" t="s" s="16">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s" s="16">
         <v>12</v>
       </c>
-      <c r="E25" t="s" s="13">
+      <c r="E25" t="s" s="16">
         <v>13</v>
       </c>
-      <c r="F25" t="s" s="13">
+      <c r="F25" t="s" s="16">
         <v>14</v>
       </c>
-      <c r="G25" t="s" s="13">
+      <c r="G25" t="s" s="16">
         <v>15</v>
       </c>
-      <c r="H25" t="s" s="13">
+      <c r="H25" t="s" s="16">
         <v>16</v>
       </c>
     </row>
@@ -953,28 +971,28 @@
       </c>
     </row>
     <row r="27">
-      <c r="B27" t="s" s="13">
+      <c r="B27" t="s" s="16">
         <v>17</v>
       </c>
-      <c r="C27" t="s" s="13">
+      <c r="C27" t="s" s="16">
         <v>18</v>
       </c>
-      <c r="D27" t="s" s="13">
+      <c r="D27" t="s" s="16">
         <v>19</v>
       </c>
-      <c r="E27" t="s" s="13">
+      <c r="E27" t="s" s="16">
         <v>20</v>
       </c>
-      <c r="F27" t="s" s="13">
+      <c r="F27" t="s" s="16">
         <v>21</v>
       </c>
-      <c r="G27" t="s" s="13">
+      <c r="G27" t="s" s="16">
         <v>22</v>
       </c>
-      <c r="H27" t="s" s="13">
+      <c r="H27" t="s" s="16">
         <v>23</v>
       </c>
-      <c r="I27" t="s" s="13">
+      <c r="I27" t="s" s="16">
         <v>11</v>
       </c>
     </row>
@@ -1062,10 +1080,10 @@
       <c r="I30">
         <f>((C30-C29)^2+(D30- D29)^2)^.5</f>
       </c>
-      <c r="J30" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K30" s="13" t="s">
+      <c r="J30" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K30" s="16" t="s">
         <v>24</v>
       </c>
       <c r="L30" t="n">
@@ -1109,28 +1127,28 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s" s="13">
+      <c r="A32" t="s" s="16">
         <v>9</v>
       </c>
-      <c r="B32" t="s" s="13">
+      <c r="B32" t="s" s="16">
         <v>10</v>
       </c>
-      <c r="C32" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D32" t="s" s="13">
+      <c r="C32" t="s" s="16">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s" s="16">
         <v>12</v>
       </c>
-      <c r="E32" t="s" s="13">
+      <c r="E32" t="s" s="16">
         <v>13</v>
       </c>
-      <c r="F32" t="s" s="13">
+      <c r="F32" t="s" s="16">
         <v>14</v>
       </c>
-      <c r="G32" t="s" s="13">
+      <c r="G32" t="s" s="16">
         <v>15</v>
       </c>
-      <c r="H32" t="s" s="13">
+      <c r="H32" t="s" s="16">
         <v>16</v>
       </c>
     </row>
@@ -1155,28 +1173,28 @@
       </c>
     </row>
     <row r="34">
-      <c r="B34" t="s" s="13">
+      <c r="B34" t="s" s="16">
         <v>17</v>
       </c>
-      <c r="C34" t="s" s="13">
+      <c r="C34" t="s" s="16">
         <v>18</v>
       </c>
-      <c r="D34" t="s" s="13">
+      <c r="D34" t="s" s="16">
         <v>19</v>
       </c>
-      <c r="E34" t="s" s="13">
+      <c r="E34" t="s" s="16">
         <v>20</v>
       </c>
-      <c r="F34" t="s" s="13">
+      <c r="F34" t="s" s="16">
         <v>21</v>
       </c>
-      <c r="G34" t="s" s="13">
+      <c r="G34" t="s" s="16">
         <v>22</v>
       </c>
-      <c r="H34" t="s" s="13">
+      <c r="H34" t="s" s="16">
         <v>23</v>
       </c>
-      <c r="I34" t="s" s="13">
+      <c r="I34" t="s" s="16">
         <v>11</v>
       </c>
     </row>
@@ -1264,10 +1282,10 @@
       <c r="I37">
         <f>((C37-C36)^2+(D37- D36)^2)^.5</f>
       </c>
-      <c r="J37" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K37" s="13" t="s">
+      <c r="J37" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K37" s="16" t="s">
         <v>24</v>
       </c>
       <c r="L37" t="n">
@@ -1311,28 +1329,28 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="s" s="13">
+      <c r="A39" t="s" s="16">
         <v>9</v>
       </c>
-      <c r="B39" t="s" s="13">
+      <c r="B39" t="s" s="16">
         <v>10</v>
       </c>
-      <c r="C39" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D39" t="s" s="13">
+      <c r="C39" t="s" s="16">
+        <v>11</v>
+      </c>
+      <c r="D39" t="s" s="16">
         <v>12</v>
       </c>
-      <c r="E39" t="s" s="13">
+      <c r="E39" t="s" s="16">
         <v>13</v>
       </c>
-      <c r="F39" t="s" s="13">
+      <c r="F39" t="s" s="16">
         <v>14</v>
       </c>
-      <c r="G39" t="s" s="13">
+      <c r="G39" t="s" s="16">
         <v>15</v>
       </c>
-      <c r="H39" t="s" s="13">
+      <c r="H39" t="s" s="16">
         <v>16</v>
       </c>
     </row>
@@ -1357,28 +1375,28 @@
       </c>
     </row>
     <row r="41">
-      <c r="B41" t="s" s="13">
+      <c r="B41" t="s" s="16">
         <v>17</v>
       </c>
-      <c r="C41" t="s" s="13">
+      <c r="C41" t="s" s="16">
         <v>18</v>
       </c>
-      <c r="D41" t="s" s="13">
+      <c r="D41" t="s" s="16">
         <v>19</v>
       </c>
-      <c r="E41" t="s" s="13">
+      <c r="E41" t="s" s="16">
         <v>20</v>
       </c>
-      <c r="F41" t="s" s="13">
+      <c r="F41" t="s" s="16">
         <v>21</v>
       </c>
-      <c r="G41" t="s" s="13">
+      <c r="G41" t="s" s="16">
         <v>22</v>
       </c>
-      <c r="H41" t="s" s="13">
+      <c r="H41" t="s" s="16">
         <v>23</v>
       </c>
-      <c r="I41" t="s" s="13">
+      <c r="I41" t="s" s="16">
         <v>11</v>
       </c>
     </row>
@@ -1466,10 +1484,10 @@
       <c r="I44">
         <f>((C44-C43)^2+(D44- D43)^2)^.5</f>
       </c>
-      <c r="J44" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K44" s="13" t="s">
+      <c r="J44" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K44" s="16" t="s">
         <v>24</v>
       </c>
       <c r="L44" t="n">
@@ -1513,28 +1531,28 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="s" s="13">
+      <c r="A46" t="s" s="16">
         <v>9</v>
       </c>
-      <c r="B46" t="s" s="13">
+      <c r="B46" t="s" s="16">
         <v>10</v>
       </c>
-      <c r="C46" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D46" t="s" s="13">
+      <c r="C46" t="s" s="16">
+        <v>11</v>
+      </c>
+      <c r="D46" t="s" s="16">
         <v>12</v>
       </c>
-      <c r="E46" t="s" s="13">
+      <c r="E46" t="s" s="16">
         <v>13</v>
       </c>
-      <c r="F46" t="s" s="13">
+      <c r="F46" t="s" s="16">
         <v>14</v>
       </c>
-      <c r="G46" t="s" s="13">
+      <c r="G46" t="s" s="16">
         <v>15</v>
       </c>
-      <c r="H46" t="s" s="13">
+      <c r="H46" t="s" s="16">
         <v>16</v>
       </c>
     </row>
@@ -1559,28 +1577,28 @@
       </c>
     </row>
     <row r="48">
-      <c r="B48" t="s" s="13">
+      <c r="B48" t="s" s="16">
         <v>17</v>
       </c>
-      <c r="C48" t="s" s="13">
+      <c r="C48" t="s" s="16">
         <v>18</v>
       </c>
-      <c r="D48" t="s" s="13">
+      <c r="D48" t="s" s="16">
         <v>19</v>
       </c>
-      <c r="E48" t="s" s="13">
+      <c r="E48" t="s" s="16">
         <v>20</v>
       </c>
-      <c r="F48" t="s" s="13">
+      <c r="F48" t="s" s="16">
         <v>21</v>
       </c>
-      <c r="G48" t="s" s="13">
+      <c r="G48" t="s" s="16">
         <v>22</v>
       </c>
-      <c r="H48" t="s" s="13">
+      <c r="H48" t="s" s="16">
         <v>23</v>
       </c>
-      <c r="I48" t="s" s="13">
+      <c r="I48" t="s" s="16">
         <v>11</v>
       </c>
     </row>
@@ -1668,10 +1686,10 @@
       <c r="I51">
         <f>((C51-C50)^2+(D51- D50)^2)^.5</f>
       </c>
-      <c r="J51" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K51" s="13" t="s">
+      <c r="J51" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K51" s="16" t="s">
         <v>24</v>
       </c>
       <c r="L51" t="n">
@@ -1715,28 +1733,28 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="s" s="13">
+      <c r="A53" t="s" s="16">
         <v>9</v>
       </c>
-      <c r="B53" t="s" s="13">
+      <c r="B53" t="s" s="16">
         <v>10</v>
       </c>
-      <c r="C53" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D53" t="s" s="13">
+      <c r="C53" t="s" s="16">
+        <v>11</v>
+      </c>
+      <c r="D53" t="s" s="16">
         <v>12</v>
       </c>
-      <c r="E53" t="s" s="13">
+      <c r="E53" t="s" s="16">
         <v>13</v>
       </c>
-      <c r="F53" t="s" s="13">
+      <c r="F53" t="s" s="16">
         <v>14</v>
       </c>
-      <c r="G53" t="s" s="13">
+      <c r="G53" t="s" s="16">
         <v>15</v>
       </c>
-      <c r="H53" t="s" s="13">
+      <c r="H53" t="s" s="16">
         <v>16</v>
       </c>
     </row>
@@ -1761,28 +1779,28 @@
       </c>
     </row>
     <row r="55">
-      <c r="B55" t="s" s="13">
+      <c r="B55" t="s" s="16">
         <v>17</v>
       </c>
-      <c r="C55" t="s" s="13">
+      <c r="C55" t="s" s="16">
         <v>18</v>
       </c>
-      <c r="D55" t="s" s="13">
+      <c r="D55" t="s" s="16">
         <v>19</v>
       </c>
-      <c r="E55" t="s" s="13">
+      <c r="E55" t="s" s="16">
         <v>20</v>
       </c>
-      <c r="F55" t="s" s="13">
+      <c r="F55" t="s" s="16">
         <v>21</v>
       </c>
-      <c r="G55" t="s" s="13">
+      <c r="G55" t="s" s="16">
         <v>22</v>
       </c>
-      <c r="H55" t="s" s="13">
+      <c r="H55" t="s" s="16">
         <v>23</v>
       </c>
-      <c r="I55" t="s" s="13">
+      <c r="I55" t="s" s="16">
         <v>11</v>
       </c>
     </row>
@@ -1841,10 +1859,10 @@
       <c r="I57">
         <f>((C57-C56)^2+(D57- D56)^2)^.5</f>
       </c>
-      <c r="J57" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K57" s="13" t="s">
+      <c r="J57" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K57" s="16" t="s">
         <v>24</v>
       </c>
       <c r="L57" t="n">
@@ -1888,28 +1906,28 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="s" s="13">
+      <c r="A59" t="s" s="16">
         <v>9</v>
       </c>
-      <c r="B59" t="s" s="13">
+      <c r="B59" t="s" s="16">
         <v>10</v>
       </c>
-      <c r="C59" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D59" t="s" s="13">
+      <c r="C59" t="s" s="16">
+        <v>11</v>
+      </c>
+      <c r="D59" t="s" s="16">
         <v>12</v>
       </c>
-      <c r="E59" t="s" s="13">
+      <c r="E59" t="s" s="16">
         <v>13</v>
       </c>
-      <c r="F59" t="s" s="13">
+      <c r="F59" t="s" s="16">
         <v>14</v>
       </c>
-      <c r="G59" t="s" s="13">
+      <c r="G59" t="s" s="16">
         <v>15</v>
       </c>
-      <c r="H59" t="s" s="13">
+      <c r="H59" t="s" s="16">
         <v>16</v>
       </c>
     </row>
@@ -1934,28 +1952,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="B61" t="s" s="13">
+      <c r="B61" t="s" s="16">
         <v>17</v>
       </c>
-      <c r="C61" t="s" s="13">
+      <c r="C61" t="s" s="16">
         <v>18</v>
       </c>
-      <c r="D61" t="s" s="13">
+      <c r="D61" t="s" s="16">
         <v>19</v>
       </c>
-      <c r="E61" t="s" s="13">
+      <c r="E61" t="s" s="16">
         <v>20</v>
       </c>
-      <c r="F61" t="s" s="13">
+      <c r="F61" t="s" s="16">
         <v>21</v>
       </c>
-      <c r="G61" t="s" s="13">
+      <c r="G61" t="s" s="16">
         <v>22</v>
       </c>
-      <c r="H61" t="s" s="13">
+      <c r="H61" t="s" s="16">
         <v>23</v>
       </c>
-      <c r="I61" t="s" s="13">
+      <c r="I61" t="s" s="16">
         <v>11</v>
       </c>
     </row>
@@ -2014,10 +2032,10 @@
       <c r="I63">
         <f>((C63-C62)^2+(D63- D62)^2)^.5</f>
       </c>
-      <c r="J63" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K63" s="13" t="s">
+      <c r="J63" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K63" s="16" t="s">
         <v>24</v>
       </c>
       <c r="L63" t="n">
@@ -2061,28 +2079,28 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="s" s="13">
+      <c r="A65" t="s" s="16">
         <v>9</v>
       </c>
-      <c r="B65" t="s" s="13">
+      <c r="B65" t="s" s="16">
         <v>10</v>
       </c>
-      <c r="C65" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D65" t="s" s="13">
+      <c r="C65" t="s" s="16">
+        <v>11</v>
+      </c>
+      <c r="D65" t="s" s="16">
         <v>12</v>
       </c>
-      <c r="E65" t="s" s="13">
+      <c r="E65" t="s" s="16">
         <v>13</v>
       </c>
-      <c r="F65" t="s" s="13">
+      <c r="F65" t="s" s="16">
         <v>14</v>
       </c>
-      <c r="G65" t="s" s="13">
+      <c r="G65" t="s" s="16">
         <v>15</v>
       </c>
-      <c r="H65" t="s" s="13">
+      <c r="H65" t="s" s="16">
         <v>16</v>
       </c>
     </row>
@@ -2107,28 +2125,28 @@
       </c>
     </row>
     <row r="67">
-      <c r="B67" t="s" s="13">
+      <c r="B67" t="s" s="16">
         <v>17</v>
       </c>
-      <c r="C67" t="s" s="13">
+      <c r="C67" t="s" s="16">
         <v>18</v>
       </c>
-      <c r="D67" t="s" s="13">
+      <c r="D67" t="s" s="16">
         <v>19</v>
       </c>
-      <c r="E67" t="s" s="13">
+      <c r="E67" t="s" s="16">
         <v>20</v>
       </c>
-      <c r="F67" t="s" s="13">
+      <c r="F67" t="s" s="16">
         <v>21</v>
       </c>
-      <c r="G67" t="s" s="13">
+      <c r="G67" t="s" s="16">
         <v>22</v>
       </c>
-      <c r="H67" t="s" s="13">
+      <c r="H67" t="s" s="16">
         <v>23</v>
       </c>
-      <c r="I67" t="s" s="13">
+      <c r="I67" t="s" s="16">
         <v>11</v>
       </c>
     </row>
@@ -2187,10 +2205,10 @@
       <c r="I69">
         <f>((C69-C68)^2+(D69- D68)^2)^.5</f>
       </c>
-      <c r="J69" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K69" s="13" t="s">
+      <c r="J69" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K69" s="16" t="s">
         <v>24</v>
       </c>
       <c r="L69" t="n">
@@ -2234,28 +2252,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="s" s="13">
+      <c r="A71" t="s" s="16">
         <v>9</v>
       </c>
-      <c r="B71" t="s" s="13">
+      <c r="B71" t="s" s="16">
         <v>10</v>
       </c>
-      <c r="C71" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D71" t="s" s="13">
+      <c r="C71" t="s" s="16">
+        <v>11</v>
+      </c>
+      <c r="D71" t="s" s="16">
         <v>12</v>
       </c>
-      <c r="E71" t="s" s="13">
+      <c r="E71" t="s" s="16">
         <v>13</v>
       </c>
-      <c r="F71" t="s" s="13">
+      <c r="F71" t="s" s="16">
         <v>14</v>
       </c>
-      <c r="G71" t="s" s="13">
+      <c r="G71" t="s" s="16">
         <v>15</v>
       </c>
-      <c r="H71" t="s" s="13">
+      <c r="H71" t="s" s="16">
         <v>16</v>
       </c>
     </row>
@@ -2280,28 +2298,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="B73" t="s" s="13">
+      <c r="B73" t="s" s="16">
         <v>17</v>
       </c>
-      <c r="C73" t="s" s="13">
+      <c r="C73" t="s" s="16">
         <v>18</v>
       </c>
-      <c r="D73" t="s" s="13">
+      <c r="D73" t="s" s="16">
         <v>19</v>
       </c>
-      <c r="E73" t="s" s="13">
+      <c r="E73" t="s" s="16">
         <v>20</v>
       </c>
-      <c r="F73" t="s" s="13">
+      <c r="F73" t="s" s="16">
         <v>21</v>
       </c>
-      <c r="G73" t="s" s="13">
+      <c r="G73" t="s" s="16">
         <v>22</v>
       </c>
-      <c r="H73" t="s" s="13">
+      <c r="H73" t="s" s="16">
         <v>23</v>
       </c>
-      <c r="I73" t="s" s="13">
+      <c r="I73" t="s" s="16">
         <v>11</v>
       </c>
     </row>
@@ -2389,10 +2407,10 @@
       <c r="I76">
         <f>((C76-C75)^2+(D76- D75)^2)^.5</f>
       </c>
-      <c r="J76" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K76" s="13" t="s">
+      <c r="J76" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K76" s="16" t="s">
         <v>24</v>
       </c>
       <c r="L76" t="n">
@@ -2436,28 +2454,28 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="s" s="13">
+      <c r="A78" t="s" s="16">
         <v>9</v>
       </c>
-      <c r="B78" t="s" s="13">
+      <c r="B78" t="s" s="16">
         <v>10</v>
       </c>
-      <c r="C78" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D78" t="s" s="13">
+      <c r="C78" t="s" s="16">
+        <v>11</v>
+      </c>
+      <c r="D78" t="s" s="16">
         <v>12</v>
       </c>
-      <c r="E78" t="s" s="13">
+      <c r="E78" t="s" s="16">
         <v>13</v>
       </c>
-      <c r="F78" t="s" s="13">
+      <c r="F78" t="s" s="16">
         <v>14</v>
       </c>
-      <c r="G78" t="s" s="13">
+      <c r="G78" t="s" s="16">
         <v>15</v>
       </c>
-      <c r="H78" t="s" s="13">
+      <c r="H78" t="s" s="16">
         <v>16</v>
       </c>
     </row>
@@ -2482,28 +2500,28 @@
       </c>
     </row>
     <row r="80">
-      <c r="B80" t="s" s="13">
+      <c r="B80" t="s" s="16">
         <v>17</v>
       </c>
-      <c r="C80" t="s" s="13">
+      <c r="C80" t="s" s="16">
         <v>18</v>
       </c>
-      <c r="D80" t="s" s="13">
+      <c r="D80" t="s" s="16">
         <v>19</v>
       </c>
-      <c r="E80" t="s" s="13">
+      <c r="E80" t="s" s="16">
         <v>20</v>
       </c>
-      <c r="F80" t="s" s="13">
+      <c r="F80" t="s" s="16">
         <v>21</v>
       </c>
-      <c r="G80" t="s" s="13">
+      <c r="G80" t="s" s="16">
         <v>22</v>
       </c>
-      <c r="H80" t="s" s="13">
+      <c r="H80" t="s" s="16">
         <v>23</v>
       </c>
-      <c r="I80" t="s" s="13">
+      <c r="I80" t="s" s="16">
         <v>11</v>
       </c>
     </row>
@@ -2562,10 +2580,10 @@
       <c r="I82">
         <f>((C82-C81)^2+(D82- D81)^2)^.5</f>
       </c>
-      <c r="J82" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K82" s="13" t="s">
+      <c r="J82" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K82" s="16" t="s">
         <v>24</v>
       </c>
       <c r="L82" t="n">
@@ -2609,28 +2627,28 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="s" s="13">
+      <c r="A84" t="s" s="16">
         <v>9</v>
       </c>
-      <c r="B84" t="s" s="13">
+      <c r="B84" t="s" s="16">
         <v>10</v>
       </c>
-      <c r="C84" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D84" t="s" s="13">
+      <c r="C84" t="s" s="16">
+        <v>11</v>
+      </c>
+      <c r="D84" t="s" s="16">
         <v>12</v>
       </c>
-      <c r="E84" t="s" s="13">
+      <c r="E84" t="s" s="16">
         <v>13</v>
       </c>
-      <c r="F84" t="s" s="13">
+      <c r="F84" t="s" s="16">
         <v>14</v>
       </c>
-      <c r="G84" t="s" s="13">
+      <c r="G84" t="s" s="16">
         <v>15</v>
       </c>
-      <c r="H84" t="s" s="13">
+      <c r="H84" t="s" s="16">
         <v>16</v>
       </c>
     </row>
@@ -2655,28 +2673,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="B86" t="s" s="13">
+      <c r="B86" t="s" s="16">
         <v>17</v>
       </c>
-      <c r="C86" t="s" s="13">
+      <c r="C86" t="s" s="16">
         <v>18</v>
       </c>
-      <c r="D86" t="s" s="13">
+      <c r="D86" t="s" s="16">
         <v>19</v>
       </c>
-      <c r="E86" t="s" s="13">
+      <c r="E86" t="s" s="16">
         <v>20</v>
       </c>
-      <c r="F86" t="s" s="13">
+      <c r="F86" t="s" s="16">
         <v>21</v>
       </c>
-      <c r="G86" t="s" s="13">
+      <c r="G86" t="s" s="16">
         <v>22</v>
       </c>
-      <c r="H86" t="s" s="13">
+      <c r="H86" t="s" s="16">
         <v>23</v>
       </c>
-      <c r="I86" t="s" s="13">
+      <c r="I86" t="s" s="16">
         <v>11</v>
       </c>
     </row>
@@ -2764,10 +2782,10 @@
       <c r="I89">
         <f>((C89-C88)^2+(D89- D88)^2)^.5</f>
       </c>
-      <c r="J89" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K89" s="13" t="s">
+      <c r="J89" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K89" s="16" t="s">
         <v>24</v>
       </c>
       <c r="L89" t="n">
@@ -2811,28 +2829,28 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="s" s="13">
+      <c r="A91" t="s" s="16">
         <v>9</v>
       </c>
-      <c r="B91" t="s" s="13">
+      <c r="B91" t="s" s="16">
         <v>10</v>
       </c>
-      <c r="C91" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D91" t="s" s="13">
+      <c r="C91" t="s" s="16">
+        <v>11</v>
+      </c>
+      <c r="D91" t="s" s="16">
         <v>12</v>
       </c>
-      <c r="E91" t="s" s="13">
+      <c r="E91" t="s" s="16">
         <v>13</v>
       </c>
-      <c r="F91" t="s" s="13">
+      <c r="F91" t="s" s="16">
         <v>14</v>
       </c>
-      <c r="G91" t="s" s="13">
+      <c r="G91" t="s" s="16">
         <v>15</v>
       </c>
-      <c r="H91" t="s" s="13">
+      <c r="H91" t="s" s="16">
         <v>16</v>
       </c>
     </row>
@@ -2857,28 +2875,28 @@
       </c>
     </row>
     <row r="93">
-      <c r="B93" t="s" s="13">
+      <c r="B93" t="s" s="16">
         <v>17</v>
       </c>
-      <c r="C93" t="s" s="13">
+      <c r="C93" t="s" s="16">
         <v>18</v>
       </c>
-      <c r="D93" t="s" s="13">
+      <c r="D93" t="s" s="16">
         <v>19</v>
       </c>
-      <c r="E93" t="s" s="13">
+      <c r="E93" t="s" s="16">
         <v>20</v>
       </c>
-      <c r="F93" t="s" s="13">
+      <c r="F93" t="s" s="16">
         <v>21</v>
       </c>
-      <c r="G93" t="s" s="13">
+      <c r="G93" t="s" s="16">
         <v>22</v>
       </c>
-      <c r="H93" t="s" s="13">
+      <c r="H93" t="s" s="16">
         <v>23</v>
       </c>
-      <c r="I93" t="s" s="13">
+      <c r="I93" t="s" s="16">
         <v>11</v>
       </c>
     </row>
@@ -2995,10 +3013,10 @@
       <c r="I97">
         <f>((C97-C96)^2+(D97- D96)^2)^.5</f>
       </c>
-      <c r="J97" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K97" s="13" t="s">
+      <c r="J97" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K97" s="16" t="s">
         <v>24</v>
       </c>
       <c r="L97" t="n">
@@ -3042,28 +3060,28 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="s" s="13">
+      <c r="A99" t="s" s="16">
         <v>9</v>
       </c>
-      <c r="B99" t="s" s="13">
+      <c r="B99" t="s" s="16">
         <v>10</v>
       </c>
-      <c r="C99" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D99" t="s" s="13">
+      <c r="C99" t="s" s="16">
+        <v>11</v>
+      </c>
+      <c r="D99" t="s" s="16">
         <v>12</v>
       </c>
-      <c r="E99" t="s" s="13">
+      <c r="E99" t="s" s="16">
         <v>13</v>
       </c>
-      <c r="F99" t="s" s="13">
+      <c r="F99" t="s" s="16">
         <v>14</v>
       </c>
-      <c r="G99" t="s" s="13">
+      <c r="G99" t="s" s="16">
         <v>15</v>
       </c>
-      <c r="H99" t="s" s="13">
+      <c r="H99" t="s" s="16">
         <v>16</v>
       </c>
     </row>
@@ -3088,28 +3106,28 @@
       </c>
     </row>
     <row r="101">
-      <c r="B101" t="s" s="13">
+      <c r="B101" t="s" s="16">
         <v>17</v>
       </c>
-      <c r="C101" t="s" s="13">
+      <c r="C101" t="s" s="16">
         <v>18</v>
       </c>
-      <c r="D101" t="s" s="13">
+      <c r="D101" t="s" s="16">
         <v>19</v>
       </c>
-      <c r="E101" t="s" s="13">
+      <c r="E101" t="s" s="16">
         <v>20</v>
       </c>
-      <c r="F101" t="s" s="13">
+      <c r="F101" t="s" s="16">
         <v>21</v>
       </c>
-      <c r="G101" t="s" s="13">
+      <c r="G101" t="s" s="16">
         <v>22</v>
       </c>
-      <c r="H101" t="s" s="13">
+      <c r="H101" t="s" s="16">
         <v>23</v>
       </c>
-      <c r="I101" t="s" s="13">
+      <c r="I101" t="s" s="16">
         <v>11</v>
       </c>
     </row>
@@ -3168,10 +3186,10 @@
       <c r="I103">
         <f>((C103-C102)^2+(D103- D102)^2)^.5</f>
       </c>
-      <c r="J103" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K103" s="13" t="s">
+      <c r="J103" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K103" s="16" t="s">
         <v>24</v>
       </c>
       <c r="L103" t="n">
@@ -3215,28 +3233,28 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="s" s="13">
+      <c r="A105" t="s" s="16">
         <v>9</v>
       </c>
-      <c r="B105" t="s" s="13">
+      <c r="B105" t="s" s="16">
         <v>10</v>
       </c>
-      <c r="C105" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D105" t="s" s="13">
+      <c r="C105" t="s" s="16">
+        <v>11</v>
+      </c>
+      <c r="D105" t="s" s="16">
         <v>12</v>
       </c>
-      <c r="E105" t="s" s="13">
+      <c r="E105" t="s" s="16">
         <v>13</v>
       </c>
-      <c r="F105" t="s" s="13">
+      <c r="F105" t="s" s="16">
         <v>14</v>
       </c>
-      <c r="G105" t="s" s="13">
+      <c r="G105" t="s" s="16">
         <v>15</v>
       </c>
-      <c r="H105" t="s" s="13">
+      <c r="H105" t="s" s="16">
         <v>16</v>
       </c>
     </row>
@@ -3261,28 +3279,28 @@
       </c>
     </row>
     <row r="107">
-      <c r="B107" t="s" s="13">
+      <c r="B107" t="s" s="16">
         <v>17</v>
       </c>
-      <c r="C107" t="s" s="13">
+      <c r="C107" t="s" s="16">
         <v>18</v>
       </c>
-      <c r="D107" t="s" s="13">
+      <c r="D107" t="s" s="16">
         <v>19</v>
       </c>
-      <c r="E107" t="s" s="13">
+      <c r="E107" t="s" s="16">
         <v>20</v>
       </c>
-      <c r="F107" t="s" s="13">
+      <c r="F107" t="s" s="16">
         <v>21</v>
       </c>
-      <c r="G107" t="s" s="13">
+      <c r="G107" t="s" s="16">
         <v>22</v>
       </c>
-      <c r="H107" t="s" s="13">
+      <c r="H107" t="s" s="16">
         <v>23</v>
       </c>
-      <c r="I107" t="s" s="13">
+      <c r="I107" t="s" s="16">
         <v>11</v>
       </c>
     </row>
@@ -3370,10 +3388,10 @@
       <c r="I110">
         <f>((C110-C109)^2+(D110- D109)^2)^.5</f>
       </c>
-      <c r="J110" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K110" s="13" t="s">
+      <c r="J110" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K110" s="16" t="s">
         <v>24</v>
       </c>
       <c r="L110" t="n">
@@ -3417,28 +3435,28 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="s" s="13">
+      <c r="A112" t="s" s="16">
         <v>9</v>
       </c>
-      <c r="B112" t="s" s="13">
+      <c r="B112" t="s" s="16">
         <v>10</v>
       </c>
-      <c r="C112" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D112" t="s" s="13">
+      <c r="C112" t="s" s="16">
+        <v>11</v>
+      </c>
+      <c r="D112" t="s" s="16">
         <v>12</v>
       </c>
-      <c r="E112" t="s" s="13">
+      <c r="E112" t="s" s="16">
         <v>13</v>
       </c>
-      <c r="F112" t="s" s="13">
+      <c r="F112" t="s" s="16">
         <v>14</v>
       </c>
-      <c r="G112" t="s" s="13">
+      <c r="G112" t="s" s="16">
         <v>15</v>
       </c>
-      <c r="H112" t="s" s="13">
+      <c r="H112" t="s" s="16">
         <v>16</v>
       </c>
     </row>
@@ -3463,28 +3481,28 @@
       </c>
     </row>
     <row r="114">
-      <c r="B114" t="s" s="13">
+      <c r="B114" t="s" s="16">
         <v>17</v>
       </c>
-      <c r="C114" t="s" s="13">
+      <c r="C114" t="s" s="16">
         <v>18</v>
       </c>
-      <c r="D114" t="s" s="13">
+      <c r="D114" t="s" s="16">
         <v>19</v>
       </c>
-      <c r="E114" t="s" s="13">
+      <c r="E114" t="s" s="16">
         <v>20</v>
       </c>
-      <c r="F114" t="s" s="13">
+      <c r="F114" t="s" s="16">
         <v>21</v>
       </c>
-      <c r="G114" t="s" s="13">
+      <c r="G114" t="s" s="16">
         <v>22</v>
       </c>
-      <c r="H114" t="s" s="13">
+      <c r="H114" t="s" s="16">
         <v>23</v>
       </c>
-      <c r="I114" t="s" s="13">
+      <c r="I114" t="s" s="16">
         <v>11</v>
       </c>
     </row>
@@ -3572,10 +3590,10 @@
       <c r="I117">
         <f>((C117-C116)^2+(D117- D116)^2)^.5</f>
       </c>
-      <c r="J117" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K117" s="13" t="s">
+      <c r="J117" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K117" s="16" t="s">
         <v>24</v>
       </c>
       <c r="L117" t="n">
@@ -3619,28 +3637,28 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="s" s="13">
+      <c r="A119" t="s" s="16">
         <v>9</v>
       </c>
-      <c r="B119" t="s" s="13">
+      <c r="B119" t="s" s="16">
         <v>10</v>
       </c>
-      <c r="C119" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D119" t="s" s="13">
+      <c r="C119" t="s" s="16">
+        <v>11</v>
+      </c>
+      <c r="D119" t="s" s="16">
         <v>12</v>
       </c>
-      <c r="E119" t="s" s="13">
+      <c r="E119" t="s" s="16">
         <v>13</v>
       </c>
-      <c r="F119" t="s" s="13">
+      <c r="F119" t="s" s="16">
         <v>14</v>
       </c>
-      <c r="G119" t="s" s="13">
+      <c r="G119" t="s" s="16">
         <v>15</v>
       </c>
-      <c r="H119" t="s" s="13">
+      <c r="H119" t="s" s="16">
         <v>16</v>
       </c>
     </row>
@@ -3665,28 +3683,28 @@
       </c>
     </row>
     <row r="121">
-      <c r="B121" t="s" s="13">
+      <c r="B121" t="s" s="16">
         <v>17</v>
       </c>
-      <c r="C121" t="s" s="13">
+      <c r="C121" t="s" s="16">
         <v>18</v>
       </c>
-      <c r="D121" t="s" s="13">
+      <c r="D121" t="s" s="16">
         <v>19</v>
       </c>
-      <c r="E121" t="s" s="13">
+      <c r="E121" t="s" s="16">
         <v>20</v>
       </c>
-      <c r="F121" t="s" s="13">
+      <c r="F121" t="s" s="16">
         <v>21</v>
       </c>
-      <c r="G121" t="s" s="13">
+      <c r="G121" t="s" s="16">
         <v>22</v>
       </c>
-      <c r="H121" t="s" s="13">
+      <c r="H121" t="s" s="16">
         <v>23</v>
       </c>
-      <c r="I121" t="s" s="13">
+      <c r="I121" t="s" s="16">
         <v>11</v>
       </c>
     </row>
@@ -3803,10 +3821,10 @@
       <c r="I125">
         <f>((C125-C124)^2+(D125- D124)^2)^.5</f>
       </c>
-      <c r="J125" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K125" s="13" t="s">
+      <c r="J125" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K125" s="16" t="s">
         <v>24</v>
       </c>
       <c r="L125" t="n">
@@ -3850,28 +3868,28 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="s" s="13">
+      <c r="A127" t="s" s="16">
         <v>9</v>
       </c>
-      <c r="B127" t="s" s="13">
+      <c r="B127" t="s" s="16">
         <v>10</v>
       </c>
-      <c r="C127" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D127" t="s" s="13">
+      <c r="C127" t="s" s="16">
+        <v>11</v>
+      </c>
+      <c r="D127" t="s" s="16">
         <v>12</v>
       </c>
-      <c r="E127" t="s" s="13">
+      <c r="E127" t="s" s="16">
         <v>13</v>
       </c>
-      <c r="F127" t="s" s="13">
+      <c r="F127" t="s" s="16">
         <v>14</v>
       </c>
-      <c r="G127" t="s" s="13">
+      <c r="G127" t="s" s="16">
         <v>15</v>
       </c>
-      <c r="H127" t="s" s="13">
+      <c r="H127" t="s" s="16">
         <v>16</v>
       </c>
     </row>
@@ -3896,28 +3914,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="B129" t="s" s="13">
+      <c r="B129" t="s" s="16">
         <v>17</v>
       </c>
-      <c r="C129" t="s" s="13">
+      <c r="C129" t="s" s="16">
         <v>18</v>
       </c>
-      <c r="D129" t="s" s="13">
+      <c r="D129" t="s" s="16">
         <v>19</v>
       </c>
-      <c r="E129" t="s" s="13">
+      <c r="E129" t="s" s="16">
         <v>20</v>
       </c>
-      <c r="F129" t="s" s="13">
+      <c r="F129" t="s" s="16">
         <v>21</v>
       </c>
-      <c r="G129" t="s" s="13">
+      <c r="G129" t="s" s="16">
         <v>22</v>
       </c>
-      <c r="H129" t="s" s="13">
+      <c r="H129" t="s" s="16">
         <v>23</v>
       </c>
-      <c r="I129" t="s" s="13">
+      <c r="I129" t="s" s="16">
         <v>11</v>
       </c>
     </row>
@@ -3976,10 +3994,10 @@
       <c r="I131">
         <f>((C131-C130)^2+(D131- D130)^2)^.5</f>
       </c>
-      <c r="J131" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K131" s="13" t="s">
+      <c r="J131" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K131" s="16" t="s">
         <v>24</v>
       </c>
       <c r="L131" t="n">
@@ -4023,28 +4041,28 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="s" s="13">
+      <c r="A133" t="s" s="16">
         <v>9</v>
       </c>
-      <c r="B133" t="s" s="13">
+      <c r="B133" t="s" s="16">
         <v>10</v>
       </c>
-      <c r="C133" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D133" t="s" s="13">
+      <c r="C133" t="s" s="16">
+        <v>11</v>
+      </c>
+      <c r="D133" t="s" s="16">
         <v>12</v>
       </c>
-      <c r="E133" t="s" s="13">
+      <c r="E133" t="s" s="16">
         <v>13</v>
       </c>
-      <c r="F133" t="s" s="13">
+      <c r="F133" t="s" s="16">
         <v>14</v>
       </c>
-      <c r="G133" t="s" s="13">
+      <c r="G133" t="s" s="16">
         <v>15</v>
       </c>
-      <c r="H133" t="s" s="13">
+      <c r="H133" t="s" s="16">
         <v>16</v>
       </c>
     </row>
@@ -4069,28 +4087,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="B135" t="s" s="13">
+      <c r="B135" t="s" s="16">
         <v>17</v>
       </c>
-      <c r="C135" t="s" s="13">
+      <c r="C135" t="s" s="16">
         <v>18</v>
       </c>
-      <c r="D135" t="s" s="13">
+      <c r="D135" t="s" s="16">
         <v>19</v>
       </c>
-      <c r="E135" t="s" s="13">
+      <c r="E135" t="s" s="16">
         <v>20</v>
       </c>
-      <c r="F135" t="s" s="13">
+      <c r="F135" t="s" s="16">
         <v>21</v>
       </c>
-      <c r="G135" t="s" s="13">
+      <c r="G135" t="s" s="16">
         <v>22</v>
       </c>
-      <c r="H135" t="s" s="13">
+      <c r="H135" t="s" s="16">
         <v>23</v>
       </c>
-      <c r="I135" t="s" s="13">
+      <c r="I135" t="s" s="16">
         <v>11</v>
       </c>
     </row>
@@ -4149,10 +4167,10 @@
       <c r="I137">
         <f>((C137-C136)^2+(D137- D136)^2)^.5</f>
       </c>
-      <c r="J137" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K137" s="13" t="s">
+      <c r="J137" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K137" s="16" t="s">
         <v>24</v>
       </c>
       <c r="L137" t="n">
@@ -4196,28 +4214,28 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="s" s="13">
+      <c r="A139" t="s" s="16">
         <v>9</v>
       </c>
-      <c r="B139" t="s" s="13">
+      <c r="B139" t="s" s="16">
         <v>10</v>
       </c>
-      <c r="C139" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D139" t="s" s="13">
+      <c r="C139" t="s" s="16">
+        <v>11</v>
+      </c>
+      <c r="D139" t="s" s="16">
         <v>12</v>
       </c>
-      <c r="E139" t="s" s="13">
+      <c r="E139" t="s" s="16">
         <v>13</v>
       </c>
-      <c r="F139" t="s" s="13">
+      <c r="F139" t="s" s="16">
         <v>14</v>
       </c>
-      <c r="G139" t="s" s="13">
+      <c r="G139" t="s" s="16">
         <v>15</v>
       </c>
-      <c r="H139" t="s" s="13">
+      <c r="H139" t="s" s="16">
         <v>16</v>
       </c>
     </row>
@@ -4242,28 +4260,28 @@
       </c>
     </row>
     <row r="141">
-      <c r="B141" t="s" s="13">
+      <c r="B141" t="s" s="16">
         <v>17</v>
       </c>
-      <c r="C141" t="s" s="13">
+      <c r="C141" t="s" s="16">
         <v>18</v>
       </c>
-      <c r="D141" t="s" s="13">
+      <c r="D141" t="s" s="16">
         <v>19</v>
       </c>
-      <c r="E141" t="s" s="13">
+      <c r="E141" t="s" s="16">
         <v>20</v>
       </c>
-      <c r="F141" t="s" s="13">
+      <c r="F141" t="s" s="16">
         <v>21</v>
       </c>
-      <c r="G141" t="s" s="13">
+      <c r="G141" t="s" s="16">
         <v>22</v>
       </c>
-      <c r="H141" t="s" s="13">
+      <c r="H141" t="s" s="16">
         <v>23</v>
       </c>
-      <c r="I141" t="s" s="13">
+      <c r="I141" t="s" s="16">
         <v>11</v>
       </c>
     </row>
@@ -4351,10 +4369,10 @@
       <c r="I144">
         <f>((C144-C143)^2+(D144- D143)^2)^.5</f>
       </c>
-      <c r="J144" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K144" s="13" t="s">
+      <c r="J144" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K144" s="16" t="s">
         <v>24</v>
       </c>
       <c r="L144" t="n">
@@ -4398,28 +4416,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="s" s="13">
+      <c r="A146" t="s" s="16">
         <v>9</v>
       </c>
-      <c r="B146" t="s" s="13">
+      <c r="B146" t="s" s="16">
         <v>10</v>
       </c>
-      <c r="C146" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D146" t="s" s="13">
+      <c r="C146" t="s" s="16">
+        <v>11</v>
+      </c>
+      <c r="D146" t="s" s="16">
         <v>12</v>
       </c>
-      <c r="E146" t="s" s="13">
+      <c r="E146" t="s" s="16">
         <v>13</v>
       </c>
-      <c r="F146" t="s" s="13">
+      <c r="F146" t="s" s="16">
         <v>14</v>
       </c>
-      <c r="G146" t="s" s="13">
+      <c r="G146" t="s" s="16">
         <v>15</v>
       </c>
-      <c r="H146" t="s" s="13">
+      <c r="H146" t="s" s="16">
         <v>16</v>
       </c>
     </row>
@@ -4444,28 +4462,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="B148" t="s" s="13">
+      <c r="B148" t="s" s="16">
         <v>17</v>
       </c>
-      <c r="C148" t="s" s="13">
+      <c r="C148" t="s" s="16">
         <v>18</v>
       </c>
-      <c r="D148" t="s" s="13">
+      <c r="D148" t="s" s="16">
         <v>19</v>
       </c>
-      <c r="E148" t="s" s="13">
+      <c r="E148" t="s" s="16">
         <v>20</v>
       </c>
-      <c r="F148" t="s" s="13">
+      <c r="F148" t="s" s="16">
         <v>21</v>
       </c>
-      <c r="G148" t="s" s="13">
+      <c r="G148" t="s" s="16">
         <v>22</v>
       </c>
-      <c r="H148" t="s" s="13">
+      <c r="H148" t="s" s="16">
         <v>23</v>
       </c>
-      <c r="I148" t="s" s="13">
+      <c r="I148" t="s" s="16">
         <v>11</v>
       </c>
     </row>
@@ -4524,10 +4542,10 @@
       <c r="I150">
         <f>((C150-C149)^2+(D150- D149)^2)^.5</f>
       </c>
-      <c r="J150" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K150" s="13" t="s">
+      <c r="J150" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K150" s="16" t="s">
         <v>24</v>
       </c>
       <c r="L150" t="n">
@@ -4571,28 +4589,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="s" s="13">
+      <c r="A152" t="s" s="16">
         <v>9</v>
       </c>
-      <c r="B152" t="s" s="13">
+      <c r="B152" t="s" s="16">
         <v>10</v>
       </c>
-      <c r="C152" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D152" t="s" s="13">
+      <c r="C152" t="s" s="16">
+        <v>11</v>
+      </c>
+      <c r="D152" t="s" s="16">
         <v>12</v>
       </c>
-      <c r="E152" t="s" s="13">
+      <c r="E152" t="s" s="16">
         <v>13</v>
       </c>
-      <c r="F152" t="s" s="13">
+      <c r="F152" t="s" s="16">
         <v>14</v>
       </c>
-      <c r="G152" t="s" s="13">
+      <c r="G152" t="s" s="16">
         <v>15</v>
       </c>
-      <c r="H152" t="s" s="13">
+      <c r="H152" t="s" s="16">
         <v>16</v>
       </c>
     </row>
@@ -4617,28 +4635,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="B154" t="s" s="13">
+      <c r="B154" t="s" s="16">
         <v>17</v>
       </c>
-      <c r="C154" t="s" s="13">
+      <c r="C154" t="s" s="16">
         <v>18</v>
       </c>
-      <c r="D154" t="s" s="13">
+      <c r="D154" t="s" s="16">
         <v>19</v>
       </c>
-      <c r="E154" t="s" s="13">
+      <c r="E154" t="s" s="16">
         <v>20</v>
       </c>
-      <c r="F154" t="s" s="13">
+      <c r="F154" t="s" s="16">
         <v>21</v>
       </c>
-      <c r="G154" t="s" s="13">
+      <c r="G154" t="s" s="16">
         <v>22</v>
       </c>
-      <c r="H154" t="s" s="13">
+      <c r="H154" t="s" s="16">
         <v>23</v>
       </c>
-      <c r="I154" t="s" s="13">
+      <c r="I154" t="s" s="16">
         <v>11</v>
       </c>
     </row>
@@ -4726,10 +4744,10 @@
       <c r="I157">
         <f>((C157-C156)^2+(D157- D156)^2)^.5</f>
       </c>
-      <c r="J157" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K157" s="13" t="s">
+      <c r="J157" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K157" s="16" t="s">
         <v>24</v>
       </c>
       <c r="L157" t="n">
@@ -4773,28 +4791,28 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="s" s="13">
+      <c r="A159" t="s" s="16">
         <v>9</v>
       </c>
-      <c r="B159" t="s" s="13">
+      <c r="B159" t="s" s="16">
         <v>10</v>
       </c>
-      <c r="C159" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D159" t="s" s="13">
+      <c r="C159" t="s" s="16">
+        <v>11</v>
+      </c>
+      <c r="D159" t="s" s="16">
         <v>12</v>
       </c>
-      <c r="E159" t="s" s="13">
+      <c r="E159" t="s" s="16">
         <v>13</v>
       </c>
-      <c r="F159" t="s" s="13">
+      <c r="F159" t="s" s="16">
         <v>14</v>
       </c>
-      <c r="G159" t="s" s="13">
+      <c r="G159" t="s" s="16">
         <v>15</v>
       </c>
-      <c r="H159" t="s" s="13">
+      <c r="H159" t="s" s="16">
         <v>16</v>
       </c>
     </row>
@@ -4819,28 +4837,28 @@
       </c>
     </row>
     <row r="161">
-      <c r="B161" t="s" s="13">
+      <c r="B161" t="s" s="16">
         <v>17</v>
       </c>
-      <c r="C161" t="s" s="13">
+      <c r="C161" t="s" s="16">
         <v>18</v>
       </c>
-      <c r="D161" t="s" s="13">
+      <c r="D161" t="s" s="16">
         <v>19</v>
       </c>
-      <c r="E161" t="s" s="13">
+      <c r="E161" t="s" s="16">
         <v>20</v>
       </c>
-      <c r="F161" t="s" s="13">
+      <c r="F161" t="s" s="16">
         <v>21</v>
       </c>
-      <c r="G161" t="s" s="13">
+      <c r="G161" t="s" s="16">
         <v>22</v>
       </c>
-      <c r="H161" t="s" s="13">
+      <c r="H161" t="s" s="16">
         <v>23</v>
       </c>
-      <c r="I161" t="s" s="13">
+      <c r="I161" t="s" s="16">
         <v>11</v>
       </c>
     </row>
@@ -4899,10 +4917,10 @@
       <c r="I163">
         <f>((C163-C162)^2+(D163- D162)^2)^.5</f>
       </c>
-      <c r="J163" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K163" s="13" t="s">
+      <c r="J163" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K163" s="16" t="s">
         <v>24</v>
       </c>
       <c r="L163" t="n">
@@ -4946,28 +4964,28 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="s" s="13">
+      <c r="A165" t="s" s="16">
         <v>9</v>
       </c>
-      <c r="B165" t="s" s="13">
+      <c r="B165" t="s" s="16">
         <v>10</v>
       </c>
-      <c r="C165" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D165" t="s" s="13">
+      <c r="C165" t="s" s="16">
+        <v>11</v>
+      </c>
+      <c r="D165" t="s" s="16">
         <v>12</v>
       </c>
-      <c r="E165" t="s" s="13">
+      <c r="E165" t="s" s="16">
         <v>13</v>
       </c>
-      <c r="F165" t="s" s="13">
+      <c r="F165" t="s" s="16">
         <v>14</v>
       </c>
-      <c r="G165" t="s" s="13">
+      <c r="G165" t="s" s="16">
         <v>15</v>
       </c>
-      <c r="H165" t="s" s="13">
+      <c r="H165" t="s" s="16">
         <v>16</v>
       </c>
     </row>
@@ -4992,28 +5010,28 @@
       </c>
     </row>
     <row r="167">
-      <c r="B167" t="s" s="13">
+      <c r="B167" t="s" s="16">
         <v>17</v>
       </c>
-      <c r="C167" t="s" s="13">
+      <c r="C167" t="s" s="16">
         <v>18</v>
       </c>
-      <c r="D167" t="s" s="13">
+      <c r="D167" t="s" s="16">
         <v>19</v>
       </c>
-      <c r="E167" t="s" s="13">
+      <c r="E167" t="s" s="16">
         <v>20</v>
       </c>
-      <c r="F167" t="s" s="13">
+      <c r="F167" t="s" s="16">
         <v>21</v>
       </c>
-      <c r="G167" t="s" s="13">
+      <c r="G167" t="s" s="16">
         <v>22</v>
       </c>
-      <c r="H167" t="s" s="13">
+      <c r="H167" t="s" s="16">
         <v>23</v>
       </c>
-      <c r="I167" t="s" s="13">
+      <c r="I167" t="s" s="16">
         <v>11</v>
       </c>
     </row>
@@ -5072,10 +5090,10 @@
       <c r="I169">
         <f>((C169-C168)^2+(D169- D168)^2)^.5</f>
       </c>
-      <c r="J169" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K169" s="13" t="s">
+      <c r="J169" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K169" s="16" t="s">
         <v>24</v>
       </c>
       <c r="L169" t="n">
@@ -5119,28 +5137,28 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="s" s="13">
+      <c r="A171" t="s" s="16">
         <v>9</v>
       </c>
-      <c r="B171" t="s" s="13">
+      <c r="B171" t="s" s="16">
         <v>10</v>
       </c>
-      <c r="C171" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D171" t="s" s="13">
+      <c r="C171" t="s" s="16">
+        <v>11</v>
+      </c>
+      <c r="D171" t="s" s="16">
         <v>12</v>
       </c>
-      <c r="E171" t="s" s="13">
+      <c r="E171" t="s" s="16">
         <v>13</v>
       </c>
-      <c r="F171" t="s" s="13">
+      <c r="F171" t="s" s="16">
         <v>14</v>
       </c>
-      <c r="G171" t="s" s="13">
+      <c r="G171" t="s" s="16">
         <v>15</v>
       </c>
-      <c r="H171" t="s" s="13">
+      <c r="H171" t="s" s="16">
         <v>16</v>
       </c>
     </row>
@@ -5165,28 +5183,28 @@
       </c>
     </row>
     <row r="173">
-      <c r="B173" t="s" s="13">
+      <c r="B173" t="s" s="16">
         <v>17</v>
       </c>
-      <c r="C173" t="s" s="13">
+      <c r="C173" t="s" s="16">
         <v>18</v>
       </c>
-      <c r="D173" t="s" s="13">
+      <c r="D173" t="s" s="16">
         <v>19</v>
       </c>
-      <c r="E173" t="s" s="13">
+      <c r="E173" t="s" s="16">
         <v>20</v>
       </c>
-      <c r="F173" t="s" s="13">
+      <c r="F173" t="s" s="16">
         <v>21</v>
       </c>
-      <c r="G173" t="s" s="13">
+      <c r="G173" t="s" s="16">
         <v>22</v>
       </c>
-      <c r="H173" t="s" s="13">
+      <c r="H173" t="s" s="16">
         <v>23</v>
       </c>
-      <c r="I173" t="s" s="13">
+      <c r="I173" t="s" s="16">
         <v>11</v>
       </c>
     </row>
@@ -5303,10 +5321,10 @@
       <c r="I177">
         <f>((C177-C176)^2+(D177- D176)^2)^.5</f>
       </c>
-      <c r="J177" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K177" s="13" t="s">
+      <c r="J177" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K177" s="16" t="s">
         <v>24</v>
       </c>
       <c r="L177" t="n">
@@ -5350,28 +5368,28 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="s" s="13">
+      <c r="A179" t="s" s="16">
         <v>9</v>
       </c>
-      <c r="B179" t="s" s="13">
+      <c r="B179" t="s" s="16">
         <v>10</v>
       </c>
-      <c r="C179" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D179" t="s" s="13">
+      <c r="C179" t="s" s="16">
+        <v>11</v>
+      </c>
+      <c r="D179" t="s" s="16">
         <v>12</v>
       </c>
-      <c r="E179" t="s" s="13">
+      <c r="E179" t="s" s="16">
         <v>13</v>
       </c>
-      <c r="F179" t="s" s="13">
+      <c r="F179" t="s" s="16">
         <v>14</v>
       </c>
-      <c r="G179" t="s" s="13">
+      <c r="G179" t="s" s="16">
         <v>15</v>
       </c>
-      <c r="H179" t="s" s="13">
+      <c r="H179" t="s" s="16">
         <v>16</v>
       </c>
     </row>
@@ -5396,28 +5414,28 @@
       </c>
     </row>
     <row r="181">
-      <c r="B181" t="s" s="13">
+      <c r="B181" t="s" s="16">
         <v>17</v>
       </c>
-      <c r="C181" t="s" s="13">
+      <c r="C181" t="s" s="16">
         <v>18</v>
       </c>
-      <c r="D181" t="s" s="13">
+      <c r="D181" t="s" s="16">
         <v>19</v>
       </c>
-      <c r="E181" t="s" s="13">
+      <c r="E181" t="s" s="16">
         <v>20</v>
       </c>
-      <c r="F181" t="s" s="13">
+      <c r="F181" t="s" s="16">
         <v>21</v>
       </c>
-      <c r="G181" t="s" s="13">
+      <c r="G181" t="s" s="16">
         <v>22</v>
       </c>
-      <c r="H181" t="s" s="13">
+      <c r="H181" t="s" s="16">
         <v>23</v>
       </c>
-      <c r="I181" t="s" s="13">
+      <c r="I181" t="s" s="16">
         <v>11</v>
       </c>
     </row>
@@ -5476,10 +5494,10 @@
       <c r="I183">
         <f>((C183-C182)^2+(D183- D182)^2)^.5</f>
       </c>
-      <c r="J183" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K183" s="13" t="s">
+      <c r="J183" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K183" s="16" t="s">
         <v>24</v>
       </c>
       <c r="L183" t="n">
@@ -5523,28 +5541,28 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="s" s="13">
+      <c r="A185" t="s" s="16">
         <v>9</v>
       </c>
-      <c r="B185" t="s" s="13">
+      <c r="B185" t="s" s="16">
         <v>10</v>
       </c>
-      <c r="C185" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D185" t="s" s="13">
+      <c r="C185" t="s" s="16">
+        <v>11</v>
+      </c>
+      <c r="D185" t="s" s="16">
         <v>12</v>
       </c>
-      <c r="E185" t="s" s="13">
+      <c r="E185" t="s" s="16">
         <v>13</v>
       </c>
-      <c r="F185" t="s" s="13">
+      <c r="F185" t="s" s="16">
         <v>14</v>
       </c>
-      <c r="G185" t="s" s="13">
+      <c r="G185" t="s" s="16">
         <v>15</v>
       </c>
-      <c r="H185" t="s" s="13">
+      <c r="H185" t="s" s="16">
         <v>16</v>
       </c>
     </row>
@@ -5569,28 +5587,28 @@
       </c>
     </row>
     <row r="187">
-      <c r="B187" t="s" s="13">
+      <c r="B187" t="s" s="16">
         <v>17</v>
       </c>
-      <c r="C187" t="s" s="13">
+      <c r="C187" t="s" s="16">
         <v>18</v>
       </c>
-      <c r="D187" t="s" s="13">
+      <c r="D187" t="s" s="16">
         <v>19</v>
       </c>
-      <c r="E187" t="s" s="13">
+      <c r="E187" t="s" s="16">
         <v>20</v>
       </c>
-      <c r="F187" t="s" s="13">
+      <c r="F187" t="s" s="16">
         <v>21</v>
       </c>
-      <c r="G187" t="s" s="13">
+      <c r="G187" t="s" s="16">
         <v>22</v>
       </c>
-      <c r="H187" t="s" s="13">
+      <c r="H187" t="s" s="16">
         <v>23</v>
       </c>
-      <c r="I187" t="s" s="13">
+      <c r="I187" t="s" s="16">
         <v>11</v>
       </c>
     </row>
@@ -5678,10 +5696,10 @@
       <c r="I190">
         <f>((C190-C189)^2+(D190- D189)^2)^.5</f>
       </c>
-      <c r="J190" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K190" s="13" t="s">
+      <c r="J190" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K190" s="16" t="s">
         <v>24</v>
       </c>
       <c r="L190" t="n">
@@ -5725,28 +5743,28 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" t="s" s="13">
+      <c r="A192" t="s" s="16">
         <v>9</v>
       </c>
-      <c r="B192" t="s" s="13">
+      <c r="B192" t="s" s="16">
         <v>10</v>
       </c>
-      <c r="C192" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D192" t="s" s="13">
+      <c r="C192" t="s" s="16">
+        <v>11</v>
+      </c>
+      <c r="D192" t="s" s="16">
         <v>12</v>
       </c>
-      <c r="E192" t="s" s="13">
+      <c r="E192" t="s" s="16">
         <v>13</v>
       </c>
-      <c r="F192" t="s" s="13">
+      <c r="F192" t="s" s="16">
         <v>14</v>
       </c>
-      <c r="G192" t="s" s="13">
+      <c r="G192" t="s" s="16">
         <v>15</v>
       </c>
-      <c r="H192" t="s" s="13">
+      <c r="H192" t="s" s="16">
         <v>16</v>
       </c>
     </row>
@@ -5771,28 +5789,28 @@
       </c>
     </row>
     <row r="194">
-      <c r="B194" t="s" s="13">
+      <c r="B194" t="s" s="16">
         <v>17</v>
       </c>
-      <c r="C194" t="s" s="13">
+      <c r="C194" t="s" s="16">
         <v>18</v>
       </c>
-      <c r="D194" t="s" s="13">
+      <c r="D194" t="s" s="16">
         <v>19</v>
       </c>
-      <c r="E194" t="s" s="13">
+      <c r="E194" t="s" s="16">
         <v>20</v>
       </c>
-      <c r="F194" t="s" s="13">
+      <c r="F194" t="s" s="16">
         <v>21</v>
       </c>
-      <c r="G194" t="s" s="13">
+      <c r="G194" t="s" s="16">
         <v>22</v>
       </c>
-      <c r="H194" t="s" s="13">
+      <c r="H194" t="s" s="16">
         <v>23</v>
       </c>
-      <c r="I194" t="s" s="13">
+      <c r="I194" t="s" s="16">
         <v>11</v>
       </c>
     </row>
@@ -5851,10 +5869,10 @@
       <c r="I196">
         <f>((C196-C195)^2+(D196- D195)^2)^.5</f>
       </c>
-      <c r="J196" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K196" s="13" t="s">
+      <c r="J196" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K196" s="16" t="s">
         <v>24</v>
       </c>
       <c r="L196" t="n">
@@ -5898,28 +5916,28 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="s" s="13">
+      <c r="A198" t="s" s="16">
         <v>9</v>
       </c>
-      <c r="B198" t="s" s="13">
+      <c r="B198" t="s" s="16">
         <v>10</v>
       </c>
-      <c r="C198" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D198" t="s" s="13">
+      <c r="C198" t="s" s="16">
+        <v>11</v>
+      </c>
+      <c r="D198" t="s" s="16">
         <v>12</v>
       </c>
-      <c r="E198" t="s" s="13">
+      <c r="E198" t="s" s="16">
         <v>13</v>
       </c>
-      <c r="F198" t="s" s="13">
+      <c r="F198" t="s" s="16">
         <v>14</v>
       </c>
-      <c r="G198" t="s" s="13">
+      <c r="G198" t="s" s="16">
         <v>15</v>
       </c>
-      <c r="H198" t="s" s="13">
+      <c r="H198" t="s" s="16">
         <v>16</v>
       </c>
     </row>
@@ -5944,28 +5962,28 @@
       </c>
     </row>
     <row r="200">
-      <c r="B200" t="s" s="13">
+      <c r="B200" t="s" s="16">
         <v>17</v>
       </c>
-      <c r="C200" t="s" s="13">
+      <c r="C200" t="s" s="16">
         <v>18</v>
       </c>
-      <c r="D200" t="s" s="13">
+      <c r="D200" t="s" s="16">
         <v>19</v>
       </c>
-      <c r="E200" t="s" s="13">
+      <c r="E200" t="s" s="16">
         <v>20</v>
       </c>
-      <c r="F200" t="s" s="13">
+      <c r="F200" t="s" s="16">
         <v>21</v>
       </c>
-      <c r="G200" t="s" s="13">
+      <c r="G200" t="s" s="16">
         <v>22</v>
       </c>
-      <c r="H200" t="s" s="13">
+      <c r="H200" t="s" s="16">
         <v>23</v>
       </c>
-      <c r="I200" t="s" s="13">
+      <c r="I200" t="s" s="16">
         <v>11</v>
       </c>
     </row>
@@ -6082,10 +6100,10 @@
       <c r="I204">
         <f>((C204-C203)^2+(D204- D203)^2)^.5</f>
       </c>
-      <c r="J204" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K204" s="13" t="s">
+      <c r="J204" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K204" s="16" t="s">
         <v>24</v>
       </c>
       <c r="L204" t="n">
@@ -6129,28 +6147,28 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" t="s" s="13">
+      <c r="A206" t="s" s="16">
         <v>9</v>
       </c>
-      <c r="B206" t="s" s="13">
+      <c r="B206" t="s" s="16">
         <v>10</v>
       </c>
-      <c r="C206" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D206" t="s" s="13">
+      <c r="C206" t="s" s="16">
+        <v>11</v>
+      </c>
+      <c r="D206" t="s" s="16">
         <v>12</v>
       </c>
-      <c r="E206" t="s" s="13">
+      <c r="E206" t="s" s="16">
         <v>13</v>
       </c>
-      <c r="F206" t="s" s="13">
+      <c r="F206" t="s" s="16">
         <v>14</v>
       </c>
-      <c r="G206" t="s" s="13">
+      <c r="G206" t="s" s="16">
         <v>15</v>
       </c>
-      <c r="H206" t="s" s="13">
+      <c r="H206" t="s" s="16">
         <v>16</v>
       </c>
     </row>
@@ -6175,28 +6193,28 @@
       </c>
     </row>
     <row r="208">
-      <c r="B208" t="s" s="13">
+      <c r="B208" t="s" s="16">
         <v>17</v>
       </c>
-      <c r="C208" t="s" s="13">
+      <c r="C208" t="s" s="16">
         <v>18</v>
       </c>
-      <c r="D208" t="s" s="13">
+      <c r="D208" t="s" s="16">
         <v>19</v>
       </c>
-      <c r="E208" t="s" s="13">
+      <c r="E208" t="s" s="16">
         <v>20</v>
       </c>
-      <c r="F208" t="s" s="13">
+      <c r="F208" t="s" s="16">
         <v>21</v>
       </c>
-      <c r="G208" t="s" s="13">
+      <c r="G208" t="s" s="16">
         <v>22</v>
       </c>
-      <c r="H208" t="s" s="13">
+      <c r="H208" t="s" s="16">
         <v>23</v>
       </c>
-      <c r="I208" t="s" s="13">
+      <c r="I208" t="s" s="16">
         <v>11</v>
       </c>
     </row>
@@ -6313,10 +6331,10 @@
       <c r="I212">
         <f>((C212-C211)^2+(D212- D211)^2)^.5</f>
       </c>
-      <c r="J212" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K212" s="13" t="s">
+      <c r="J212" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K212" s="16" t="s">
         <v>24</v>
       </c>
       <c r="L212" t="n">
@@ -6360,28 +6378,28 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="s" s="13">
+      <c r="A214" t="s" s="16">
         <v>9</v>
       </c>
-      <c r="B214" t="s" s="13">
+      <c r="B214" t="s" s="16">
         <v>10</v>
       </c>
-      <c r="C214" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D214" t="s" s="13">
+      <c r="C214" t="s" s="16">
+        <v>11</v>
+      </c>
+      <c r="D214" t="s" s="16">
         <v>12</v>
       </c>
-      <c r="E214" t="s" s="13">
+      <c r="E214" t="s" s="16">
         <v>13</v>
       </c>
-      <c r="F214" t="s" s="13">
+      <c r="F214" t="s" s="16">
         <v>14</v>
       </c>
-      <c r="G214" t="s" s="13">
+      <c r="G214" t="s" s="16">
         <v>15</v>
       </c>
-      <c r="H214" t="s" s="13">
+      <c r="H214" t="s" s="16">
         <v>16</v>
       </c>
     </row>
@@ -6406,28 +6424,28 @@
       </c>
     </row>
     <row r="216">
-      <c r="B216" t="s" s="13">
+      <c r="B216" t="s" s="16">
         <v>17</v>
       </c>
-      <c r="C216" t="s" s="13">
+      <c r="C216" t="s" s="16">
         <v>18</v>
       </c>
-      <c r="D216" t="s" s="13">
+      <c r="D216" t="s" s="16">
         <v>19</v>
       </c>
-      <c r="E216" t="s" s="13">
+      <c r="E216" t="s" s="16">
         <v>20</v>
       </c>
-      <c r="F216" t="s" s="13">
+      <c r="F216" t="s" s="16">
         <v>21</v>
       </c>
-      <c r="G216" t="s" s="13">
+      <c r="G216" t="s" s="16">
         <v>22</v>
       </c>
-      <c r="H216" t="s" s="13">
+      <c r="H216" t="s" s="16">
         <v>23</v>
       </c>
-      <c r="I216" t="s" s="13">
+      <c r="I216" t="s" s="16">
         <v>11</v>
       </c>
     </row>
@@ -6486,10 +6504,10 @@
       <c r="I218">
         <f>((C218-C217)^2+(D218- D217)^2)^.5</f>
       </c>
-      <c r="J218" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K218" s="13" t="s">
+      <c r="J218" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K218" s="16" t="s">
         <v>24</v>
       </c>
       <c r="L218" t="n">
@@ -6533,28 +6551,28 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" t="s" s="13">
+      <c r="A220" t="s" s="16">
         <v>9</v>
       </c>
-      <c r="B220" t="s" s="13">
+      <c r="B220" t="s" s="16">
         <v>10</v>
       </c>
-      <c r="C220" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D220" t="s" s="13">
+      <c r="C220" t="s" s="16">
+        <v>11</v>
+      </c>
+      <c r="D220" t="s" s="16">
         <v>12</v>
       </c>
-      <c r="E220" t="s" s="13">
+      <c r="E220" t="s" s="16">
         <v>13</v>
       </c>
-      <c r="F220" t="s" s="13">
+      <c r="F220" t="s" s="16">
         <v>14</v>
       </c>
-      <c r="G220" t="s" s="13">
+      <c r="G220" t="s" s="16">
         <v>15</v>
       </c>
-      <c r="H220" t="s" s="13">
+      <c r="H220" t="s" s="16">
         <v>16</v>
       </c>
     </row>
@@ -6579,28 +6597,28 @@
       </c>
     </row>
     <row r="222">
-      <c r="B222" t="s" s="13">
+      <c r="B222" t="s" s="16">
         <v>17</v>
       </c>
-      <c r="C222" t="s" s="13">
+      <c r="C222" t="s" s="16">
         <v>18</v>
       </c>
-      <c r="D222" t="s" s="13">
+      <c r="D222" t="s" s="16">
         <v>19</v>
       </c>
-      <c r="E222" t="s" s="13">
+      <c r="E222" t="s" s="16">
         <v>20</v>
       </c>
-      <c r="F222" t="s" s="13">
+      <c r="F222" t="s" s="16">
         <v>21</v>
       </c>
-      <c r="G222" t="s" s="13">
+      <c r="G222" t="s" s="16">
         <v>22</v>
       </c>
-      <c r="H222" t="s" s="13">
+      <c r="H222" t="s" s="16">
         <v>23</v>
       </c>
-      <c r="I222" t="s" s="13">
+      <c r="I222" t="s" s="16">
         <v>11</v>
       </c>
     </row>
@@ -6688,10 +6706,10 @@
       <c r="I225">
         <f>((C225-C224)^2+(D225- D224)^2)^.5</f>
       </c>
-      <c r="J225" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K225" s="13" t="s">
+      <c r="J225" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K225" s="16" t="s">
         <v>24</v>
       </c>
       <c r="L225" t="n">
@@ -6735,28 +6753,28 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" t="s" s="13">
+      <c r="A227" t="s" s="16">
         <v>9</v>
       </c>
-      <c r="B227" t="s" s="13">
+      <c r="B227" t="s" s="16">
         <v>10</v>
       </c>
-      <c r="C227" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D227" t="s" s="13">
+      <c r="C227" t="s" s="16">
+        <v>11</v>
+      </c>
+      <c r="D227" t="s" s="16">
         <v>12</v>
       </c>
-      <c r="E227" t="s" s="13">
+      <c r="E227" t="s" s="16">
         <v>13</v>
       </c>
-      <c r="F227" t="s" s="13">
+      <c r="F227" t="s" s="16">
         <v>14</v>
       </c>
-      <c r="G227" t="s" s="13">
+      <c r="G227" t="s" s="16">
         <v>15</v>
       </c>
-      <c r="H227" t="s" s="13">
+      <c r="H227" t="s" s="16">
         <v>16</v>
       </c>
     </row>
@@ -6781,28 +6799,28 @@
       </c>
     </row>
     <row r="229">
-      <c r="B229" t="s" s="13">
+      <c r="B229" t="s" s="16">
         <v>17</v>
       </c>
-      <c r="C229" t="s" s="13">
+      <c r="C229" t="s" s="16">
         <v>18</v>
       </c>
-      <c r="D229" t="s" s="13">
+      <c r="D229" t="s" s="16">
         <v>19</v>
       </c>
-      <c r="E229" t="s" s="13">
+      <c r="E229" t="s" s="16">
         <v>20</v>
       </c>
-      <c r="F229" t="s" s="13">
+      <c r="F229" t="s" s="16">
         <v>21</v>
       </c>
-      <c r="G229" t="s" s="13">
+      <c r="G229" t="s" s="16">
         <v>22</v>
       </c>
-      <c r="H229" t="s" s="13">
+      <c r="H229" t="s" s="16">
         <v>23</v>
       </c>
-      <c r="I229" t="s" s="13">
+      <c r="I229" t="s" s="16">
         <v>11</v>
       </c>
     </row>
@@ -6861,10 +6879,10 @@
       <c r="I231">
         <f>((C231-C230)^2+(D231- D230)^2)^.5</f>
       </c>
-      <c r="J231" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K231" s="13" t="s">
+      <c r="J231" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K231" s="16" t="s">
         <v>24</v>
       </c>
       <c r="L231" t="n">
@@ -6908,28 +6926,28 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" t="s" s="13">
+      <c r="A233" t="s" s="16">
         <v>9</v>
       </c>
-      <c r="B233" t="s" s="13">
+      <c r="B233" t="s" s="16">
         <v>10</v>
       </c>
-      <c r="C233" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D233" t="s" s="13">
+      <c r="C233" t="s" s="16">
+        <v>11</v>
+      </c>
+      <c r="D233" t="s" s="16">
         <v>12</v>
       </c>
-      <c r="E233" t="s" s="13">
+      <c r="E233" t="s" s="16">
         <v>13</v>
       </c>
-      <c r="F233" t="s" s="13">
+      <c r="F233" t="s" s="16">
         <v>14</v>
       </c>
-      <c r="G233" t="s" s="13">
+      <c r="G233" t="s" s="16">
         <v>15</v>
       </c>
-      <c r="H233" t="s" s="13">
+      <c r="H233" t="s" s="16">
         <v>16</v>
       </c>
     </row>
@@ -6954,28 +6972,28 @@
       </c>
     </row>
     <row r="235">
-      <c r="B235" t="s" s="13">
+      <c r="B235" t="s" s="16">
         <v>17</v>
       </c>
-      <c r="C235" t="s" s="13">
+      <c r="C235" t="s" s="16">
         <v>18</v>
       </c>
-      <c r="D235" t="s" s="13">
+      <c r="D235" t="s" s="16">
         <v>19</v>
       </c>
-      <c r="E235" t="s" s="13">
+      <c r="E235" t="s" s="16">
         <v>20</v>
       </c>
-      <c r="F235" t="s" s="13">
+      <c r="F235" t="s" s="16">
         <v>21</v>
       </c>
-      <c r="G235" t="s" s="13">
+      <c r="G235" t="s" s="16">
         <v>22</v>
       </c>
-      <c r="H235" t="s" s="13">
+      <c r="H235" t="s" s="16">
         <v>23</v>
       </c>
-      <c r="I235" t="s" s="13">
+      <c r="I235" t="s" s="16">
         <v>11</v>
       </c>
     </row>
@@ -7034,10 +7052,10 @@
       <c r="I237">
         <f>((C237-C236)^2+(D237- D236)^2)^.5</f>
       </c>
-      <c r="J237" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K237" s="13" t="s">
+      <c r="J237" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K237" s="16" t="s">
         <v>24</v>
       </c>
       <c r="L237" t="n">
@@ -7081,28 +7099,28 @@
       </c>
     </row>
     <row r="239">
-      <c r="A239" t="s" s="13">
+      <c r="A239" t="s" s="16">
         <v>9</v>
       </c>
-      <c r="B239" t="s" s="13">
+      <c r="B239" t="s" s="16">
         <v>10</v>
       </c>
-      <c r="C239" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D239" t="s" s="13">
+      <c r="C239" t="s" s="16">
+        <v>11</v>
+      </c>
+      <c r="D239" t="s" s="16">
         <v>12</v>
       </c>
-      <c r="E239" t="s" s="13">
+      <c r="E239" t="s" s="16">
         <v>13</v>
       </c>
-      <c r="F239" t="s" s="13">
+      <c r="F239" t="s" s="16">
         <v>14</v>
       </c>
-      <c r="G239" t="s" s="13">
+      <c r="G239" t="s" s="16">
         <v>15</v>
       </c>
-      <c r="H239" t="s" s="13">
+      <c r="H239" t="s" s="16">
         <v>16</v>
       </c>
     </row>
@@ -7127,28 +7145,28 @@
       </c>
     </row>
     <row r="241">
-      <c r="B241" t="s" s="13">
+      <c r="B241" t="s" s="16">
         <v>17</v>
       </c>
-      <c r="C241" t="s" s="13">
+      <c r="C241" t="s" s="16">
         <v>18</v>
       </c>
-      <c r="D241" t="s" s="13">
+      <c r="D241" t="s" s="16">
         <v>19</v>
       </c>
-      <c r="E241" t="s" s="13">
+      <c r="E241" t="s" s="16">
         <v>20</v>
       </c>
-      <c r="F241" t="s" s="13">
+      <c r="F241" t="s" s="16">
         <v>21</v>
       </c>
-      <c r="G241" t="s" s="13">
+      <c r="G241" t="s" s="16">
         <v>22</v>
       </c>
-      <c r="H241" t="s" s="13">
+      <c r="H241" t="s" s="16">
         <v>23</v>
       </c>
-      <c r="I241" t="s" s="13">
+      <c r="I241" t="s" s="16">
         <v>11</v>
       </c>
     </row>
@@ -7207,10 +7225,10 @@
       <c r="I243">
         <f>((C243-C242)^2+(D243- D242)^2)^.5</f>
       </c>
-      <c r="J243" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K243" s="13" t="s">
+      <c r="J243" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K243" s="16" t="s">
         <v>24</v>
       </c>
       <c r="L243" t="n">
@@ -7254,28 +7272,28 @@
       </c>
     </row>
     <row r="245">
-      <c r="A245" t="s" s="13">
+      <c r="A245" t="s" s="16">
         <v>9</v>
       </c>
-      <c r="B245" t="s" s="13">
+      <c r="B245" t="s" s="16">
         <v>10</v>
       </c>
-      <c r="C245" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D245" t="s" s="13">
+      <c r="C245" t="s" s="16">
+        <v>11</v>
+      </c>
+      <c r="D245" t="s" s="16">
         <v>12</v>
       </c>
-      <c r="E245" t="s" s="13">
+      <c r="E245" t="s" s="16">
         <v>13</v>
       </c>
-      <c r="F245" t="s" s="13">
+      <c r="F245" t="s" s="16">
         <v>14</v>
       </c>
-      <c r="G245" t="s" s="13">
+      <c r="G245" t="s" s="16">
         <v>15</v>
       </c>
-      <c r="H245" t="s" s="13">
+      <c r="H245" t="s" s="16">
         <v>16</v>
       </c>
     </row>
@@ -7300,28 +7318,28 @@
       </c>
     </row>
     <row r="247">
-      <c r="B247" t="s" s="13">
+      <c r="B247" t="s" s="16">
         <v>17</v>
       </c>
-      <c r="C247" t="s" s="13">
+      <c r="C247" t="s" s="16">
         <v>18</v>
       </c>
-      <c r="D247" t="s" s="13">
+      <c r="D247" t="s" s="16">
         <v>19</v>
       </c>
-      <c r="E247" t="s" s="13">
+      <c r="E247" t="s" s="16">
         <v>20</v>
       </c>
-      <c r="F247" t="s" s="13">
+      <c r="F247" t="s" s="16">
         <v>21</v>
       </c>
-      <c r="G247" t="s" s="13">
+      <c r="G247" t="s" s="16">
         <v>22</v>
       </c>
-      <c r="H247" t="s" s="13">
+      <c r="H247" t="s" s="16">
         <v>23</v>
       </c>
-      <c r="I247" t="s" s="13">
+      <c r="I247" t="s" s="16">
         <v>11</v>
       </c>
     </row>
@@ -7380,10 +7398,10 @@
       <c r="I249">
         <f>((C249-C248)^2+(D249- D248)^2)^.5</f>
       </c>
-      <c r="J249" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K249" s="13" t="s">
+      <c r="J249" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K249" s="16" t="s">
         <v>24</v>
       </c>
       <c r="L249" t="n">
@@ -7427,28 +7445,28 @@
       </c>
     </row>
     <row r="251">
-      <c r="A251" t="s" s="13">
+      <c r="A251" t="s" s="16">
         <v>9</v>
       </c>
-      <c r="B251" t="s" s="13">
+      <c r="B251" t="s" s="16">
         <v>10</v>
       </c>
-      <c r="C251" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D251" t="s" s="13">
+      <c r="C251" t="s" s="16">
+        <v>11</v>
+      </c>
+      <c r="D251" t="s" s="16">
         <v>12</v>
       </c>
-      <c r="E251" t="s" s="13">
+      <c r="E251" t="s" s="16">
         <v>13</v>
       </c>
-      <c r="F251" t="s" s="13">
+      <c r="F251" t="s" s="16">
         <v>14</v>
       </c>
-      <c r="G251" t="s" s="13">
+      <c r="G251" t="s" s="16">
         <v>15</v>
       </c>
-      <c r="H251" t="s" s="13">
+      <c r="H251" t="s" s="16">
         <v>16</v>
       </c>
     </row>
@@ -7473,28 +7491,28 @@
       </c>
     </row>
     <row r="253">
-      <c r="B253" t="s" s="13">
+      <c r="B253" t="s" s="16">
         <v>17</v>
       </c>
-      <c r="C253" t="s" s="13">
+      <c r="C253" t="s" s="16">
         <v>18</v>
       </c>
-      <c r="D253" t="s" s="13">
+      <c r="D253" t="s" s="16">
         <v>19</v>
       </c>
-      <c r="E253" t="s" s="13">
+      <c r="E253" t="s" s="16">
         <v>20</v>
       </c>
-      <c r="F253" t="s" s="13">
+      <c r="F253" t="s" s="16">
         <v>21</v>
       </c>
-      <c r="G253" t="s" s="13">
+      <c r="G253" t="s" s="16">
         <v>22</v>
       </c>
-      <c r="H253" t="s" s="13">
+      <c r="H253" t="s" s="16">
         <v>23</v>
       </c>
-      <c r="I253" t="s" s="13">
+      <c r="I253" t="s" s="16">
         <v>11</v>
       </c>
     </row>
@@ -7640,10 +7658,10 @@
       <c r="I258">
         <f>((C258-C257)^2+(D258- D257)^2)^.5</f>
       </c>
-      <c r="J258" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K258" s="13" t="s">
+      <c r="J258" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K258" s="16" t="s">
         <v>24</v>
       </c>
       <c r="L258" t="n">
@@ -7687,28 +7705,28 @@
       </c>
     </row>
     <row r="260">
-      <c r="A260" t="s" s="13">
+      <c r="A260" t="s" s="16">
         <v>9</v>
       </c>
-      <c r="B260" t="s" s="13">
+      <c r="B260" t="s" s="16">
         <v>10</v>
       </c>
-      <c r="C260" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D260" t="s" s="13">
+      <c r="C260" t="s" s="16">
+        <v>11</v>
+      </c>
+      <c r="D260" t="s" s="16">
         <v>12</v>
       </c>
-      <c r="E260" t="s" s="13">
+      <c r="E260" t="s" s="16">
         <v>13</v>
       </c>
-      <c r="F260" t="s" s="13">
+      <c r="F260" t="s" s="16">
         <v>14</v>
       </c>
-      <c r="G260" t="s" s="13">
+      <c r="G260" t="s" s="16">
         <v>15</v>
       </c>
-      <c r="H260" t="s" s="13">
+      <c r="H260" t="s" s="16">
         <v>16</v>
       </c>
     </row>
@@ -7733,28 +7751,28 @@
       </c>
     </row>
     <row r="262">
-      <c r="B262" t="s" s="13">
+      <c r="B262" t="s" s="16">
         <v>17</v>
       </c>
-      <c r="C262" t="s" s="13">
+      <c r="C262" t="s" s="16">
         <v>18</v>
       </c>
-      <c r="D262" t="s" s="13">
+      <c r="D262" t="s" s="16">
         <v>19</v>
       </c>
-      <c r="E262" t="s" s="13">
+      <c r="E262" t="s" s="16">
         <v>20</v>
       </c>
-      <c r="F262" t="s" s="13">
+      <c r="F262" t="s" s="16">
         <v>21</v>
       </c>
-      <c r="G262" t="s" s="13">
+      <c r="G262" t="s" s="16">
         <v>22</v>
       </c>
-      <c r="H262" t="s" s="13">
+      <c r="H262" t="s" s="16">
         <v>23</v>
       </c>
-      <c r="I262" t="s" s="13">
+      <c r="I262" t="s" s="16">
         <v>11</v>
       </c>
     </row>
@@ -7842,10 +7860,10 @@
       <c r="I265">
         <f>((C265-C264)^2+(D265- D264)^2)^.5</f>
       </c>
-      <c r="J265" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K265" s="13" t="s">
+      <c r="J265" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K265" s="16" t="s">
         <v>24</v>
       </c>
       <c r="L265" t="n">
@@ -7889,28 +7907,28 @@
       </c>
     </row>
     <row r="267">
-      <c r="A267" t="s" s="13">
+      <c r="A267" t="s" s="16">
         <v>9</v>
       </c>
-      <c r="B267" t="s" s="13">
+      <c r="B267" t="s" s="16">
         <v>10</v>
       </c>
-      <c r="C267" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D267" t="s" s="13">
+      <c r="C267" t="s" s="16">
+        <v>11</v>
+      </c>
+      <c r="D267" t="s" s="16">
         <v>12</v>
       </c>
-      <c r="E267" t="s" s="13">
+      <c r="E267" t="s" s="16">
         <v>13</v>
       </c>
-      <c r="F267" t="s" s="13">
+      <c r="F267" t="s" s="16">
         <v>14</v>
       </c>
-      <c r="G267" t="s" s="13">
+      <c r="G267" t="s" s="16">
         <v>15</v>
       </c>
-      <c r="H267" t="s" s="13">
+      <c r="H267" t="s" s="16">
         <v>16</v>
       </c>
     </row>
@@ -7935,28 +7953,28 @@
       </c>
     </row>
     <row r="269">
-      <c r="B269" t="s" s="13">
+      <c r="B269" t="s" s="16">
         <v>17</v>
       </c>
-      <c r="C269" t="s" s="13">
+      <c r="C269" t="s" s="16">
         <v>18</v>
       </c>
-      <c r="D269" t="s" s="13">
+      <c r="D269" t="s" s="16">
         <v>19</v>
       </c>
-      <c r="E269" t="s" s="13">
+      <c r="E269" t="s" s="16">
         <v>20</v>
       </c>
-      <c r="F269" t="s" s="13">
+      <c r="F269" t="s" s="16">
         <v>21</v>
       </c>
-      <c r="G269" t="s" s="13">
+      <c r="G269" t="s" s="16">
         <v>22</v>
       </c>
-      <c r="H269" t="s" s="13">
+      <c r="H269" t="s" s="16">
         <v>23</v>
       </c>
-      <c r="I269" t="s" s="13">
+      <c r="I269" t="s" s="16">
         <v>11</v>
       </c>
     </row>
@@ -8015,10 +8033,10 @@
       <c r="I271">
         <f>((C271-C270)^2+(D271- D270)^2)^.5</f>
       </c>
-      <c r="J271" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K271" s="13" t="s">
+      <c r="J271" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K271" s="16" t="s">
         <v>24</v>
       </c>
       <c r="L271" t="n">
@@ -8062,28 +8080,28 @@
       </c>
     </row>
     <row r="273">
-      <c r="A273" t="s" s="13">
+      <c r="A273" t="s" s="16">
         <v>9</v>
       </c>
-      <c r="B273" t="s" s="13">
+      <c r="B273" t="s" s="16">
         <v>10</v>
       </c>
-      <c r="C273" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D273" t="s" s="13">
+      <c r="C273" t="s" s="16">
+        <v>11</v>
+      </c>
+      <c r="D273" t="s" s="16">
         <v>12</v>
       </c>
-      <c r="E273" t="s" s="13">
+      <c r="E273" t="s" s="16">
         <v>13</v>
       </c>
-      <c r="F273" t="s" s="13">
+      <c r="F273" t="s" s="16">
         <v>14</v>
       </c>
-      <c r="G273" t="s" s="13">
+      <c r="G273" t="s" s="16">
         <v>15</v>
       </c>
-      <c r="H273" t="s" s="13">
+      <c r="H273" t="s" s="16">
         <v>16</v>
       </c>
     </row>
@@ -8108,28 +8126,28 @@
       </c>
     </row>
     <row r="275">
-      <c r="B275" t="s" s="13">
+      <c r="B275" t="s" s="16">
         <v>17</v>
       </c>
-      <c r="C275" t="s" s="13">
+      <c r="C275" t="s" s="16">
         <v>18</v>
       </c>
-      <c r="D275" t="s" s="13">
+      <c r="D275" t="s" s="16">
         <v>19</v>
       </c>
-      <c r="E275" t="s" s="13">
+      <c r="E275" t="s" s="16">
         <v>20</v>
       </c>
-      <c r="F275" t="s" s="13">
+      <c r="F275" t="s" s="16">
         <v>21</v>
       </c>
-      <c r="G275" t="s" s="13">
+      <c r="G275" t="s" s="16">
         <v>22</v>
       </c>
-      <c r="H275" t="s" s="13">
+      <c r="H275" t="s" s="16">
         <v>23</v>
       </c>
-      <c r="I275" t="s" s="13">
+      <c r="I275" t="s" s="16">
         <v>11</v>
       </c>
     </row>
@@ -8217,10 +8235,10 @@
       <c r="I278">
         <f>((C278-C277)^2+(D278- D277)^2)^.5</f>
       </c>
-      <c r="J278" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K278" s="13" t="s">
+      <c r="J278" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K278" s="16" t="s">
         <v>24</v>
       </c>
       <c r="L278" t="n">
@@ -8264,28 +8282,28 @@
       </c>
     </row>
     <row r="280">
-      <c r="A280" t="s" s="13">
+      <c r="A280" t="s" s="16">
         <v>9</v>
       </c>
-      <c r="B280" t="s" s="13">
+      <c r="B280" t="s" s="16">
         <v>10</v>
       </c>
-      <c r="C280" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D280" t="s" s="13">
+      <c r="C280" t="s" s="16">
+        <v>11</v>
+      </c>
+      <c r="D280" t="s" s="16">
         <v>12</v>
       </c>
-      <c r="E280" t="s" s="13">
+      <c r="E280" t="s" s="16">
         <v>13</v>
       </c>
-      <c r="F280" t="s" s="13">
+      <c r="F280" t="s" s="16">
         <v>14</v>
       </c>
-      <c r="G280" t="s" s="13">
+      <c r="G280" t="s" s="16">
         <v>15</v>
       </c>
-      <c r="H280" t="s" s="13">
+      <c r="H280" t="s" s="16">
         <v>16</v>
       </c>
     </row>
@@ -8310,28 +8328,28 @@
       </c>
     </row>
     <row r="282">
-      <c r="B282" t="s" s="13">
+      <c r="B282" t="s" s="16">
         <v>17</v>
       </c>
-      <c r="C282" t="s" s="13">
+      <c r="C282" t="s" s="16">
         <v>18</v>
       </c>
-      <c r="D282" t="s" s="13">
+      <c r="D282" t="s" s="16">
         <v>19</v>
       </c>
-      <c r="E282" t="s" s="13">
+      <c r="E282" t="s" s="16">
         <v>20</v>
       </c>
-      <c r="F282" t="s" s="13">
+      <c r="F282" t="s" s="16">
         <v>21</v>
       </c>
-      <c r="G282" t="s" s="13">
+      <c r="G282" t="s" s="16">
         <v>22</v>
       </c>
-      <c r="H282" t="s" s="13">
+      <c r="H282" t="s" s="16">
         <v>23</v>
       </c>
-      <c r="I282" t="s" s="13">
+      <c r="I282" t="s" s="16">
         <v>11</v>
       </c>
     </row>
@@ -8390,10 +8408,10 @@
       <c r="I284">
         <f>((C284-C283)^2+(D284- D283)^2)^.5</f>
       </c>
-      <c r="J284" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K284" s="13" t="s">
+      <c r="J284" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K284" s="16" t="s">
         <v>24</v>
       </c>
       <c r="L284" t="n">
@@ -8437,28 +8455,28 @@
       </c>
     </row>
     <row r="286">
-      <c r="A286" t="s" s="13">
+      <c r="A286" t="s" s="16">
         <v>9</v>
       </c>
-      <c r="B286" t="s" s="13">
+      <c r="B286" t="s" s="16">
         <v>10</v>
       </c>
-      <c r="C286" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D286" t="s" s="13">
+      <c r="C286" t="s" s="16">
+        <v>11</v>
+      </c>
+      <c r="D286" t="s" s="16">
         <v>12</v>
       </c>
-      <c r="E286" t="s" s="13">
+      <c r="E286" t="s" s="16">
         <v>13</v>
       </c>
-      <c r="F286" t="s" s="13">
+      <c r="F286" t="s" s="16">
         <v>14</v>
       </c>
-      <c r="G286" t="s" s="13">
+      <c r="G286" t="s" s="16">
         <v>15</v>
       </c>
-      <c r="H286" t="s" s="13">
+      <c r="H286" t="s" s="16">
         <v>16</v>
       </c>
     </row>
@@ -8483,28 +8501,28 @@
       </c>
     </row>
     <row r="288">
-      <c r="B288" t="s" s="13">
+      <c r="B288" t="s" s="16">
         <v>17</v>
       </c>
-      <c r="C288" t="s" s="13">
+      <c r="C288" t="s" s="16">
         <v>18</v>
       </c>
-      <c r="D288" t="s" s="13">
+      <c r="D288" t="s" s="16">
         <v>19</v>
       </c>
-      <c r="E288" t="s" s="13">
+      <c r="E288" t="s" s="16">
         <v>20</v>
       </c>
-      <c r="F288" t="s" s="13">
+      <c r="F288" t="s" s="16">
         <v>21</v>
       </c>
-      <c r="G288" t="s" s="13">
+      <c r="G288" t="s" s="16">
         <v>22</v>
       </c>
-      <c r="H288" t="s" s="13">
+      <c r="H288" t="s" s="16">
         <v>23</v>
       </c>
-      <c r="I288" t="s" s="13">
+      <c r="I288" t="s" s="16">
         <v>11</v>
       </c>
     </row>
@@ -8563,10 +8581,10 @@
       <c r="I290">
         <f>((C290-C289)^2+(D290- D289)^2)^.5</f>
       </c>
-      <c r="J290" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K290" s="13" t="s">
+      <c r="J290" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K290" s="16" t="s">
         <v>24</v>
       </c>
       <c r="L290" t="n">
@@ -8610,28 +8628,28 @@
       </c>
     </row>
     <row r="292">
-      <c r="A292" t="s" s="13">
+      <c r="A292" t="s" s="16">
         <v>9</v>
       </c>
-      <c r="B292" t="s" s="13">
+      <c r="B292" t="s" s="16">
         <v>10</v>
       </c>
-      <c r="C292" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D292" t="s" s="13">
+      <c r="C292" t="s" s="16">
+        <v>11</v>
+      </c>
+      <c r="D292" t="s" s="16">
         <v>12</v>
       </c>
-      <c r="E292" t="s" s="13">
+      <c r="E292" t="s" s="16">
         <v>13</v>
       </c>
-      <c r="F292" t="s" s="13">
+      <c r="F292" t="s" s="16">
         <v>14</v>
       </c>
-      <c r="G292" t="s" s="13">
+      <c r="G292" t="s" s="16">
         <v>15</v>
       </c>
-      <c r="H292" t="s" s="13">
+      <c r="H292" t="s" s="16">
         <v>16</v>
       </c>
     </row>
@@ -8656,28 +8674,28 @@
       </c>
     </row>
     <row r="294">
-      <c r="B294" t="s" s="13">
+      <c r="B294" t="s" s="16">
         <v>17</v>
       </c>
-      <c r="C294" t="s" s="13">
+      <c r="C294" t="s" s="16">
         <v>18</v>
       </c>
-      <c r="D294" t="s" s="13">
+      <c r="D294" t="s" s="16">
         <v>19</v>
       </c>
-      <c r="E294" t="s" s="13">
+      <c r="E294" t="s" s="16">
         <v>20</v>
       </c>
-      <c r="F294" t="s" s="13">
+      <c r="F294" t="s" s="16">
         <v>21</v>
       </c>
-      <c r="G294" t="s" s="13">
+      <c r="G294" t="s" s="16">
         <v>22</v>
       </c>
-      <c r="H294" t="s" s="13">
+      <c r="H294" t="s" s="16">
         <v>23</v>
       </c>
-      <c r="I294" t="s" s="13">
+      <c r="I294" t="s" s="16">
         <v>11</v>
       </c>
     </row>
@@ -8736,10 +8754,10 @@
       <c r="I296">
         <f>((C296-C295)^2+(D296- D295)^2)^.5</f>
       </c>
-      <c r="J296" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K296" s="13" t="s">
+      <c r="J296" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K296" s="16" t="s">
         <v>24</v>
       </c>
       <c r="L296" t="n">
@@ -8783,28 +8801,28 @@
       </c>
     </row>
     <row r="298">
-      <c r="A298" t="s" s="13">
+      <c r="A298" t="s" s="16">
         <v>9</v>
       </c>
-      <c r="B298" t="s" s="13">
+      <c r="B298" t="s" s="16">
         <v>10</v>
       </c>
-      <c r="C298" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D298" t="s" s="13">
+      <c r="C298" t="s" s="16">
+        <v>11</v>
+      </c>
+      <c r="D298" t="s" s="16">
         <v>12</v>
       </c>
-      <c r="E298" t="s" s="13">
+      <c r="E298" t="s" s="16">
         <v>13</v>
       </c>
-      <c r="F298" t="s" s="13">
+      <c r="F298" t="s" s="16">
         <v>14</v>
       </c>
-      <c r="G298" t="s" s="13">
+      <c r="G298" t="s" s="16">
         <v>15</v>
       </c>
-      <c r="H298" t="s" s="13">
+      <c r="H298" t="s" s="16">
         <v>16</v>
       </c>
     </row>
@@ -8829,28 +8847,28 @@
       </c>
     </row>
     <row r="300">
-      <c r="B300" t="s" s="13">
+      <c r="B300" t="s" s="16">
         <v>17</v>
       </c>
-      <c r="C300" t="s" s="13">
+      <c r="C300" t="s" s="16">
         <v>18</v>
       </c>
-      <c r="D300" t="s" s="13">
+      <c r="D300" t="s" s="16">
         <v>19</v>
       </c>
-      <c r="E300" t="s" s="13">
+      <c r="E300" t="s" s="16">
         <v>20</v>
       </c>
-      <c r="F300" t="s" s="13">
+      <c r="F300" t="s" s="16">
         <v>21</v>
       </c>
-      <c r="G300" t="s" s="13">
+      <c r="G300" t="s" s="16">
         <v>22</v>
       </c>
-      <c r="H300" t="s" s="13">
+      <c r="H300" t="s" s="16">
         <v>23</v>
       </c>
-      <c r="I300" t="s" s="13">
+      <c r="I300" t="s" s="16">
         <v>11</v>
       </c>
     </row>
@@ -8909,10 +8927,10 @@
       <c r="I302">
         <f>((C302-C301)^2+(D302- D301)^2)^.5</f>
       </c>
-      <c r="J302" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K302" s="13" t="s">
+      <c r="J302" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K302" s="16" t="s">
         <v>24</v>
       </c>
       <c r="L302" t="n">
@@ -8956,28 +8974,28 @@
       </c>
     </row>
     <row r="304">
-      <c r="A304" t="s" s="13">
+      <c r="A304" t="s" s="16">
         <v>9</v>
       </c>
-      <c r="B304" t="s" s="13">
+      <c r="B304" t="s" s="16">
         <v>10</v>
       </c>
-      <c r="C304" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D304" t="s" s="13">
+      <c r="C304" t="s" s="16">
+        <v>11</v>
+      </c>
+      <c r="D304" t="s" s="16">
         <v>12</v>
       </c>
-      <c r="E304" t="s" s="13">
+      <c r="E304" t="s" s="16">
         <v>13</v>
       </c>
-      <c r="F304" t="s" s="13">
+      <c r="F304" t="s" s="16">
         <v>14</v>
       </c>
-      <c r="G304" t="s" s="13">
+      <c r="G304" t="s" s="16">
         <v>15</v>
       </c>
-      <c r="H304" t="s" s="13">
+      <c r="H304" t="s" s="16">
         <v>16</v>
       </c>
     </row>
@@ -9002,28 +9020,28 @@
       </c>
     </row>
     <row r="306">
-      <c r="B306" t="s" s="13">
+      <c r="B306" t="s" s="16">
         <v>17</v>
       </c>
-      <c r="C306" t="s" s="13">
+      <c r="C306" t="s" s="16">
         <v>18</v>
       </c>
-      <c r="D306" t="s" s="13">
+      <c r="D306" t="s" s="16">
         <v>19</v>
       </c>
-      <c r="E306" t="s" s="13">
+      <c r="E306" t="s" s="16">
         <v>20</v>
       </c>
-      <c r="F306" t="s" s="13">
+      <c r="F306" t="s" s="16">
         <v>21</v>
       </c>
-      <c r="G306" t="s" s="13">
+      <c r="G306" t="s" s="16">
         <v>22</v>
       </c>
-      <c r="H306" t="s" s="13">
+      <c r="H306" t="s" s="16">
         <v>23</v>
       </c>
-      <c r="I306" t="s" s="13">
+      <c r="I306" t="s" s="16">
         <v>11</v>
       </c>
     </row>
@@ -9082,10 +9100,10 @@
       <c r="I308">
         <f>((C308-C307)^2+(D308- D307)^2)^.5</f>
       </c>
-      <c r="J308" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K308" s="13" t="s">
+      <c r="J308" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K308" s="16" t="s">
         <v>24</v>
       </c>
       <c r="L308" t="n">
@@ -9129,28 +9147,28 @@
       </c>
     </row>
     <row r="310">
-      <c r="A310" t="s" s="13">
+      <c r="A310" t="s" s="16">
         <v>9</v>
       </c>
-      <c r="B310" t="s" s="13">
+      <c r="B310" t="s" s="16">
         <v>10</v>
       </c>
-      <c r="C310" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D310" t="s" s="13">
+      <c r="C310" t="s" s="16">
+        <v>11</v>
+      </c>
+      <c r="D310" t="s" s="16">
         <v>12</v>
       </c>
-      <c r="E310" t="s" s="13">
+      <c r="E310" t="s" s="16">
         <v>13</v>
       </c>
-      <c r="F310" t="s" s="13">
+      <c r="F310" t="s" s="16">
         <v>14</v>
       </c>
-      <c r="G310" t="s" s="13">
+      <c r="G310" t="s" s="16">
         <v>15</v>
       </c>
-      <c r="H310" t="s" s="13">
+      <c r="H310" t="s" s="16">
         <v>16</v>
       </c>
     </row>
@@ -9175,28 +9193,28 @@
       </c>
     </row>
     <row r="312">
-      <c r="B312" t="s" s="13">
+      <c r="B312" t="s" s="16">
         <v>17</v>
       </c>
-      <c r="C312" t="s" s="13">
+      <c r="C312" t="s" s="16">
         <v>18</v>
       </c>
-      <c r="D312" t="s" s="13">
+      <c r="D312" t="s" s="16">
         <v>19</v>
       </c>
-      <c r="E312" t="s" s="13">
+      <c r="E312" t="s" s="16">
         <v>20</v>
       </c>
-      <c r="F312" t="s" s="13">
+      <c r="F312" t="s" s="16">
         <v>21</v>
       </c>
-      <c r="G312" t="s" s="13">
+      <c r="G312" t="s" s="16">
         <v>22</v>
       </c>
-      <c r="H312" t="s" s="13">
+      <c r="H312" t="s" s="16">
         <v>23</v>
       </c>
-      <c r="I312" t="s" s="13">
+      <c r="I312" t="s" s="16">
         <v>11</v>
       </c>
     </row>
@@ -9284,10 +9302,10 @@
       <c r="I315">
         <f>((C315-C314)^2+(D315- D314)^2)^.5</f>
       </c>
-      <c r="J315" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K315" s="13" t="s">
+      <c r="J315" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K315" s="16" t="s">
         <v>24</v>
       </c>
       <c r="L315" t="n">
@@ -9331,28 +9349,28 @@
       </c>
     </row>
     <row r="317">
-      <c r="A317" t="s" s="13">
+      <c r="A317" t="s" s="16">
         <v>9</v>
       </c>
-      <c r="B317" t="s" s="13">
+      <c r="B317" t="s" s="16">
         <v>10</v>
       </c>
-      <c r="C317" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D317" t="s" s="13">
+      <c r="C317" t="s" s="16">
+        <v>11</v>
+      </c>
+      <c r="D317" t="s" s="16">
         <v>12</v>
       </c>
-      <c r="E317" t="s" s="13">
+      <c r="E317" t="s" s="16">
         <v>13</v>
       </c>
-      <c r="F317" t="s" s="13">
+      <c r="F317" t="s" s="16">
         <v>14</v>
       </c>
-      <c r="G317" t="s" s="13">
+      <c r="G317" t="s" s="16">
         <v>15</v>
       </c>
-      <c r="H317" t="s" s="13">
+      <c r="H317" t="s" s="16">
         <v>16</v>
       </c>
     </row>
@@ -9377,28 +9395,28 @@
       </c>
     </row>
     <row r="319">
-      <c r="B319" t="s" s="13">
+      <c r="B319" t="s" s="16">
         <v>17</v>
       </c>
-      <c r="C319" t="s" s="13">
+      <c r="C319" t="s" s="16">
         <v>18</v>
       </c>
-      <c r="D319" t="s" s="13">
+      <c r="D319" t="s" s="16">
         <v>19</v>
       </c>
-      <c r="E319" t="s" s="13">
+      <c r="E319" t="s" s="16">
         <v>20</v>
       </c>
-      <c r="F319" t="s" s="13">
+      <c r="F319" t="s" s="16">
         <v>21</v>
       </c>
-      <c r="G319" t="s" s="13">
+      <c r="G319" t="s" s="16">
         <v>22</v>
       </c>
-      <c r="H319" t="s" s="13">
+      <c r="H319" t="s" s="16">
         <v>23</v>
       </c>
-      <c r="I319" t="s" s="13">
+      <c r="I319" t="s" s="16">
         <v>11</v>
       </c>
     </row>
@@ -9457,10 +9475,10 @@
       <c r="I321">
         <f>((C321-C320)^2+(D321- D320)^2)^.5</f>
       </c>
-      <c r="J321" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K321" s="13" t="s">
+      <c r="J321" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K321" s="16" t="s">
         <v>24</v>
       </c>
       <c r="L321" t="n">
@@ -9504,28 +9522,28 @@
       </c>
     </row>
     <row r="323">
-      <c r="A323" t="s" s="13">
+      <c r="A323" t="s" s="16">
         <v>9</v>
       </c>
-      <c r="B323" t="s" s="13">
+      <c r="B323" t="s" s="16">
         <v>10</v>
       </c>
-      <c r="C323" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D323" t="s" s="13">
+      <c r="C323" t="s" s="16">
+        <v>11</v>
+      </c>
+      <c r="D323" t="s" s="16">
         <v>12</v>
       </c>
-      <c r="E323" t="s" s="13">
+      <c r="E323" t="s" s="16">
         <v>13</v>
       </c>
-      <c r="F323" t="s" s="13">
+      <c r="F323" t="s" s="16">
         <v>14</v>
       </c>
-      <c r="G323" t="s" s="13">
+      <c r="G323" t="s" s="16">
         <v>15</v>
       </c>
-      <c r="H323" t="s" s="13">
+      <c r="H323" t="s" s="16">
         <v>16</v>
       </c>
     </row>
@@ -9550,28 +9568,28 @@
       </c>
     </row>
     <row r="325">
-      <c r="B325" t="s" s="13">
+      <c r="B325" t="s" s="16">
         <v>17</v>
       </c>
-      <c r="C325" t="s" s="13">
+      <c r="C325" t="s" s="16">
         <v>18</v>
       </c>
-      <c r="D325" t="s" s="13">
+      <c r="D325" t="s" s="16">
         <v>19</v>
       </c>
-      <c r="E325" t="s" s="13">
+      <c r="E325" t="s" s="16">
         <v>20</v>
       </c>
-      <c r="F325" t="s" s="13">
+      <c r="F325" t="s" s="16">
         <v>21</v>
       </c>
-      <c r="G325" t="s" s="13">
+      <c r="G325" t="s" s="16">
         <v>22</v>
       </c>
-      <c r="H325" t="s" s="13">
+      <c r="H325" t="s" s="16">
         <v>23</v>
       </c>
-      <c r="I325" t="s" s="13">
+      <c r="I325" t="s" s="16">
         <v>11</v>
       </c>
     </row>
@@ -9630,10 +9648,10 @@
       <c r="I327">
         <f>((C327-C326)^2+(D327- D326)^2)^.5</f>
       </c>
-      <c r="J327" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K327" s="13" t="s">
+      <c r="J327" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K327" s="16" t="s">
         <v>24</v>
       </c>
       <c r="L327" t="n">
@@ -9677,28 +9695,28 @@
       </c>
     </row>
     <row r="329">
-      <c r="A329" t="s" s="13">
+      <c r="A329" t="s" s="16">
         <v>9</v>
       </c>
-      <c r="B329" t="s" s="13">
+      <c r="B329" t="s" s="16">
         <v>10</v>
       </c>
-      <c r="C329" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D329" t="s" s="13">
+      <c r="C329" t="s" s="16">
+        <v>11</v>
+      </c>
+      <c r="D329" t="s" s="16">
         <v>12</v>
       </c>
-      <c r="E329" t="s" s="13">
+      <c r="E329" t="s" s="16">
         <v>13</v>
       </c>
-      <c r="F329" t="s" s="13">
+      <c r="F329" t="s" s="16">
         <v>14</v>
       </c>
-      <c r="G329" t="s" s="13">
+      <c r="G329" t="s" s="16">
         <v>15</v>
       </c>
-      <c r="H329" t="s" s="13">
+      <c r="H329" t="s" s="16">
         <v>16</v>
       </c>
     </row>
@@ -9723,28 +9741,28 @@
       </c>
     </row>
     <row r="331">
-      <c r="B331" t="s" s="13">
+      <c r="B331" t="s" s="16">
         <v>17</v>
       </c>
-      <c r="C331" t="s" s="13">
+      <c r="C331" t="s" s="16">
         <v>18</v>
       </c>
-      <c r="D331" t="s" s="13">
+      <c r="D331" t="s" s="16">
         <v>19</v>
       </c>
-      <c r="E331" t="s" s="13">
+      <c r="E331" t="s" s="16">
         <v>20</v>
       </c>
-      <c r="F331" t="s" s="13">
+      <c r="F331" t="s" s="16">
         <v>21</v>
       </c>
-      <c r="G331" t="s" s="13">
+      <c r="G331" t="s" s="16">
         <v>22</v>
       </c>
-      <c r="H331" t="s" s="13">
+      <c r="H331" t="s" s="16">
         <v>23</v>
       </c>
-      <c r="I331" t="s" s="13">
+      <c r="I331" t="s" s="16">
         <v>11</v>
       </c>
     </row>
@@ -9803,10 +9821,10 @@
       <c r="I333">
         <f>((C333-C332)^2+(D333- D332)^2)^.5</f>
       </c>
-      <c r="J333" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K333" s="13" t="s">
+      <c r="J333" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K333" s="16" t="s">
         <v>24</v>
       </c>
       <c r="L333" t="n">
@@ -9850,28 +9868,28 @@
       </c>
     </row>
     <row r="335">
-      <c r="A335" t="s" s="13">
+      <c r="A335" t="s" s="16">
         <v>9</v>
       </c>
-      <c r="B335" t="s" s="13">
+      <c r="B335" t="s" s="16">
         <v>10</v>
       </c>
-      <c r="C335" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D335" t="s" s="13">
+      <c r="C335" t="s" s="16">
+        <v>11</v>
+      </c>
+      <c r="D335" t="s" s="16">
         <v>12</v>
       </c>
-      <c r="E335" t="s" s="13">
+      <c r="E335" t="s" s="16">
         <v>13</v>
       </c>
-      <c r="F335" t="s" s="13">
+      <c r="F335" t="s" s="16">
         <v>14</v>
       </c>
-      <c r="G335" t="s" s="13">
+      <c r="G335" t="s" s="16">
         <v>15</v>
       </c>
-      <c r="H335" t="s" s="13">
+      <c r="H335" t="s" s="16">
         <v>16</v>
       </c>
     </row>
@@ -9896,28 +9914,28 @@
       </c>
     </row>
     <row r="337">
-      <c r="B337" t="s" s="13">
+      <c r="B337" t="s" s="16">
         <v>17</v>
       </c>
-      <c r="C337" t="s" s="13">
+      <c r="C337" t="s" s="16">
         <v>18</v>
       </c>
-      <c r="D337" t="s" s="13">
+      <c r="D337" t="s" s="16">
         <v>19</v>
       </c>
-      <c r="E337" t="s" s="13">
+      <c r="E337" t="s" s="16">
         <v>20</v>
       </c>
-      <c r="F337" t="s" s="13">
+      <c r="F337" t="s" s="16">
         <v>21</v>
       </c>
-      <c r="G337" t="s" s="13">
+      <c r="G337" t="s" s="16">
         <v>22</v>
       </c>
-      <c r="H337" t="s" s="13">
+      <c r="H337" t="s" s="16">
         <v>23</v>
       </c>
-      <c r="I337" t="s" s="13">
+      <c r="I337" t="s" s="16">
         <v>11</v>
       </c>
     </row>
@@ -9976,10 +9994,10 @@
       <c r="I339">
         <f>((C339-C338)^2+(D339- D338)^2)^.5</f>
       </c>
-      <c r="J339" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K339" s="13" t="s">
+      <c r="J339" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K339" s="16" t="s">
         <v>24</v>
       </c>
       <c r="L339" t="n">
@@ -10023,28 +10041,28 @@
       </c>
     </row>
     <row r="341">
-      <c r="A341" t="s" s="13">
+      <c r="A341" t="s" s="16">
         <v>9</v>
       </c>
-      <c r="B341" t="s" s="13">
+      <c r="B341" t="s" s="16">
         <v>10</v>
       </c>
-      <c r="C341" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D341" t="s" s="13">
+      <c r="C341" t="s" s="16">
+        <v>11</v>
+      </c>
+      <c r="D341" t="s" s="16">
         <v>12</v>
       </c>
-      <c r="E341" t="s" s="13">
+      <c r="E341" t="s" s="16">
         <v>13</v>
       </c>
-      <c r="F341" t="s" s="13">
+      <c r="F341" t="s" s="16">
         <v>14</v>
       </c>
-      <c r="G341" t="s" s="13">
+      <c r="G341" t="s" s="16">
         <v>15</v>
       </c>
-      <c r="H341" t="s" s="13">
+      <c r="H341" t="s" s="16">
         <v>16</v>
       </c>
     </row>
@@ -10069,28 +10087,28 @@
       </c>
     </row>
     <row r="343">
-      <c r="B343" t="s" s="13">
+      <c r="B343" t="s" s="16">
         <v>17</v>
       </c>
-      <c r="C343" t="s" s="13">
+      <c r="C343" t="s" s="16">
         <v>18</v>
       </c>
-      <c r="D343" t="s" s="13">
+      <c r="D343" t="s" s="16">
         <v>19</v>
       </c>
-      <c r="E343" t="s" s="13">
+      <c r="E343" t="s" s="16">
         <v>20</v>
       </c>
-      <c r="F343" t="s" s="13">
+      <c r="F343" t="s" s="16">
         <v>21</v>
       </c>
-      <c r="G343" t="s" s="13">
+      <c r="G343" t="s" s="16">
         <v>22</v>
       </c>
-      <c r="H343" t="s" s="13">
+      <c r="H343" t="s" s="16">
         <v>23</v>
       </c>
-      <c r="I343" t="s" s="13">
+      <c r="I343" t="s" s="16">
         <v>11</v>
       </c>
     </row>
@@ -10149,10 +10167,10 @@
       <c r="I345">
         <f>((C345-C344)^2+(D345- D344)^2)^.5</f>
       </c>
-      <c r="J345" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K345" s="13" t="s">
+      <c r="J345" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K345" s="16" t="s">
         <v>24</v>
       </c>
       <c r="L345" t="n">
@@ -10196,28 +10214,28 @@
       </c>
     </row>
     <row r="347">
-      <c r="A347" t="s" s="13">
+      <c r="A347" t="s" s="16">
         <v>9</v>
       </c>
-      <c r="B347" t="s" s="13">
+      <c r="B347" t="s" s="16">
         <v>10</v>
       </c>
-      <c r="C347" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D347" t="s" s="13">
+      <c r="C347" t="s" s="16">
+        <v>11</v>
+      </c>
+      <c r="D347" t="s" s="16">
         <v>12</v>
       </c>
-      <c r="E347" t="s" s="13">
+      <c r="E347" t="s" s="16">
         <v>13</v>
       </c>
-      <c r="F347" t="s" s="13">
+      <c r="F347" t="s" s="16">
         <v>14</v>
       </c>
-      <c r="G347" t="s" s="13">
+      <c r="G347" t="s" s="16">
         <v>15</v>
       </c>
-      <c r="H347" t="s" s="13">
+      <c r="H347" t="s" s="16">
         <v>16</v>
       </c>
     </row>
@@ -10242,28 +10260,28 @@
       </c>
     </row>
     <row r="349">
-      <c r="B349" t="s" s="13">
+      <c r="B349" t="s" s="16">
         <v>17</v>
       </c>
-      <c r="C349" t="s" s="13">
+      <c r="C349" t="s" s="16">
         <v>18</v>
       </c>
-      <c r="D349" t="s" s="13">
+      <c r="D349" t="s" s="16">
         <v>19</v>
       </c>
-      <c r="E349" t="s" s="13">
+      <c r="E349" t="s" s="16">
         <v>20</v>
       </c>
-      <c r="F349" t="s" s="13">
+      <c r="F349" t="s" s="16">
         <v>21</v>
       </c>
-      <c r="G349" t="s" s="13">
+      <c r="G349" t="s" s="16">
         <v>22</v>
       </c>
-      <c r="H349" t="s" s="13">
+      <c r="H349" t="s" s="16">
         <v>23</v>
       </c>
-      <c r="I349" t="s" s="13">
+      <c r="I349" t="s" s="16">
         <v>11</v>
       </c>
     </row>
@@ -10351,10 +10369,10 @@
       <c r="I352">
         <f>((C352-C351)^2+(D352- D351)^2)^.5</f>
       </c>
-      <c r="J352" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K352" s="13" t="s">
+      <c r="J352" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K352" s="16" t="s">
         <v>24</v>
       </c>
       <c r="L352" t="n">
@@ -10398,28 +10416,28 @@
       </c>
     </row>
     <row r="354">
-      <c r="A354" t="s" s="13">
+      <c r="A354" t="s" s="16">
         <v>9</v>
       </c>
-      <c r="B354" t="s" s="13">
+      <c r="B354" t="s" s="16">
         <v>10</v>
       </c>
-      <c r="C354" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D354" t="s" s="13">
+      <c r="C354" t="s" s="16">
+        <v>11</v>
+      </c>
+      <c r="D354" t="s" s="16">
         <v>12</v>
       </c>
-      <c r="E354" t="s" s="13">
+      <c r="E354" t="s" s="16">
         <v>13</v>
       </c>
-      <c r="F354" t="s" s="13">
+      <c r="F354" t="s" s="16">
         <v>14</v>
       </c>
-      <c r="G354" t="s" s="13">
+      <c r="G354" t="s" s="16">
         <v>15</v>
       </c>
-      <c r="H354" t="s" s="13">
+      <c r="H354" t="s" s="16">
         <v>16</v>
       </c>
     </row>
@@ -10444,28 +10462,28 @@
       </c>
     </row>
     <row r="356">
-      <c r="B356" t="s" s="13">
+      <c r="B356" t="s" s="16">
         <v>17</v>
       </c>
-      <c r="C356" t="s" s="13">
+      <c r="C356" t="s" s="16">
         <v>18</v>
       </c>
-      <c r="D356" t="s" s="13">
+      <c r="D356" t="s" s="16">
         <v>19</v>
       </c>
-      <c r="E356" t="s" s="13">
+      <c r="E356" t="s" s="16">
         <v>20</v>
       </c>
-      <c r="F356" t="s" s="13">
+      <c r="F356" t="s" s="16">
         <v>21</v>
       </c>
-      <c r="G356" t="s" s="13">
+      <c r="G356" t="s" s="16">
         <v>22</v>
       </c>
-      <c r="H356" t="s" s="13">
+      <c r="H356" t="s" s="16">
         <v>23</v>
       </c>
-      <c r="I356" t="s" s="13">
+      <c r="I356" t="s" s="16">
         <v>11</v>
       </c>
     </row>
@@ -10524,10 +10542,10 @@
       <c r="I358">
         <f>((C358-C357)^2+(D358- D357)^2)^.5</f>
       </c>
-      <c r="J358" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K358" s="13" t="s">
+      <c r="J358" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K358" s="16" t="s">
         <v>24</v>
       </c>
       <c r="L358" t="n">
@@ -10571,28 +10589,28 @@
       </c>
     </row>
     <row r="360">
-      <c r="A360" t="s" s="13">
+      <c r="A360" t="s" s="16">
         <v>9</v>
       </c>
-      <c r="B360" t="s" s="13">
+      <c r="B360" t="s" s="16">
         <v>10</v>
       </c>
-      <c r="C360" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D360" t="s" s="13">
+      <c r="C360" t="s" s="16">
+        <v>11</v>
+      </c>
+      <c r="D360" t="s" s="16">
         <v>12</v>
       </c>
-      <c r="E360" t="s" s="13">
+      <c r="E360" t="s" s="16">
         <v>13</v>
       </c>
-      <c r="F360" t="s" s="13">
+      <c r="F360" t="s" s="16">
         <v>14</v>
       </c>
-      <c r="G360" t="s" s="13">
+      <c r="G360" t="s" s="16">
         <v>15</v>
       </c>
-      <c r="H360" t="s" s="13">
+      <c r="H360" t="s" s="16">
         <v>16</v>
       </c>
     </row>
@@ -10617,28 +10635,28 @@
       </c>
     </row>
     <row r="362">
-      <c r="B362" t="s" s="13">
+      <c r="B362" t="s" s="16">
         <v>17</v>
       </c>
-      <c r="C362" t="s" s="13">
+      <c r="C362" t="s" s="16">
         <v>18</v>
       </c>
-      <c r="D362" t="s" s="13">
+      <c r="D362" t="s" s="16">
         <v>19</v>
       </c>
-      <c r="E362" t="s" s="13">
+      <c r="E362" t="s" s="16">
         <v>20</v>
       </c>
-      <c r="F362" t="s" s="13">
+      <c r="F362" t="s" s="16">
         <v>21</v>
       </c>
-      <c r="G362" t="s" s="13">
+      <c r="G362" t="s" s="16">
         <v>22</v>
       </c>
-      <c r="H362" t="s" s="13">
+      <c r="H362" t="s" s="16">
         <v>23</v>
       </c>
-      <c r="I362" t="s" s="13">
+      <c r="I362" t="s" s="16">
         <v>11</v>
       </c>
     </row>
@@ -10755,10 +10773,10 @@
       <c r="I366">
         <f>((C366-C365)^2+(D366- D365)^2)^.5</f>
       </c>
-      <c r="J366" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K366" s="13" t="s">
+      <c r="J366" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K366" s="16" t="s">
         <v>24</v>
       </c>
       <c r="L366" t="n">
@@ -10802,28 +10820,28 @@
       </c>
     </row>
     <row r="368">
-      <c r="A368" t="s" s="13">
+      <c r="A368" t="s" s="16">
         <v>9</v>
       </c>
-      <c r="B368" t="s" s="13">
+      <c r="B368" t="s" s="16">
         <v>10</v>
       </c>
-      <c r="C368" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D368" t="s" s="13">
+      <c r="C368" t="s" s="16">
+        <v>11</v>
+      </c>
+      <c r="D368" t="s" s="16">
         <v>12</v>
       </c>
-      <c r="E368" t="s" s="13">
+      <c r="E368" t="s" s="16">
         <v>13</v>
       </c>
-      <c r="F368" t="s" s="13">
+      <c r="F368" t="s" s="16">
         <v>14</v>
       </c>
-      <c r="G368" t="s" s="13">
+      <c r="G368" t="s" s="16">
         <v>15</v>
       </c>
-      <c r="H368" t="s" s="13">
+      <c r="H368" t="s" s="16">
         <v>16</v>
       </c>
     </row>
@@ -10848,28 +10866,28 @@
       </c>
     </row>
     <row r="370">
-      <c r="B370" t="s" s="13">
+      <c r="B370" t="s" s="16">
         <v>17</v>
       </c>
-      <c r="C370" t="s" s="13">
+      <c r="C370" t="s" s="16">
         <v>18</v>
       </c>
-      <c r="D370" t="s" s="13">
+      <c r="D370" t="s" s="16">
         <v>19</v>
       </c>
-      <c r="E370" t="s" s="13">
+      <c r="E370" t="s" s="16">
         <v>20</v>
       </c>
-      <c r="F370" t="s" s="13">
+      <c r="F370" t="s" s="16">
         <v>21</v>
       </c>
-      <c r="G370" t="s" s="13">
+      <c r="G370" t="s" s="16">
         <v>22</v>
       </c>
-      <c r="H370" t="s" s="13">
+      <c r="H370" t="s" s="16">
         <v>23</v>
       </c>
-      <c r="I370" t="s" s="13">
+      <c r="I370" t="s" s="16">
         <v>11</v>
       </c>
     </row>
@@ -10928,10 +10946,10 @@
       <c r="I372">
         <f>((C372-C371)^2+(D372- D371)^2)^.5</f>
       </c>
-      <c r="J372" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K372" s="13" t="s">
+      <c r="J372" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K372" s="16" t="s">
         <v>24</v>
       </c>
       <c r="L372" t="n">
@@ -10975,28 +10993,28 @@
       </c>
     </row>
     <row r="374">
-      <c r="A374" t="s" s="13">
+      <c r="A374" t="s" s="16">
         <v>9</v>
       </c>
-      <c r="B374" t="s" s="13">
+      <c r="B374" t="s" s="16">
         <v>10</v>
       </c>
-      <c r="C374" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D374" t="s" s="13">
+      <c r="C374" t="s" s="16">
+        <v>11</v>
+      </c>
+      <c r="D374" t="s" s="16">
         <v>12</v>
       </c>
-      <c r="E374" t="s" s="13">
+      <c r="E374" t="s" s="16">
         <v>13</v>
       </c>
-      <c r="F374" t="s" s="13">
+      <c r="F374" t="s" s="16">
         <v>14</v>
       </c>
-      <c r="G374" t="s" s="13">
+      <c r="G374" t="s" s="16">
         <v>15</v>
       </c>
-      <c r="H374" t="s" s="13">
+      <c r="H374" t="s" s="16">
         <v>16</v>
       </c>
     </row>
@@ -11021,28 +11039,28 @@
       </c>
     </row>
     <row r="376">
-      <c r="B376" t="s" s="13">
+      <c r="B376" t="s" s="16">
         <v>17</v>
       </c>
-      <c r="C376" t="s" s="13">
+      <c r="C376" t="s" s="16">
         <v>18</v>
       </c>
-      <c r="D376" t="s" s="13">
+      <c r="D376" t="s" s="16">
         <v>19</v>
       </c>
-      <c r="E376" t="s" s="13">
+      <c r="E376" t="s" s="16">
         <v>20</v>
       </c>
-      <c r="F376" t="s" s="13">
+      <c r="F376" t="s" s="16">
         <v>21</v>
       </c>
-      <c r="G376" t="s" s="13">
+      <c r="G376" t="s" s="16">
         <v>22</v>
       </c>
-      <c r="H376" t="s" s="13">
+      <c r="H376" t="s" s="16">
         <v>23</v>
       </c>
-      <c r="I376" t="s" s="13">
+      <c r="I376" t="s" s="16">
         <v>11</v>
       </c>
     </row>
@@ -11101,10 +11119,10 @@
       <c r="I378">
         <f>((C378-C377)^2+(D378- D377)^2)^.5</f>
       </c>
-      <c r="J378" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K378" s="13" t="s">
+      <c r="J378" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K378" s="16" t="s">
         <v>24</v>
       </c>
       <c r="L378" t="n">
@@ -11148,28 +11166,28 @@
       </c>
     </row>
     <row r="380">
-      <c r="A380" t="s" s="13">
+      <c r="A380" t="s" s="16">
         <v>9</v>
       </c>
-      <c r="B380" t="s" s="13">
+      <c r="B380" t="s" s="16">
         <v>10</v>
       </c>
-      <c r="C380" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D380" t="s" s="13">
+      <c r="C380" t="s" s="16">
+        <v>11</v>
+      </c>
+      <c r="D380" t="s" s="16">
         <v>12</v>
       </c>
-      <c r="E380" t="s" s="13">
+      <c r="E380" t="s" s="16">
         <v>13</v>
       </c>
-      <c r="F380" t="s" s="13">
+      <c r="F380" t="s" s="16">
         <v>14</v>
       </c>
-      <c r="G380" t="s" s="13">
+      <c r="G380" t="s" s="16">
         <v>15</v>
       </c>
-      <c r="H380" t="s" s="13">
+      <c r="H380" t="s" s="16">
         <v>16</v>
       </c>
     </row>
@@ -11194,28 +11212,28 @@
       </c>
     </row>
     <row r="382">
-      <c r="B382" t="s" s="13">
+      <c r="B382" t="s" s="16">
         <v>17</v>
       </c>
-      <c r="C382" t="s" s="13">
+      <c r="C382" t="s" s="16">
         <v>18</v>
       </c>
-      <c r="D382" t="s" s="13">
+      <c r="D382" t="s" s="16">
         <v>19</v>
       </c>
-      <c r="E382" t="s" s="13">
+      <c r="E382" t="s" s="16">
         <v>20</v>
       </c>
-      <c r="F382" t="s" s="13">
+      <c r="F382" t="s" s="16">
         <v>21</v>
       </c>
-      <c r="G382" t="s" s="13">
+      <c r="G382" t="s" s="16">
         <v>22</v>
       </c>
-      <c r="H382" t="s" s="13">
+      <c r="H382" t="s" s="16">
         <v>23</v>
       </c>
-      <c r="I382" t="s" s="13">
+      <c r="I382" t="s" s="16">
         <v>11</v>
       </c>
     </row>
@@ -11274,10 +11292,10 @@
       <c r="I384">
         <f>((C384-C383)^2+(D384- D383)^2)^.5</f>
       </c>
-      <c r="J384" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K384" s="13" t="s">
+      <c r="J384" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K384" s="16" t="s">
         <v>24</v>
       </c>
       <c r="L384" t="n">
@@ -11321,28 +11339,28 @@
       </c>
     </row>
     <row r="386">
-      <c r="A386" t="s" s="13">
+      <c r="A386" t="s" s="16">
         <v>9</v>
       </c>
-      <c r="B386" t="s" s="13">
+      <c r="B386" t="s" s="16">
         <v>10</v>
       </c>
-      <c r="C386" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D386" t="s" s="13">
+      <c r="C386" t="s" s="16">
+        <v>11</v>
+      </c>
+      <c r="D386" t="s" s="16">
         <v>12</v>
       </c>
-      <c r="E386" t="s" s="13">
+      <c r="E386" t="s" s="16">
         <v>13</v>
       </c>
-      <c r="F386" t="s" s="13">
+      <c r="F386" t="s" s="16">
         <v>14</v>
       </c>
-      <c r="G386" t="s" s="13">
+      <c r="G386" t="s" s="16">
         <v>15</v>
       </c>
-      <c r="H386" t="s" s="13">
+      <c r="H386" t="s" s="16">
         <v>16</v>
       </c>
     </row>
@@ -11367,28 +11385,28 @@
       </c>
     </row>
     <row r="388">
-      <c r="B388" t="s" s="13">
+      <c r="B388" t="s" s="16">
         <v>17</v>
       </c>
-      <c r="C388" t="s" s="13">
+      <c r="C388" t="s" s="16">
         <v>18</v>
       </c>
-      <c r="D388" t="s" s="13">
+      <c r="D388" t="s" s="16">
         <v>19</v>
       </c>
-      <c r="E388" t="s" s="13">
+      <c r="E388" t="s" s="16">
         <v>20</v>
       </c>
-      <c r="F388" t="s" s="13">
+      <c r="F388" t="s" s="16">
         <v>21</v>
       </c>
-      <c r="G388" t="s" s="13">
+      <c r="G388" t="s" s="16">
         <v>22</v>
       </c>
-      <c r="H388" t="s" s="13">
+      <c r="H388" t="s" s="16">
         <v>23</v>
       </c>
-      <c r="I388" t="s" s="13">
+      <c r="I388" t="s" s="16">
         <v>11</v>
       </c>
     </row>
@@ -11447,10 +11465,10 @@
       <c r="I390">
         <f>((C390-C389)^2+(D390- D389)^2)^.5</f>
       </c>
-      <c r="J390" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K390" s="13" t="s">
+      <c r="J390" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K390" s="16" t="s">
         <v>24</v>
       </c>
       <c r="L390" t="n">
@@ -11494,28 +11512,28 @@
       </c>
     </row>
     <row r="392">
-      <c r="A392" t="s" s="13">
+      <c r="A392" t="s" s="16">
         <v>9</v>
       </c>
-      <c r="B392" t="s" s="13">
+      <c r="B392" t="s" s="16">
         <v>10</v>
       </c>
-      <c r="C392" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D392" t="s" s="13">
+      <c r="C392" t="s" s="16">
+        <v>11</v>
+      </c>
+      <c r="D392" t="s" s="16">
         <v>12</v>
       </c>
-      <c r="E392" t="s" s="13">
+      <c r="E392" t="s" s="16">
         <v>13</v>
       </c>
-      <c r="F392" t="s" s="13">
+      <c r="F392" t="s" s="16">
         <v>14</v>
       </c>
-      <c r="G392" t="s" s="13">
+      <c r="G392" t="s" s="16">
         <v>15</v>
       </c>
-      <c r="H392" t="s" s="13">
+      <c r="H392" t="s" s="16">
         <v>16</v>
       </c>
     </row>
@@ -11540,28 +11558,28 @@
       </c>
     </row>
     <row r="394">
-      <c r="B394" t="s" s="13">
+      <c r="B394" t="s" s="16">
         <v>17</v>
       </c>
-      <c r="C394" t="s" s="13">
+      <c r="C394" t="s" s="16">
         <v>18</v>
       </c>
-      <c r="D394" t="s" s="13">
+      <c r="D394" t="s" s="16">
         <v>19</v>
       </c>
-      <c r="E394" t="s" s="13">
+      <c r="E394" t="s" s="16">
         <v>20</v>
       </c>
-      <c r="F394" t="s" s="13">
+      <c r="F394" t="s" s="16">
         <v>21</v>
       </c>
-      <c r="G394" t="s" s="13">
+      <c r="G394" t="s" s="16">
         <v>22</v>
       </c>
-      <c r="H394" t="s" s="13">
+      <c r="H394" t="s" s="16">
         <v>23</v>
       </c>
-      <c r="I394" t="s" s="13">
+      <c r="I394" t="s" s="16">
         <v>11</v>
       </c>
     </row>
@@ -11620,10 +11638,10 @@
       <c r="I396">
         <f>((C396-C395)^2+(D396- D395)^2)^.5</f>
       </c>
-      <c r="J396" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K396" s="13" t="s">
+      <c r="J396" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K396" s="16" t="s">
         <v>24</v>
       </c>
       <c r="L396" t="n">
@@ -11667,28 +11685,28 @@
       </c>
     </row>
     <row r="398">
-      <c r="A398" t="s" s="13">
+      <c r="A398" t="s" s="16">
         <v>9</v>
       </c>
-      <c r="B398" t="s" s="13">
+      <c r="B398" t="s" s="16">
         <v>10</v>
       </c>
-      <c r="C398" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D398" t="s" s="13">
+      <c r="C398" t="s" s="16">
+        <v>11</v>
+      </c>
+      <c r="D398" t="s" s="16">
         <v>12</v>
       </c>
-      <c r="E398" t="s" s="13">
+      <c r="E398" t="s" s="16">
         <v>13</v>
       </c>
-      <c r="F398" t="s" s="13">
+      <c r="F398" t="s" s="16">
         <v>14</v>
       </c>
-      <c r="G398" t="s" s="13">
+      <c r="G398" t="s" s="16">
         <v>15</v>
       </c>
-      <c r="H398" t="s" s="13">
+      <c r="H398" t="s" s="16">
         <v>16</v>
       </c>
     </row>
@@ -11713,28 +11731,28 @@
       </c>
     </row>
     <row r="400">
-      <c r="B400" t="s" s="13">
+      <c r="B400" t="s" s="16">
         <v>17</v>
       </c>
-      <c r="C400" t="s" s="13">
+      <c r="C400" t="s" s="16">
         <v>18</v>
       </c>
-      <c r="D400" t="s" s="13">
+      <c r="D400" t="s" s="16">
         <v>19</v>
       </c>
-      <c r="E400" t="s" s="13">
+      <c r="E400" t="s" s="16">
         <v>20</v>
       </c>
-      <c r="F400" t="s" s="13">
+      <c r="F400" t="s" s="16">
         <v>21</v>
       </c>
-      <c r="G400" t="s" s="13">
+      <c r="G400" t="s" s="16">
         <v>22</v>
       </c>
-      <c r="H400" t="s" s="13">
+      <c r="H400" t="s" s="16">
         <v>23</v>
       </c>
-      <c r="I400" t="s" s="13">
+      <c r="I400" t="s" s="16">
         <v>11</v>
       </c>
     </row>
@@ -11793,10 +11811,10 @@
       <c r="I402">
         <f>((C402-C401)^2+(D402- D401)^2)^.5</f>
       </c>
-      <c r="J402" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K402" s="13" t="s">
+      <c r="J402" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K402" s="16" t="s">
         <v>24</v>
       </c>
       <c r="L402" t="n">
@@ -11840,28 +11858,28 @@
       </c>
     </row>
     <row r="404">
-      <c r="A404" t="s" s="13">
+      <c r="A404" t="s" s="16">
         <v>9</v>
       </c>
-      <c r="B404" t="s" s="13">
+      <c r="B404" t="s" s="16">
         <v>10</v>
       </c>
-      <c r="C404" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D404" t="s" s="13">
+      <c r="C404" t="s" s="16">
+        <v>11</v>
+      </c>
+      <c r="D404" t="s" s="16">
         <v>12</v>
       </c>
-      <c r="E404" t="s" s="13">
+      <c r="E404" t="s" s="16">
         <v>13</v>
       </c>
-      <c r="F404" t="s" s="13">
+      <c r="F404" t="s" s="16">
         <v>14</v>
       </c>
-      <c r="G404" t="s" s="13">
+      <c r="G404" t="s" s="16">
         <v>15</v>
       </c>
-      <c r="H404" t="s" s="13">
+      <c r="H404" t="s" s="16">
         <v>16</v>
       </c>
     </row>
@@ -11886,28 +11904,28 @@
       </c>
     </row>
     <row r="406">
-      <c r="B406" t="s" s="13">
+      <c r="B406" t="s" s="16">
         <v>17</v>
       </c>
-      <c r="C406" t="s" s="13">
+      <c r="C406" t="s" s="16">
         <v>18</v>
       </c>
-      <c r="D406" t="s" s="13">
+      <c r="D406" t="s" s="16">
         <v>19</v>
       </c>
-      <c r="E406" t="s" s="13">
+      <c r="E406" t="s" s="16">
         <v>20</v>
       </c>
-      <c r="F406" t="s" s="13">
+      <c r="F406" t="s" s="16">
         <v>21</v>
       </c>
-      <c r="G406" t="s" s="13">
+      <c r="G406" t="s" s="16">
         <v>22</v>
       </c>
-      <c r="H406" t="s" s="13">
+      <c r="H406" t="s" s="16">
         <v>23</v>
       </c>
-      <c r="I406" t="s" s="13">
+      <c r="I406" t="s" s="16">
         <v>11</v>
       </c>
     </row>
@@ -11966,10 +11984,10 @@
       <c r="I408">
         <f>((C408-C407)^2+(D408- D407)^2)^.5</f>
       </c>
-      <c r="J408" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K408" s="13" t="s">
+      <c r="J408" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K408" s="16" t="s">
         <v>24</v>
       </c>
       <c r="L408" t="n">
@@ -12013,28 +12031,28 @@
       </c>
     </row>
     <row r="410">
-      <c r="A410" t="s" s="13">
+      <c r="A410" t="s" s="16">
         <v>9</v>
       </c>
-      <c r="B410" t="s" s="13">
+      <c r="B410" t="s" s="16">
         <v>10</v>
       </c>
-      <c r="C410" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D410" t="s" s="13">
+      <c r="C410" t="s" s="16">
+        <v>11</v>
+      </c>
+      <c r="D410" t="s" s="16">
         <v>12</v>
       </c>
-      <c r="E410" t="s" s="13">
+      <c r="E410" t="s" s="16">
         <v>13</v>
       </c>
-      <c r="F410" t="s" s="13">
+      <c r="F410" t="s" s="16">
         <v>14</v>
       </c>
-      <c r="G410" t="s" s="13">
+      <c r="G410" t="s" s="16">
         <v>15</v>
       </c>
-      <c r="H410" t="s" s="13">
+      <c r="H410" t="s" s="16">
         <v>16</v>
       </c>
     </row>
@@ -12059,28 +12077,28 @@
       </c>
     </row>
     <row r="412">
-      <c r="B412" t="s" s="13">
+      <c r="B412" t="s" s="16">
         <v>17</v>
       </c>
-      <c r="C412" t="s" s="13">
+      <c r="C412" t="s" s="16">
         <v>18</v>
       </c>
-      <c r="D412" t="s" s="13">
+      <c r="D412" t="s" s="16">
         <v>19</v>
       </c>
-      <c r="E412" t="s" s="13">
+      <c r="E412" t="s" s="16">
         <v>20</v>
       </c>
-      <c r="F412" t="s" s="13">
+      <c r="F412" t="s" s="16">
         <v>21</v>
       </c>
-      <c r="G412" t="s" s="13">
+      <c r="G412" t="s" s="16">
         <v>22</v>
       </c>
-      <c r="H412" t="s" s="13">
+      <c r="H412" t="s" s="16">
         <v>23</v>
       </c>
-      <c r="I412" t="s" s="13">
+      <c r="I412" t="s" s="16">
         <v>11</v>
       </c>
     </row>
@@ -12168,10 +12186,10 @@
       <c r="I415">
         <f>((C415-C414)^2+(D415- D414)^2)^.5</f>
       </c>
-      <c r="J415" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K415" s="13" t="s">
+      <c r="J415" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K415" s="16" t="s">
         <v>24</v>
       </c>
       <c r="L415" t="n">
@@ -12215,28 +12233,28 @@
       </c>
     </row>
     <row r="417">
-      <c r="A417" t="s" s="13">
+      <c r="A417" t="s" s="16">
         <v>9</v>
       </c>
-      <c r="B417" t="s" s="13">
+      <c r="B417" t="s" s="16">
         <v>10</v>
       </c>
-      <c r="C417" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D417" t="s" s="13">
+      <c r="C417" t="s" s="16">
+        <v>11</v>
+      </c>
+      <c r="D417" t="s" s="16">
         <v>12</v>
       </c>
-      <c r="E417" t="s" s="13">
+      <c r="E417" t="s" s="16">
         <v>13</v>
       </c>
-      <c r="F417" t="s" s="13">
+      <c r="F417" t="s" s="16">
         <v>14</v>
       </c>
-      <c r="G417" t="s" s="13">
+      <c r="G417" t="s" s="16">
         <v>15</v>
       </c>
-      <c r="H417" t="s" s="13">
+      <c r="H417" t="s" s="16">
         <v>16</v>
       </c>
     </row>
@@ -12261,28 +12279,28 @@
       </c>
     </row>
     <row r="419">
-      <c r="B419" t="s" s="13">
+      <c r="B419" t="s" s="16">
         <v>17</v>
       </c>
-      <c r="C419" t="s" s="13">
+      <c r="C419" t="s" s="16">
         <v>18</v>
       </c>
-      <c r="D419" t="s" s="13">
+      <c r="D419" t="s" s="16">
         <v>19</v>
       </c>
-      <c r="E419" t="s" s="13">
+      <c r="E419" t="s" s="16">
         <v>20</v>
       </c>
-      <c r="F419" t="s" s="13">
+      <c r="F419" t="s" s="16">
         <v>21</v>
       </c>
-      <c r="G419" t="s" s="13">
+      <c r="G419" t="s" s="16">
         <v>22</v>
       </c>
-      <c r="H419" t="s" s="13">
+      <c r="H419" t="s" s="16">
         <v>23</v>
       </c>
-      <c r="I419" t="s" s="13">
+      <c r="I419" t="s" s="16">
         <v>11</v>
       </c>
     </row>
@@ -12341,10 +12359,10 @@
       <c r="I421">
         <f>((C421-C420)^2+(D421- D420)^2)^.5</f>
       </c>
-      <c r="J421" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K421" s="13" t="s">
+      <c r="J421" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K421" s="16" t="s">
         <v>24</v>
       </c>
       <c r="L421" t="n">
